--- a/build/data/maindata.xlsx
+++ b/build/data/maindata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/elections/20180927-absentee/build/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A173180-BF5F-CA43-9552-9AF3CAA897B5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4573FF-EA4E-6B4B-8343-F24CB76916B5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2500" yWindow="1000" windowWidth="26900" windowHeight="17360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4120" yWindow="6360" windowWidth="26900" windowHeight="17360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018age" sheetId="11" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="340">
   <si>
     <t>countyname</t>
   </si>
@@ -1043,6 +1043,18 @@
   </si>
   <si>
     <t>85+</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>total_vote</t>
+  </si>
+  <si>
+    <t>ab_pct</t>
+  </si>
+  <si>
+    <t>ab_ballots</t>
   </si>
 </sst>
 </file>
@@ -3353,7 +3365,7 @@
   <dimension ref="A1:Z93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:Z1"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10845,10 +10857,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34709779-4AE9-184C-8747-61ED2F71A71A}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10955,6 +10967,99 @@
         <v>258</v>
       </c>
     </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>336</v>
+      </c>
+      <c r="B16" t="s">
+        <v>338</v>
+      </c>
+      <c r="C16" t="s">
+        <v>337</v>
+      </c>
+      <c r="D16" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2018</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>11353</v>
+      </c>
+      <c r="D17">
+        <v>11353</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2016</v>
+      </c>
+      <c r="B18">
+        <v>0.2077</v>
+      </c>
+      <c r="C18">
+        <v>5936562</v>
+      </c>
+      <c r="D18">
+        <f>C18*B18</f>
+        <v>1233023.9273999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2014</v>
+      </c>
+      <c r="B19">
+        <v>9.9299999999999999E-2</v>
+      </c>
+      <c r="C19">
+        <v>1992566</v>
+      </c>
+      <c r="D19">
+        <f>C19*B19</f>
+        <v>197861.80379999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H20">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H21">
+        <v>19693</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H22">
+        <v>35324</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H23">
+        <v>45298</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H24">
+        <v>98057</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H25">
+        <v>124844</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H26">
+        <v>206871</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10964,7 +11069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -15342,8 +15447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:J41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33:D40"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/build/data/maindata.xlsx
+++ b/build/data/maindata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/elections/20180927-absentee/build/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4573FF-EA4E-6B4B-8343-F24CB76916B5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A96672-E354-1949-9F11-0BC8EAD9C385}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4120" yWindow="6360" windowWidth="26900" windowHeight="17360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4160" yWindow="460" windowWidth="26900" windowHeight="17360" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018age" sheetId="11" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="355">
   <si>
     <t>countyname</t>
   </si>
@@ -1055,6 +1055,51 @@
   </si>
   <si>
     <t>ab_ballots</t>
+  </si>
+  <si>
+    <t>2016 AB: 607737</t>
+  </si>
+  <si>
+    <t>2016 MB: 59709</t>
+  </si>
+  <si>
+    <t>2016 AB + MB: 667446</t>
+  </si>
+  <si>
+    <t>2014 AB: 196075</t>
+  </si>
+  <si>
+    <t>2014 MB: 37488</t>
+  </si>
+  <si>
+    <t>2014 AB + MB: 233563</t>
+  </si>
+  <si>
+    <t>ab</t>
+  </si>
+  <si>
+    <t>mb</t>
+  </si>
+  <si>
+    <t>Sep 1-25</t>
+  </si>
+  <si>
+    <t>Sep 26-30</t>
+  </si>
+  <si>
+    <t>Oct 1-8</t>
+  </si>
+  <si>
+    <t>Oct 9-15</t>
+  </si>
+  <si>
+    <t>Oct 16-24</t>
+  </si>
+  <si>
+    <t>Oct 25-31</t>
+  </si>
+  <si>
+    <t>Nov 1-7</t>
   </si>
 </sst>
 </file>
@@ -1065,7 +1110,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1141,6 +1186,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F497D"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1208,7 +1259,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1236,6 +1287,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="30">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2314,15 +2366,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>431799</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>558801</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -10857,10 +10909,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34709779-4AE9-184C-8747-61ED2F71A71A}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10981,7 +11033,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2018</v>
       </c>
@@ -10995,7 +11047,7 @@
         <v>11353</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2016</v>
       </c>
@@ -11010,7 +11062,7 @@
         <v>1233023.9273999999</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2014</v>
       </c>
@@ -11024,38 +11076,93 @@
         <f>C19*B19</f>
         <v>197861.80379999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K19" s="23" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="H20">
         <v>1425</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K20" s="23" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="H21">
         <v>19693</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K21" s="23" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>336</v>
+      </c>
+      <c r="B22" t="s">
+        <v>346</v>
+      </c>
+      <c r="C22" t="s">
+        <v>347</v>
+      </c>
+      <c r="D22" t="s">
+        <v>121</v>
+      </c>
       <c r="H22">
         <v>35324</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K22" s="23"/>
+    </row>
+    <row r="23" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2016</v>
+      </c>
+      <c r="B23">
+        <v>607737</v>
+      </c>
+      <c r="C23">
+        <v>59709</v>
+      </c>
+      <c r="D23">
+        <v>667446</v>
+      </c>
       <c r="H23">
         <v>45298</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K23" s="23" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2014</v>
+      </c>
+      <c r="B24">
+        <v>196075</v>
+      </c>
+      <c r="C24">
+        <v>37488</v>
+      </c>
+      <c r="D24">
+        <v>233563</v>
+      </c>
       <c r="H24">
         <v>98057</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K24" s="23" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="H25">
         <v>124844</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K25" s="23" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H26">
         <v>206871</v>
       </c>
@@ -15445,10 +15552,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:J41"/>
+  <dimension ref="A2:P41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15816,7 +15923,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>9</v>
       </c>
@@ -15838,7 +15945,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>9</v>
       </c>
@@ -15860,7 +15967,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>10</v>
       </c>
@@ -15882,7 +15989,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>10</v>
       </c>
@@ -15904,7 +16011,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>10</v>
       </c>
@@ -15926,7 +16033,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>10</v>
       </c>
@@ -15948,7 +16055,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>10</v>
       </c>
@@ -15970,7 +16077,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>10</v>
       </c>
@@ -15992,7 +16099,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>10</v>
       </c>
@@ -16014,7 +16121,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>10</v>
       </c>
@@ -16036,7 +16143,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>10</v>
       </c>
@@ -16058,7 +16165,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>10</v>
       </c>
@@ -16080,7 +16187,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>10</v>
       </c>
@@ -16102,7 +16209,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>10</v>
       </c>
@@ -16124,7 +16231,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>10</v>
       </c>
@@ -16146,7 +16253,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>10</v>
       </c>
@@ -16167,8 +16274,14 @@
       <c r="F32" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="O32" t="s">
+        <v>348</v>
+      </c>
+      <c r="P32">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>10</v>
       </c>
@@ -16189,8 +16302,14 @@
       <c r="F33" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="O33" t="s">
+        <v>349</v>
+      </c>
+      <c r="P33">
+        <v>19693</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>10</v>
       </c>
@@ -16217,8 +16336,14 @@
       <c r="J34">
         <v>7573</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="O34" t="s">
+        <v>350</v>
+      </c>
+      <c r="P34">
+        <v>35324</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>10</v>
       </c>
@@ -16245,8 +16370,14 @@
       <c r="J35">
         <v>30110</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="O35" t="s">
+        <v>351</v>
+      </c>
+      <c r="P35">
+        <v>45298</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>10</v>
       </c>
@@ -16273,8 +16404,14 @@
       <c r="J36">
         <v>27408</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="O36" t="s">
+        <v>352</v>
+      </c>
+      <c r="P36">
+        <v>98057</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>10</v>
       </c>
@@ -16301,8 +16438,14 @@
       <c r="J37">
         <v>42693</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="O37" t="s">
+        <v>353</v>
+      </c>
+      <c r="P37">
+        <v>124844</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>10</v>
       </c>
@@ -16329,8 +16472,14 @@
       <c r="J38">
         <v>67073</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="O38" t="s">
+        <v>354</v>
+      </c>
+      <c r="P38">
+        <v>206871</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>10</v>
       </c>
@@ -16358,7 +16507,7 @@
         <v>24940</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>10</v>
       </c>
@@ -16383,7 +16532,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>10</v>
       </c>

--- a/build/data/maindata.xlsx
+++ b/build/data/maindata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/elections/20180927-absentee/build/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A96672-E354-1949-9F11-0BC8EAD9C385}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03C142C-EA51-7841-B4EA-5B88225B472A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4160" yWindow="460" windowWidth="26900" windowHeight="17360" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5300" yWindow="1040" windowWidth="26900" windowHeight="17360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018age" sheetId="11" r:id="rId1"/>
@@ -10911,8 +10911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34709779-4AE9-184C-8747-61ED2F71A71A}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15554,8 +15554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R34" sqref="R34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P32" sqref="P32:P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/build/data/maindata.xlsx
+++ b/build/data/maindata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/elections/20180927-absentee/build/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03C142C-EA51-7841-B4EA-5B88225B472A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C38D090-0CCA-A140-AA00-85FC0F748400}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5300" yWindow="1040" windowWidth="26900" windowHeight="17360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1120" yWindow="1840" windowWidth="25480" windowHeight="17360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018age" sheetId="11" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="370">
   <si>
     <t>countyname</t>
   </si>
@@ -784,18 +784,6 @@
     <t>week7_pct</t>
   </si>
   <si>
-    <t>Other Metro</t>
-  </si>
-  <si>
-    <t>Outer Suburbs</t>
-  </si>
-  <si>
-    <t>Outstate Cities</t>
-  </si>
-  <si>
-    <t>Other Outstate</t>
-  </si>
-  <si>
     <t>votes</t>
   </si>
   <si>
@@ -1100,6 +1088,63 @@
   </si>
   <si>
     <t>Nov 1-7</t>
+  </si>
+  <si>
+    <t>outstate</t>
+  </si>
+  <si>
+    <t>metro</t>
+  </si>
+  <si>
+    <t>tc</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>statewide</t>
+  </si>
+  <si>
+    <t>2016_votes</t>
+  </si>
+  <si>
+    <t>week 0</t>
+  </si>
+  <si>
+    <t>week 1</t>
+  </si>
+  <si>
+    <t>week 2</t>
+  </si>
+  <si>
+    <t>week 3</t>
+  </si>
+  <si>
+    <t>week 4</t>
+  </si>
+  <si>
+    <t>week 5</t>
+  </si>
+  <si>
+    <t>week 6</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>36 to 50</t>
+  </si>
+  <si>
+    <t>18 to 35</t>
+  </si>
+  <si>
+    <t>51 to 65</t>
+  </si>
+  <si>
+    <t>66+</t>
   </si>
 </sst>
 </file>
@@ -1259,7 +1304,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1285,9 +1330,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="30">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2693,26 +2739,26 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -2751,10 +2797,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C7" t="s">
         <v>213</v>
@@ -2762,10 +2808,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C8" t="s">
         <v>213</v>
@@ -2773,10 +2819,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C9" t="s">
         <v>213</v>
@@ -2839,10 +2885,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B15" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C15" t="s">
         <v>181</v>
@@ -2863,7 +2909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:B78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A45" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -2875,53 +2921,53 @@
   <sheetData>
     <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B2"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B3" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B4" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B5" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B6" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -2929,7 +2975,7 @@
         <v>224</v>
       </c>
       <c r="B10" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -2937,7 +2983,7 @@
         <v>223</v>
       </c>
       <c r="B11" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -2945,7 +2991,7 @@
         <v>230</v>
       </c>
       <c r="B12" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -2953,7 +2999,7 @@
         <v>228</v>
       </c>
       <c r="B13" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -2961,7 +3007,7 @@
         <v>229</v>
       </c>
       <c r="B14" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -2969,7 +3015,7 @@
         <v>227</v>
       </c>
       <c r="B15" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -2977,7 +3023,7 @@
         <v>225</v>
       </c>
       <c r="B16" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -2985,7 +3031,7 @@
         <v>226</v>
       </c>
       <c r="B17" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -2993,7 +3039,7 @@
         <v>231</v>
       </c>
       <c r="B18" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -3001,7 +3047,7 @@
         <v>232</v>
       </c>
       <c r="B19" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -3009,7 +3055,7 @@
         <v>235</v>
       </c>
       <c r="B20" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -3017,7 +3063,7 @@
         <v>236</v>
       </c>
       <c r="B21" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -3025,7 +3071,7 @@
         <v>237</v>
       </c>
       <c r="B22" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -3033,7 +3079,7 @@
         <v>233</v>
       </c>
       <c r="B23" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -3041,7 +3087,7 @@
         <v>234</v>
       </c>
       <c r="B24" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -3049,7 +3095,7 @@
         <v>238</v>
       </c>
       <c r="B25" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -3057,84 +3103,84 @@
         <v>239</v>
       </c>
       <c r="B26" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>240</v>
       </c>
-      <c r="B27" s="22" t="s">
-        <v>295</v>
+      <c r="B27" s="21" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>241</v>
       </c>
-      <c r="B28" s="22" t="s">
-        <v>296</v>
+      <c r="B28" s="21" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>245</v>
       </c>
-      <c r="B29" s="22" t="s">
-        <v>297</v>
+      <c r="B29" s="21" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>244</v>
       </c>
-      <c r="B30" s="22" t="s">
-        <v>298</v>
+      <c r="B30" s="21" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>246</v>
       </c>
-      <c r="B31" s="22" t="s">
-        <v>299</v>
+      <c r="B31" s="21" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>242</v>
       </c>
-      <c r="B32" s="22" t="s">
-        <v>300</v>
+      <c r="B32" s="21" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>243</v>
       </c>
-      <c r="B33" s="22" t="s">
-        <v>301</v>
+      <c r="B33" s="21" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>247</v>
       </c>
-      <c r="B34" s="22" t="s">
-        <v>302</v>
+      <c r="B34" s="21" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>248</v>
       </c>
-      <c r="B35" s="22" t="s">
-        <v>303</v>
+      <c r="B35" s="21" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -3142,31 +3188,31 @@
         <v>215</v>
       </c>
       <c r="B38" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B39" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B40" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B41" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -3366,12 +3412,12 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B75" t="s">
         <v>100</v>
@@ -3379,26 +3425,26 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B76" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B77" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B78" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -3414,134 +3460,136 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB4EA2C9-9ED6-A943-AB1C-F5E8A28BF868}">
-  <dimension ref="A1:Z93"/>
+  <dimension ref="A1:AA93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="5" width="10.83203125" style="20"/>
+    <col min="2" max="4" width="10.83203125" style="24"/>
+    <col min="5" max="6" width="10.83203125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="23" t="s">
         <v>228</v>
       </c>
       <c r="E1" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="G1" t="s">
         <v>227</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>225</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>226</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>231</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>232</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>235</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>236</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>237</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>233</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>234</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>238</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>239</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>240</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>241</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>245</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>244</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>246</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>242</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>243</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>247</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="23">
         <v>10041</v>
       </c>
-      <c r="C2" s="19">
-        <f>SUM(F2+I2+L2+O2+R2+U2+X2)</f>
-        <v>0</v>
-      </c>
-      <c r="D2" s="19">
-        <f>SUM(G2+J2+M2+P2+S2+V2+Y2)</f>
-        <v>0</v>
+      <c r="C2" s="21">
+        <v>1291</v>
+      </c>
+      <c r="D2" s="23">
+        <v>164</v>
       </c>
       <c r="E2" s="19">
-        <f>D2/B2</f>
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
+        <f>D2/$D$89</f>
+        <v>3.8541079150216208E-3</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>351</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <f>G2/B2</f>
         <v>0</v>
       </c>
       <c r="I2">
+        <f>H2/B2</f>
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1291</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -3588,44 +3636,45 @@
       <c r="Z2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="23">
         <v>206870</v>
       </c>
-      <c r="C3" s="19">
-        <f t="shared" ref="C3:C66" si="0">SUM(F3+I3+L3+O3+R3+U3+X3)</f>
+      <c r="C3" s="21">
+        <v>8406</v>
+      </c>
+      <c r="D3" s="23">
+        <v>2771</v>
+      </c>
+      <c r="E3" s="19">
+        <f t="shared" ref="E3:E66" si="0">D3/$D$89</f>
+        <v>6.5120323369054336E-2</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="G3">
         <v>5947</v>
       </c>
-      <c r="D3" s="19">
-        <f t="shared" ref="D3:D66" si="1">SUM(G3+J3+M3+P3+S3+V3+Y3)</f>
+      <c r="H3">
         <v>522</v>
       </c>
-      <c r="E3" s="19">
-        <f t="shared" ref="E3:E66" si="2">D3/B3</f>
+      <c r="I3">
+        <f t="shared" ref="I3:I66" si="1">H3/B3</f>
         <v>2.5233238265577416E-3</v>
       </c>
-      <c r="F3">
-        <v>5947</v>
-      </c>
-      <c r="G3">
-        <v>522</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H66" si="3">G3/B3</f>
-        <v>2.5233238265577416E-3</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
       <c r="J3">
-        <v>0</v>
+        <v>8406</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>2771</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -3672,44 +3721,45 @@
       <c r="Z3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="23">
         <v>19110</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="21">
+        <v>1885</v>
+      </c>
+      <c r="D4" s="23">
+        <v>363</v>
+      </c>
+      <c r="E4" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D4" s="19">
+        <v>8.5307388606880984E-3</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E4" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
       <c r="J4">
-        <v>0</v>
+        <v>1885</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>363</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -3756,44 +3806,45 @@
       <c r="Z4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="23">
         <v>23932</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="21">
+        <v>1002</v>
+      </c>
+      <c r="D5" s="23">
+        <v>312</v>
+      </c>
+      <c r="E5" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D5" s="19">
+        <v>7.3322053017484488E-3</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E5" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
       <c r="J5">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>312</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -3840,44 +3891,45 @@
       <c r="Z5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="23">
         <v>22566</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="21">
+        <v>643</v>
+      </c>
+      <c r="D6" s="23">
+        <v>120</v>
+      </c>
+      <c r="E6" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D6" s="19">
+        <v>2.8200789622109417E-3</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E6" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
       <c r="J6">
-        <v>0</v>
+        <v>643</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -3924,44 +3976,45 @@
       <c r="Z6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="23">
         <v>3043</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="21">
+        <v>1270</v>
+      </c>
+      <c r="D7" s="23">
+        <v>23</v>
+      </c>
+      <c r="E7" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D7" s="19">
+        <v>5.4051513442376388E-4</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E7" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
       <c r="J7">
-        <v>0</v>
+        <v>1270</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -4008,44 +4061,45 @@
       <c r="Z7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="23">
         <v>36134</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="21">
+        <v>5306</v>
+      </c>
+      <c r="D8" s="23">
+        <v>884</v>
+      </c>
+      <c r="E8" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D8" s="19">
+        <v>2.0774581688287271E-2</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E8" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
       <c r="J8">
-        <v>0</v>
+        <v>5306</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>884</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -4092,44 +4146,45 @@
       <c r="Z8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="23">
         <v>14880</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="21">
+        <v>2826</v>
+      </c>
+      <c r="D9" s="23">
+        <v>95</v>
+      </c>
+      <c r="E9" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D9" s="19">
+        <v>2.2325625117503292E-3</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E9" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
       <c r="J9">
-        <v>0</v>
+        <v>2826</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -4176,41 +4231,42 @@
       <c r="Z9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="23">
         <v>20458</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="21">
+        <v>836</v>
+      </c>
+      <c r="D10" s="23">
+        <v>0</v>
+      </c>
+      <c r="E10" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D10" s="19">
+      <c r="F10" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E10" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
       <c r="J10">
-        <v>0</v>
+        <v>836</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -4260,44 +4316,45 @@
       <c r="Z10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="23">
         <v>61854</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="21">
+        <v>2860</v>
+      </c>
+      <c r="D11" s="23">
+        <v>802</v>
+      </c>
+      <c r="E11" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D11" s="19">
+        <v>1.8847527730776463E-2</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E11" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
       <c r="J11">
-        <v>0</v>
+        <v>2860</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>802</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -4344,44 +4401,45 @@
       <c r="Z11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="23">
         <v>18117</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="21">
+        <v>5751</v>
+      </c>
+      <c r="D12" s="23">
+        <v>775</v>
+      </c>
+      <c r="E12" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D12" s="19">
+        <v>1.8213009964278999E-2</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E12" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
       <c r="J12">
-        <v>0</v>
+        <v>5751</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>775</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -4428,44 +4486,45 @@
       <c r="Z12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13" s="23">
         <v>6931</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="21">
+        <v>133</v>
+      </c>
+      <c r="D13" s="23">
+        <v>23</v>
+      </c>
+      <c r="E13" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D13" s="19">
+        <v>5.4051513442376388E-4</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E13" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
       <c r="J13">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -4512,44 +4571,45 @@
       <c r="Z13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="23">
         <v>33544</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="21">
+        <v>1317</v>
+      </c>
+      <c r="D14" s="23">
+        <v>306</v>
+      </c>
+      <c r="E14" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D14" s="19">
+        <v>7.1912013536379014E-3</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E14" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
       <c r="J14">
-        <v>0</v>
+        <v>1317</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>306</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -4596,44 +4656,45 @@
       <c r="Z14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="21">
+      <c r="B15" s="23">
         <v>32032</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="21">
+        <v>3233</v>
+      </c>
+      <c r="D15" s="23">
+        <v>519</v>
+      </c>
+      <c r="E15" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D15" s="19">
+        <v>1.2196841511562324E-2</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E15" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
       <c r="J15">
-        <v>0</v>
+        <v>3233</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>519</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -4680,44 +4741,45 @@
       <c r="Z15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B16" s="23">
         <v>4660</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="21">
+        <v>455</v>
+      </c>
+      <c r="D16" s="23">
+        <v>46</v>
+      </c>
+      <c r="E16" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D16" s="19">
+        <v>1.0810302688475278E-3</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E16" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
       <c r="J16">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -4764,44 +4826,45 @@
       <c r="Z16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="23">
         <v>3698</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="21">
+        <v>126</v>
+      </c>
+      <c r="D17" s="23">
+        <v>31</v>
+      </c>
+      <c r="E17" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D17" s="19">
+        <v>7.2852039857115999E-4</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E17" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
       <c r="J17">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -4848,44 +4911,45 @@
       <c r="Z17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18" s="23">
         <v>6196</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="21">
+        <v>167</v>
+      </c>
+      <c r="D18" s="23">
+        <v>49</v>
+      </c>
+      <c r="E18" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D18" s="19">
+        <v>1.1515322429028012E-3</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E18" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
       <c r="J18">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -4932,44 +4996,45 @@
       <c r="Z18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B19" s="23">
         <v>40109</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="21">
+        <v>4566</v>
+      </c>
+      <c r="D19" s="23">
+        <v>326</v>
+      </c>
+      <c r="E19" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D19" s="19">
+        <v>7.6612145140063925E-3</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E19" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
       <c r="J19">
-        <v>0</v>
+        <v>4566</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>326</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -5016,44 +5081,45 @@
       <c r="Z19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20" s="23">
         <v>255313</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="21">
+        <v>15103</v>
+      </c>
+      <c r="D20" s="23">
+        <v>3627</v>
+      </c>
+      <c r="E20" s="19">
         <f t="shared" si="0"/>
+        <v>8.523688663282572E-2</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="G20">
         <v>10288</v>
       </c>
-      <c r="D20" s="19">
+      <c r="H20">
+        <v>836</v>
+      </c>
+      <c r="I20">
         <f t="shared" si="1"/>
-        <v>836</v>
-      </c>
-      <c r="E20" s="19">
-        <f t="shared" si="2"/>
         <v>3.2744121920936261E-3</v>
       </c>
-      <c r="F20">
-        <v>10288</v>
-      </c>
-      <c r="G20">
-        <v>836</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="3"/>
-        <v>3.2744121920936261E-3</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
       <c r="J20">
-        <v>0</v>
+        <v>15103</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>3627</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -5100,44 +5166,45 @@
       <c r="Z20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="21">
+      <c r="B21" s="23">
         <v>11834</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="21">
+        <v>267</v>
+      </c>
+      <c r="D21" s="23">
+        <v>32</v>
+      </c>
+      <c r="E21" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D21" s="19">
+        <v>7.5202105658958454E-4</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E21" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
       <c r="J21">
-        <v>0</v>
+        <v>267</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -5184,44 +5251,45 @@
       <c r="Z21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="21">
+      <c r="B22" s="23">
         <v>24578</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="21">
+        <v>940</v>
+      </c>
+      <c r="D22" s="23">
+        <v>390</v>
+      </c>
+      <c r="E22" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D22" s="19">
+        <v>9.1652566271855605E-3</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E22" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
       <c r="J22">
-        <v>0</v>
+        <v>940</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -5268,44 +5336,45 @@
       <c r="Z22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="21">
+      <c r="B23" s="23">
         <v>8089</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="21">
+        <v>303</v>
+      </c>
+      <c r="D23" s="23">
+        <v>60</v>
+      </c>
+      <c r="E23" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D23" s="19">
+        <v>1.4100394811054709E-3</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E23" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
       <c r="J23">
-        <v>0</v>
+        <v>303</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -5352,44 +5421,45 @@
       <c r="Z23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="21">
+      <c r="B24" s="23">
         <v>12168</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="21">
+        <v>1658</v>
+      </c>
+      <c r="D24" s="23">
+        <v>95</v>
+      </c>
+      <c r="E24" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D24" s="19">
+        <v>2.2325625117503292E-3</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E24" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
       <c r="J24">
-        <v>0</v>
+        <v>1658</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -5436,44 +5506,45 @@
       <c r="Z24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="21">
+      <c r="B25" s="23">
         <v>17532</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="21">
+        <v>1081</v>
+      </c>
+      <c r="D25" s="23">
+        <v>177</v>
+      </c>
+      <c r="E25" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D25" s="19">
+        <v>4.1596164692611392E-3</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E25" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
       <c r="J25">
-        <v>0</v>
+        <v>1081</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -5520,44 +5591,45 @@
       <c r="Z25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="21">
+      <c r="B26" s="23">
         <v>28156</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="21">
+        <v>1145</v>
+      </c>
+      <c r="D26" s="23">
+        <v>360</v>
+      </c>
+      <c r="E26" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D26" s="19">
+        <v>8.4602368866328256E-3</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E26" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
       <c r="J26">
-        <v>0</v>
+        <v>1145</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -5604,41 +5676,42 @@
       <c r="Z26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="21">
+      <c r="B27" s="23">
         <v>3819</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="21">
+        <v>2353</v>
+      </c>
+      <c r="D27" s="23">
+        <v>0</v>
+      </c>
+      <c r="E27" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D27" s="19">
+      <c r="F27" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E27" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
       <c r="J27">
-        <v>0</v>
+        <v>2353</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -5688,44 +5761,45 @@
       <c r="Z27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="21">
+      <c r="B28" s="23">
         <v>744857</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="21">
+        <v>51443</v>
+      </c>
+      <c r="D28" s="23">
+        <v>13250</v>
+      </c>
+      <c r="E28" s="19">
         <f t="shared" si="0"/>
+        <v>0.31138371874412485</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="G28">
         <v>36657</v>
       </c>
-      <c r="D28" s="19">
+      <c r="H28">
+        <v>4297</v>
+      </c>
+      <c r="I28">
         <f t="shared" si="1"/>
-        <v>4297</v>
-      </c>
-      <c r="E28" s="19">
-        <f t="shared" si="2"/>
         <v>5.7688925525302172E-3</v>
       </c>
-      <c r="F28">
-        <v>36657</v>
-      </c>
-      <c r="G28">
-        <v>4297</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="3"/>
-        <v>5.7688925525302172E-3</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
       <c r="J28">
-        <v>0</v>
+        <v>51443</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>13250</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -5772,44 +5846,45 @@
       <c r="Z28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="21">
+      <c r="B29" s="23">
         <v>11827</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="21">
+        <v>322</v>
+      </c>
+      <c r="D29" s="23">
+        <v>57</v>
+      </c>
+      <c r="E29" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D29" s="19">
+        <v>1.3395375070501974E-3</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E29" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
       <c r="J29">
-        <v>0</v>
+        <v>322</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -5856,44 +5931,45 @@
       <c r="Z29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="21">
+      <c r="B30" s="23">
         <v>12762</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="21">
+        <v>2115</v>
+      </c>
+      <c r="D30" s="23">
+        <v>326</v>
+      </c>
+      <c r="E30" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D30" s="19">
+        <v>7.6612145140063925E-3</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E30" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
       <c r="J30">
-        <v>0</v>
+        <v>2115</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>326</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -5940,44 +6016,45 @@
       <c r="Z30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="21">
+      <c r="B31" s="23">
         <v>23372</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C31" s="21">
+        <v>837</v>
+      </c>
+      <c r="D31" s="23">
+        <v>169</v>
+      </c>
+      <c r="E31" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D31" s="19">
+        <v>3.9716112051137436E-3</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E31" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
       <c r="J31">
-        <v>0</v>
+        <v>837</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -6024,44 +6101,45 @@
       <c r="Z31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="21">
+      <c r="B32" s="23">
         <v>26727</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C32" s="21">
+        <v>7913</v>
+      </c>
+      <c r="D32" s="23">
+        <v>954</v>
+      </c>
+      <c r="E32" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D32" s="19">
+        <v>2.2419627749576988E-2</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E32" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
       <c r="J32">
-        <v>0</v>
+        <v>7913</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>954</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -6108,41 +6186,42 @@
       <c r="Z32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="21">
+      <c r="B33" s="23">
         <v>5915</v>
       </c>
-      <c r="C33" s="19">
+      <c r="C33" s="21">
+        <v>1340</v>
+      </c>
+      <c r="D33" s="23">
+        <v>0</v>
+      </c>
+      <c r="E33" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D33" s="19">
+      <c r="F33" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E33" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
       <c r="J33">
-        <v>0</v>
+        <v>1340</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -6192,44 +6271,45 @@
       <c r="Z33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="21">
+      <c r="B34" s="23">
         <v>9419</v>
       </c>
-      <c r="C34" s="19">
+      <c r="C34" s="21">
+        <v>236</v>
+      </c>
+      <c r="D34" s="23">
+        <v>62</v>
+      </c>
+      <c r="E34" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D34" s="19">
+        <v>1.45704079714232E-3</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E34" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
       <c r="J34">
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -6276,44 +6356,45 @@
       <c r="Z34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="21">
+      <c r="B35" s="23">
         <v>23901</v>
       </c>
-      <c r="C35" s="19">
+      <c r="C35" s="21">
+        <v>978</v>
+      </c>
+      <c r="D35" s="23">
+        <v>235</v>
+      </c>
+      <c r="E35" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D35" s="19">
+        <v>5.5226546343297616E-3</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E35" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
       <c r="J35">
-        <v>0</v>
+        <v>978</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -6360,44 +6441,45 @@
       <c r="Z35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="21">
+      <c r="B36" s="23">
         <v>2650</v>
       </c>
-      <c r="C36" s="19">
+      <c r="C36" s="21">
+        <v>1755</v>
+      </c>
+      <c r="D36" s="23">
+        <v>63</v>
+      </c>
+      <c r="E36" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D36" s="19">
+        <v>1.4805414551607445E-3</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E36" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
       <c r="J36">
-        <v>0</v>
+        <v>1755</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -6444,44 +6526,45 @@
       <c r="Z36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="21">
+      <c r="B37" s="23">
         <v>7088</v>
       </c>
-      <c r="C37" s="19">
+      <c r="C37" s="21">
+        <v>2092</v>
+      </c>
+      <c r="D37" s="23">
+        <v>62</v>
+      </c>
+      <c r="E37" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D37" s="19">
+        <v>1.45704079714232E-3</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E37" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
       <c r="J37">
-        <v>0</v>
+        <v>2092</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -6528,41 +6611,42 @@
       <c r="Z37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="21">
+      <c r="B38" s="23">
         <v>4160</v>
       </c>
-      <c r="C38" s="19">
+      <c r="C38" s="21">
+        <v>57</v>
+      </c>
+      <c r="D38" s="23">
+        <v>0</v>
+      </c>
+      <c r="E38" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D38" s="19">
+      <c r="F38" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E38" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
       <c r="J38">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -6612,44 +6696,45 @@
       <c r="Z38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="21">
+      <c r="B39" s="23">
         <v>7038</v>
       </c>
-      <c r="C39" s="19">
+      <c r="C39" s="21">
+        <v>706</v>
+      </c>
+      <c r="D39" s="23">
+        <v>89</v>
+      </c>
+      <c r="E39" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D39" s="19">
+        <v>2.0915585636397819E-3</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E39" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
       <c r="J39">
-        <v>0</v>
+        <v>706</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -6696,44 +6781,45 @@
       <c r="Z39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>220</v>
       </c>
-      <c r="B40" s="21">
+      <c r="B40" s="23">
         <v>2404</v>
       </c>
-      <c r="C40" s="19">
+      <c r="C40" s="21">
+        <v>6</v>
+      </c>
+      <c r="D40" s="23">
+        <v>2</v>
+      </c>
+      <c r="E40" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D40" s="19">
+        <v>4.7001316036849034E-5</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E40" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
       <c r="J40">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -6780,44 +6866,45 @@
       <c r="Z40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="21">
+      <c r="B41" s="23">
         <v>16733</v>
       </c>
-      <c r="C41" s="19">
+      <c r="C41" s="21">
+        <v>3483</v>
+      </c>
+      <c r="D41" s="23">
+        <v>326</v>
+      </c>
+      <c r="E41" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D41" s="19">
+        <v>7.6612145140063925E-3</v>
+      </c>
+      <c r="F41" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E41" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
       <c r="J41">
-        <v>0</v>
+        <v>3483</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>326</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -6864,44 +6951,45 @@
       <c r="Z41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="21">
+      <c r="B42" s="23">
         <v>3410</v>
       </c>
-      <c r="C42" s="19">
+      <c r="C42" s="21">
+        <v>64</v>
+      </c>
+      <c r="D42" s="23">
+        <v>13</v>
+      </c>
+      <c r="E42" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D42" s="19">
+        <v>3.0550855423951872E-4</v>
+      </c>
+      <c r="F42" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E42" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
       <c r="J42">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -6948,44 +7036,45 @@
       <c r="Z42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="21">
+      <c r="B43" s="23">
         <v>13570</v>
       </c>
-      <c r="C43" s="19">
+      <c r="C43" s="21">
+        <v>2775</v>
+      </c>
+      <c r="D43" s="23">
+        <v>111</v>
+      </c>
+      <c r="E43" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D43" s="19">
+        <v>2.6085730400451212E-3</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E43" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
       <c r="J43">
-        <v>0</v>
+        <v>2775</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="L43">
         <v>0</v>
@@ -7032,44 +7121,45 @@
       <c r="Z43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>221</v>
       </c>
-      <c r="B44" s="21">
+      <c r="B44" s="23">
         <v>20858</v>
       </c>
-      <c r="C44" s="19">
+      <c r="C44" s="21">
+        <v>846</v>
+      </c>
+      <c r="D44" s="23">
+        <v>35</v>
+      </c>
+      <c r="E44" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D44" s="19">
+        <v>8.225230306448581E-4</v>
+      </c>
+      <c r="F44" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E44" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
       <c r="J44">
-        <v>0</v>
+        <v>846</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -7116,41 +7206,42 @@
       <c r="Z44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="21">
+      <c r="B45" s="23">
         <v>2468</v>
       </c>
-      <c r="C45" s="19">
+      <c r="C45" s="21">
+        <v>1038</v>
+      </c>
+      <c r="D45" s="23">
+        <v>0</v>
+      </c>
+      <c r="E45" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D45" s="19">
+      <c r="F45" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E45" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
       <c r="J45">
-        <v>0</v>
+        <v>1038</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -7200,44 +7291,45 @@
       <c r="Z45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="21">
+      <c r="B46" s="23">
         <v>5340</v>
       </c>
-      <c r="C46" s="19">
+      <c r="C46" s="21">
+        <v>3479</v>
+      </c>
+      <c r="D46" s="23">
+        <v>20</v>
+      </c>
+      <c r="E46" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D46" s="19">
+        <v>4.7001316036849033E-4</v>
+      </c>
+      <c r="F46" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E46" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
       <c r="J46">
-        <v>0</v>
+        <v>3479</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L46">
         <v>0</v>
@@ -7284,44 +7376,45 @@
       <c r="Z46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="21">
+      <c r="B47" s="23">
         <v>11517</v>
       </c>
-      <c r="C47" s="19">
+      <c r="C47" s="21">
+        <v>260</v>
+      </c>
+      <c r="D47" s="23">
+        <v>59</v>
+      </c>
+      <c r="E47" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D47" s="19">
+        <v>1.3865388230870465E-3</v>
+      </c>
+      <c r="F47" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E47" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
       <c r="J47">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="L47">
         <v>0</v>
@@ -7368,44 +7461,45 @@
       <c r="Z47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="21">
+      <c r="B48" s="23">
         <v>13520</v>
       </c>
-      <c r="C48" s="19">
+      <c r="C48" s="21">
+        <v>1341</v>
+      </c>
+      <c r="D48" s="23">
+        <v>74</v>
+      </c>
+      <c r="E48" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D48" s="19">
+        <v>1.7390486933634142E-3</v>
+      </c>
+      <c r="F48" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E48" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
       <c r="J48">
-        <v>0</v>
+        <v>1341</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="L48">
         <v>0</v>
@@ -7452,44 +7546,45 @@
       <c r="Z48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="21">
+      <c r="B49" s="23">
         <v>14701</v>
       </c>
-      <c r="C49" s="19">
+      <c r="C49" s="21">
+        <v>988</v>
+      </c>
+      <c r="D49" s="23">
+        <v>156</v>
+      </c>
+      <c r="E49" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D49" s="19">
+        <v>3.6661026508742244E-3</v>
+      </c>
+      <c r="F49" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E49" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
       <c r="J49">
-        <v>0</v>
+        <v>988</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="L49">
         <v>0</v>
@@ -7536,44 +7631,45 @@
       <c r="Z49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="21">
+      <c r="B50" s="23">
         <v>19803</v>
       </c>
-      <c r="C50" s="19">
+      <c r="C50" s="21">
+        <v>533</v>
+      </c>
+      <c r="D50" s="23">
+        <v>32</v>
+      </c>
+      <c r="E50" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D50" s="19">
+        <v>7.5202105658958454E-4</v>
+      </c>
+      <c r="F50" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E50" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
       <c r="J50">
-        <v>0</v>
+        <v>533</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="L50">
         <v>0</v>
@@ -7620,44 +7716,45 @@
       <c r="Z50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="21">
+      <c r="B51" s="23">
         <v>19605</v>
       </c>
-      <c r="C51" s="19">
+      <c r="C51" s="21">
+        <v>2799</v>
+      </c>
+      <c r="D51" s="23">
+        <v>165</v>
+      </c>
+      <c r="E51" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D51" s="19">
+        <v>3.8776085730400449E-3</v>
+      </c>
+      <c r="F51" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E51" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
       <c r="J51">
-        <v>0</v>
+        <v>2799</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="L51">
         <v>0</v>
@@ -7704,44 +7801,45 @@
       <c r="Z51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="21">
+      <c r="B52" s="23">
         <v>5103</v>
       </c>
-      <c r="C52" s="19">
+      <c r="C52" s="21">
+        <v>152</v>
+      </c>
+      <c r="D52" s="23">
+        <v>30</v>
+      </c>
+      <c r="E52" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D52" s="19">
+        <v>7.0501974055273543E-4</v>
+      </c>
+      <c r="F52" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E52" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
       <c r="J52">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L52">
         <v>0</v>
@@ -7788,44 +7886,45 @@
       <c r="Z52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="21">
+      <c r="B53" s="23">
         <v>19500</v>
       </c>
-      <c r="C53" s="19">
+      <c r="C53" s="21">
+        <v>3117</v>
+      </c>
+      <c r="D53" s="23">
+        <v>226</v>
+      </c>
+      <c r="E53" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D53" s="19">
+        <v>5.3111487121639406E-3</v>
+      </c>
+      <c r="F53" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E53" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
       <c r="J53">
-        <v>0</v>
+        <v>3117</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="L53">
         <v>0</v>
@@ -7872,44 +7971,45 @@
       <c r="Z53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="21">
+      <c r="B54" s="23">
         <v>9633</v>
       </c>
-      <c r="C54" s="19">
+      <c r="C54" s="21">
+        <v>1634</v>
+      </c>
+      <c r="D54" s="23">
+        <v>85</v>
+      </c>
+      <c r="E54" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D54" s="19">
+        <v>1.9975559315660836E-3</v>
+      </c>
+      <c r="F54" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E54" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
       <c r="J54">
-        <v>0</v>
+        <v>1634</v>
       </c>
       <c r="K54">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="L54">
         <v>0</v>
@@ -7956,44 +8056,45 @@
       <c r="Z54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="21">
+      <c r="B55" s="23">
         <v>3573</v>
       </c>
-      <c r="C55" s="19">
+      <c r="C55" s="21">
+        <v>1714</v>
+      </c>
+      <c r="D55" s="23">
+        <v>18</v>
+      </c>
+      <c r="E55" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D55" s="19">
+        <v>4.2301184433164127E-4</v>
+      </c>
+      <c r="F55" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E55" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
       <c r="J55">
-        <v>0</v>
+        <v>1714</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L55">
         <v>0</v>
@@ -8040,44 +8141,45 @@
       <c r="Z55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="21">
+      <c r="B56" s="23">
         <v>88682</v>
       </c>
-      <c r="C56" s="19">
+      <c r="C56" s="21">
+        <v>4519</v>
+      </c>
+      <c r="D56" s="23">
+        <v>876</v>
+      </c>
+      <c r="E56" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D56" s="19">
+        <v>2.0586576424139875E-2</v>
+      </c>
+      <c r="F56" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E56" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
       <c r="J56">
-        <v>0</v>
+        <v>4519</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>876</v>
       </c>
       <c r="L56">
         <v>0</v>
@@ -8124,44 +8226,45 @@
       <c r="Z56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="21">
+      <c r="B57" s="23">
         <v>35826</v>
       </c>
-      <c r="C57" s="19">
+      <c r="C57" s="21">
+        <v>1407</v>
+      </c>
+      <c r="D57" s="23">
+        <v>424</v>
+      </c>
+      <c r="E57" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D57" s="19">
+        <v>9.9642789998119954E-3</v>
+      </c>
+      <c r="F57" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E57" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
       <c r="J57">
-        <v>0</v>
+        <v>1407</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>424</v>
       </c>
       <c r="L57">
         <v>0</v>
@@ -8208,44 +8311,45 @@
       <c r="Z57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="21">
+      <c r="B58" s="23">
         <v>7457</v>
       </c>
-      <c r="C58" s="19">
+      <c r="C58" s="21">
+        <v>497</v>
+      </c>
+      <c r="D58" s="23">
+        <v>44</v>
+      </c>
+      <c r="E58" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D58" s="19">
+        <v>1.0340289528106787E-3</v>
+      </c>
+      <c r="F58" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E58" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
       <c r="J58">
-        <v>0</v>
+        <v>497</v>
       </c>
       <c r="K58">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="L58">
         <v>0</v>
@@ -8292,44 +8396,45 @@
       <c r="Z58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="21">
+      <c r="B59" s="23">
         <v>15655</v>
       </c>
-      <c r="C59" s="19">
+      <c r="C59" s="21">
+        <v>1215</v>
+      </c>
+      <c r="D59" s="23">
+        <v>235</v>
+      </c>
+      <c r="E59" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D59" s="19">
+        <v>5.5226546343297616E-3</v>
+      </c>
+      <c r="F59" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E59" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
       <c r="J59">
-        <v>0</v>
+        <v>1215</v>
       </c>
       <c r="K59">
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="L59">
         <v>0</v>
@@ -8376,44 +8481,45 @@
       <c r="Z59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="21">
+      <c r="B60" s="23">
         <v>5257</v>
       </c>
-      <c r="C60" s="19">
+      <c r="C60" s="21">
+        <v>2037</v>
+      </c>
+      <c r="D60" s="23">
+        <v>14</v>
+      </c>
+      <c r="E60" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D60" s="19">
+        <v>3.2900921225794322E-4</v>
+      </c>
+      <c r="F60" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E60" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
       <c r="J60">
-        <v>0</v>
+        <v>2037</v>
       </c>
       <c r="K60">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L60">
         <v>0</v>
@@ -8460,44 +8566,45 @@
       <c r="Z60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="21">
+      <c r="B61" s="23">
         <v>16519</v>
       </c>
-      <c r="C61" s="19">
+      <c r="C61" s="21">
+        <v>5243</v>
+      </c>
+      <c r="D61" s="23">
+        <v>105</v>
+      </c>
+      <c r="E61" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D61" s="19">
+        <v>2.4675690919345743E-3</v>
+      </c>
+      <c r="F61" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E61" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
       <c r="J61">
-        <v>0</v>
+        <v>5243</v>
       </c>
       <c r="K61">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="L61">
         <v>0</v>
@@ -8544,44 +8651,45 @@
       <c r="Z61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="21">
+      <c r="B62" s="23">
         <v>6877</v>
       </c>
-      <c r="C62" s="19">
+      <c r="C62" s="21">
+        <v>836</v>
+      </c>
+      <c r="D62" s="23">
+        <v>83</v>
+      </c>
+      <c r="E62" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D62" s="19">
+        <v>1.9505546155292347E-3</v>
+      </c>
+      <c r="F62" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E62" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
       <c r="J62">
-        <v>0</v>
+        <v>836</v>
       </c>
       <c r="K62">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="L62">
         <v>0</v>
@@ -8628,44 +8736,45 @@
       <c r="Z62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="21">
+      <c r="B63" s="23">
         <v>301541</v>
       </c>
-      <c r="C63" s="19">
+      <c r="C63" s="21">
+        <v>16590</v>
+      </c>
+      <c r="D63" s="23">
+        <v>4267</v>
+      </c>
+      <c r="E63" s="19">
         <f t="shared" si="0"/>
+        <v>0.10027730776461741</v>
+      </c>
+      <c r="F63" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="G63">
         <v>12775</v>
       </c>
-      <c r="D63" s="19">
+      <c r="H63">
+        <v>1472</v>
+      </c>
+      <c r="I63">
         <f t="shared" si="1"/>
-        <v>1472</v>
-      </c>
-      <c r="E63" s="19">
-        <f t="shared" si="2"/>
         <v>4.8815915580302516E-3</v>
       </c>
-      <c r="F63">
-        <v>12775</v>
-      </c>
-      <c r="G63">
-        <v>1472</v>
-      </c>
-      <c r="H63">
-        <f t="shared" si="3"/>
-        <v>4.8815915580302516E-3</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
       <c r="J63">
-        <v>0</v>
+        <v>16590</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>4267</v>
       </c>
       <c r="L63">
         <v>0</v>
@@ -8712,44 +8821,45 @@
       <c r="Z63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>63</v>
       </c>
-      <c r="B64" s="21">
+      <c r="B64" s="23">
         <v>2068</v>
       </c>
-      <c r="C64" s="19">
+      <c r="C64" s="21">
+        <v>1175</v>
+      </c>
+      <c r="D64" s="23">
+        <v>191</v>
+      </c>
+      <c r="E64" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D64" s="19">
+        <v>4.4886256815190829E-3</v>
+      </c>
+      <c r="F64" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E64" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
       <c r="J64">
-        <v>0</v>
+        <v>1175</v>
       </c>
       <c r="K64">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="L64">
         <v>0</v>
@@ -8796,44 +8906,45 @@
       <c r="Z64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>64</v>
       </c>
-      <c r="B65" s="21">
+      <c r="B65" s="23">
         <v>9064</v>
       </c>
-      <c r="C65" s="19">
+      <c r="C65" s="21">
+        <v>198</v>
+      </c>
+      <c r="D65" s="23">
+        <v>84</v>
+      </c>
+      <c r="E65" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D65" s="19">
+        <v>1.9740552735476595E-3</v>
+      </c>
+      <c r="F65" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E65" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
       <c r="J65">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="K65">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="L65">
         <v>0</v>
@@ -8880,44 +8991,45 @@
       <c r="Z65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>65</v>
       </c>
-      <c r="B66" s="21">
+      <c r="B66" s="23">
         <v>8548</v>
       </c>
-      <c r="C66" s="19">
+      <c r="C66" s="21">
+        <v>143</v>
+      </c>
+      <c r="D66" s="23">
+        <v>33</v>
+      </c>
+      <c r="E66" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D66" s="19">
+        <v>7.7552171460800899E-4</v>
+      </c>
+      <c r="F66" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E66" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
       <c r="J66">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="K66">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="L66">
         <v>0</v>
@@ -8964,44 +9076,45 @@
       <c r="Z66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>66</v>
       </c>
-      <c r="B67" s="21">
+      <c r="B67" s="23">
         <v>35838</v>
       </c>
-      <c r="C67" s="19">
-        <f t="shared" ref="C67:C89" si="4">SUM(F67+I67+L67+O67+R67+U67+X67)</f>
-        <v>0</v>
-      </c>
-      <c r="D67" s="19">
-        <f t="shared" ref="D67:D89" si="5">SUM(G67+J67+M67+P67+S67+V67+Y67)</f>
-        <v>0</v>
+      <c r="C67" s="21">
+        <v>1593</v>
+      </c>
+      <c r="D67" s="23">
+        <v>306</v>
       </c>
       <c r="E67" s="19">
-        <f t="shared" ref="E67:E89" si="6">D67/B67</f>
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
+        <f t="shared" ref="E67:E88" si="2">D67/$D$89</f>
+        <v>7.1912013536379014E-3</v>
+      </c>
+      <c r="F67" s="20" t="s">
+        <v>351</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:H89" si="7">G67/B67</f>
         <v>0</v>
       </c>
       <c r="I67">
+        <f t="shared" ref="I67:I89" si="3">H67/B67</f>
         <v>0</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>1593</v>
       </c>
       <c r="K67">
-        <v>0</v>
+        <v>306</v>
       </c>
       <c r="L67">
         <v>0</v>
@@ -9048,44 +9161,45 @@
       <c r="Z67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="21">
+      <c r="B68" s="23">
         <v>5164</v>
       </c>
-      <c r="C68" s="19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D68" s="19">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="C68" s="21">
+        <v>94</v>
+      </c>
+      <c r="D68" s="23">
+        <v>9</v>
       </c>
       <c r="E68" s="19">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2.1150592216582064E-4</v>
+      </c>
+      <c r="F68" s="20" t="s">
+        <v>351</v>
       </c>
       <c r="G68">
         <v>0</v>
       </c>
       <c r="H68">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I68">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L68">
         <v>0</v>
@@ -9132,44 +9246,45 @@
       <c r="Z68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>68</v>
       </c>
-      <c r="B69" s="21">
+      <c r="B69" s="23">
         <v>8723</v>
       </c>
-      <c r="C69" s="19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D69" s="19">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="C69" s="21">
+        <v>2565</v>
+      </c>
+      <c r="D69" s="23">
+        <v>60</v>
       </c>
       <c r="E69" s="19">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1.4100394811054709E-3</v>
+      </c>
+      <c r="F69" s="20" t="s">
+        <v>351</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
       <c r="H69">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I69">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>2565</v>
       </c>
       <c r="K69">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L69">
         <v>0</v>
@@ -9216,44 +9331,45 @@
       <c r="Z69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>72</v>
       </c>
-      <c r="B70" s="21">
+      <c r="B70" s="23">
         <v>121806</v>
       </c>
-      <c r="C70" s="19">
-        <f t="shared" si="4"/>
+      <c r="C70" s="21">
+        <v>6823</v>
+      </c>
+      <c r="D70" s="23">
+        <v>750</v>
+      </c>
+      <c r="E70" s="19">
+        <f t="shared" si="2"/>
+        <v>1.7625493513818386E-2</v>
+      </c>
+      <c r="F70" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G70">
         <v>3160</v>
       </c>
-      <c r="D70" s="19">
-        <f t="shared" si="5"/>
+      <c r="H70">
         <v>140</v>
       </c>
-      <c r="E70" s="19">
-        <f t="shared" si="6"/>
+      <c r="I70">
+        <f t="shared" si="3"/>
         <v>1.1493686682101047E-3</v>
       </c>
-      <c r="F70">
-        <v>3160</v>
-      </c>
-      <c r="G70">
-        <v>140</v>
-      </c>
-      <c r="H70">
-        <f t="shared" si="7"/>
-        <v>1.1493686682101047E-3</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
       <c r="J70">
-        <v>0</v>
+        <v>6823</v>
       </c>
       <c r="K70">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="L70">
         <v>0</v>
@@ -9300,44 +9416,45 @@
       <c r="Z70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>69</v>
       </c>
-      <c r="B71" s="21">
+      <c r="B71" s="23">
         <v>83212</v>
       </c>
-      <c r="C71" s="19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D71" s="19">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="C71" s="21">
+        <v>3709</v>
+      </c>
+      <c r="D71" s="23">
+        <v>744</v>
       </c>
       <c r="E71" s="19">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1.7484489565707841E-2</v>
+      </c>
+      <c r="F71" s="20" t="s">
+        <v>352</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
       <c r="H71">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I71">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J71">
-        <v>0</v>
+        <v>3709</v>
       </c>
       <c r="K71">
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="L71">
         <v>0</v>
@@ -9384,44 +9501,45 @@
       <c r="Z71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>70</v>
       </c>
-      <c r="B72" s="21">
+      <c r="B72" s="23">
         <v>54646</v>
       </c>
-      <c r="C72" s="19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D72" s="19">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="C72" s="21">
+        <v>1660</v>
+      </c>
+      <c r="D72" s="23">
+        <v>354</v>
       </c>
       <c r="E72" s="19">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>8.3192329385222783E-3</v>
+      </c>
+      <c r="F72" s="20" t="s">
+        <v>351</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
       <c r="H72">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I72">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J72">
-        <v>0</v>
+        <v>1660</v>
       </c>
       <c r="K72">
-        <v>0</v>
+        <v>354</v>
       </c>
       <c r="L72">
         <v>0</v>
@@ -9468,44 +9586,45 @@
       <c r="Z72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>71</v>
       </c>
-      <c r="B73" s="21">
+      <c r="B73" s="23">
         <v>8651</v>
       </c>
-      <c r="C73" s="19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D73" s="19">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="C73" s="21">
+        <v>211</v>
+      </c>
+      <c r="D73" s="23">
+        <v>71</v>
       </c>
       <c r="E73" s="19">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1.6685467193081405E-3</v>
+      </c>
+      <c r="F73" s="20" t="s">
+        <v>351</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
       <c r="H73">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I73">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J73">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="K73">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="L73">
         <v>0</v>
@@ -9552,44 +9671,45 @@
       <c r="Z73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>73</v>
       </c>
-      <c r="B74" s="21">
+      <c r="B74" s="23">
         <v>86797</v>
       </c>
-      <c r="C74" s="19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D74" s="19">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="C74" s="21">
+        <v>7210</v>
+      </c>
+      <c r="D74" s="23">
+        <v>959</v>
       </c>
       <c r="E74" s="19">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2.253713103966911E-2</v>
+      </c>
+      <c r="F74" s="20" t="s">
+        <v>351</v>
       </c>
       <c r="G74">
         <v>0</v>
       </c>
       <c r="H74">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I74">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>7210</v>
       </c>
       <c r="K74">
-        <v>0</v>
+        <v>959</v>
       </c>
       <c r="L74">
         <v>0</v>
@@ -9636,44 +9756,45 @@
       <c r="Z74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>74</v>
       </c>
-      <c r="B75" s="21">
+      <c r="B75" s="23">
         <v>20929</v>
       </c>
-      <c r="C75" s="19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D75" s="19">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="C75" s="21">
+        <v>520</v>
+      </c>
+      <c r="D75" s="23">
+        <v>144</v>
       </c>
       <c r="E75" s="19">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3.3840947546531302E-3</v>
+      </c>
+      <c r="F75" s="20" t="s">
+        <v>351</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
       <c r="H75">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I75">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J75">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="K75">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="L75">
         <v>0</v>
@@ -9720,44 +9841,45 @@
       <c r="Z75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>75</v>
       </c>
-      <c r="B76" s="21">
+      <c r="B76" s="23">
         <v>5600</v>
       </c>
-      <c r="C76" s="19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D76" s="19">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="C76" s="21">
+        <v>2012</v>
+      </c>
+      <c r="D76" s="23">
+        <v>17</v>
       </c>
       <c r="E76" s="19">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3.9951118631321677E-4</v>
+      </c>
+      <c r="F76" s="20" t="s">
+        <v>351</v>
       </c>
       <c r="G76">
         <v>0</v>
       </c>
       <c r="H76">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I76">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J76">
-        <v>0</v>
+        <v>2012</v>
       </c>
       <c r="K76">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="L76">
         <v>0</v>
@@ -9804,41 +9926,42 @@
       <c r="Z76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>76</v>
       </c>
-      <c r="B77" s="21">
+      <c r="B77" s="23">
         <v>5490</v>
       </c>
-      <c r="C77" s="19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D77" s="19">
-        <f t="shared" si="5"/>
+      <c r="C77" s="21">
+        <v>1756</v>
+      </c>
+      <c r="D77" s="23">
         <v>0</v>
       </c>
       <c r="E77" s="19">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F77" s="20" t="s">
+        <v>351</v>
       </c>
       <c r="G77">
         <v>0</v>
       </c>
       <c r="H77">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I77">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J77">
-        <v>0</v>
+        <v>1756</v>
       </c>
       <c r="K77">
         <v>0</v>
@@ -9888,44 +10011,45 @@
       <c r="Z77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>77</v>
       </c>
-      <c r="B78" s="21">
+      <c r="B78" s="23">
         <v>13153</v>
       </c>
-      <c r="C78" s="19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D78" s="19">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="C78" s="21">
+        <v>340</v>
+      </c>
+      <c r="D78" s="23">
+        <v>92</v>
       </c>
       <c r="E78" s="19">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F78">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2.1620605376950555E-3</v>
+      </c>
+      <c r="F78" s="20" t="s">
+        <v>351</v>
       </c>
       <c r="G78">
         <v>0</v>
       </c>
       <c r="H78">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I78">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J78">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="K78">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="L78">
         <v>0</v>
@@ -9972,44 +10096,45 @@
       <c r="Z78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>78</v>
       </c>
-      <c r="B79" s="21">
+      <c r="B79" s="23">
         <v>1991</v>
       </c>
-      <c r="C79" s="19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D79" s="19">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="C79" s="21">
+        <v>864</v>
+      </c>
+      <c r="D79" s="23">
+        <v>17</v>
       </c>
       <c r="E79" s="19">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F79">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3.9951118631321677E-4</v>
+      </c>
+      <c r="F79" s="20" t="s">
+        <v>351</v>
       </c>
       <c r="G79">
         <v>0</v>
       </c>
       <c r="H79">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I79">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J79">
-        <v>0</v>
+        <v>864</v>
       </c>
       <c r="K79">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="L79">
         <v>0</v>
@@ -10056,44 +10181,45 @@
       <c r="Z79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>79</v>
       </c>
-      <c r="B80" s="21">
+      <c r="B80" s="23">
         <v>13261</v>
       </c>
-      <c r="C80" s="19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D80" s="19">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="C80" s="21">
+        <v>1243</v>
+      </c>
+      <c r="D80" s="23">
+        <v>125</v>
       </c>
       <c r="E80" s="19">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F80">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2.9375822523030645E-3</v>
+      </c>
+      <c r="F80" s="20" t="s">
+        <v>351</v>
       </c>
       <c r="G80">
         <v>0</v>
       </c>
       <c r="H80">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I80">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J80">
-        <v>0</v>
+        <v>1243</v>
       </c>
       <c r="K80">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="L80">
         <v>0</v>
@@ -10140,44 +10266,45 @@
       <c r="Z80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>80</v>
       </c>
-      <c r="B81" s="21">
+      <c r="B81" s="23">
         <v>7720</v>
       </c>
-      <c r="C81" s="19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D81" s="19">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="C81" s="21">
+        <v>213</v>
+      </c>
+      <c r="D81" s="23">
+        <v>62</v>
       </c>
       <c r="E81" s="19">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F81">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1.45704079714232E-3</v>
+      </c>
+      <c r="F81" s="20" t="s">
+        <v>351</v>
       </c>
       <c r="G81">
         <v>0</v>
       </c>
       <c r="H81">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I81">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="K81">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="L81">
         <v>0</v>
@@ -10224,44 +10351,45 @@
       <c r="Z81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>81</v>
       </c>
-      <c r="B82" s="21">
+      <c r="B82" s="23">
         <v>10582</v>
       </c>
-      <c r="C82" s="19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D82" s="19">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="C82" s="21">
+        <v>242</v>
+      </c>
+      <c r="D82" s="23">
+        <v>67</v>
       </c>
       <c r="E82" s="19">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F82">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1.5745440872344425E-3</v>
+      </c>
+      <c r="F82" s="20" t="s">
+        <v>351</v>
       </c>
       <c r="G82">
         <v>0</v>
       </c>
       <c r="H82">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I82">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J82">
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="K82">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="L82">
         <v>0</v>
@@ -10308,44 +10436,45 @@
       <c r="Z82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>82</v>
       </c>
-      <c r="B83" s="21">
+      <c r="B83" s="23">
         <v>158540</v>
       </c>
-      <c r="C83" s="19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D83" s="19">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="C83" s="21">
+        <v>8094</v>
+      </c>
+      <c r="D83" s="23">
+        <v>2743</v>
       </c>
       <c r="E83" s="19">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F83">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>6.4462304944538446E-2</v>
+      </c>
+      <c r="F83" s="20" t="s">
+        <v>352</v>
       </c>
       <c r="G83">
         <v>0</v>
       </c>
       <c r="H83">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I83">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J83">
-        <v>0</v>
+        <v>8094</v>
       </c>
       <c r="K83">
-        <v>0</v>
+        <v>2743</v>
       </c>
       <c r="L83">
         <v>0</v>
@@ -10392,44 +10521,45 @@
       <c r="Z83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>83</v>
       </c>
-      <c r="B84" s="21">
+      <c r="B84" s="23">
         <v>5698</v>
       </c>
-      <c r="C84" s="19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D84" s="19">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="C84" s="21">
+        <v>2179</v>
+      </c>
+      <c r="D84" s="23">
+        <v>29</v>
       </c>
       <c r="E84" s="19">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F84">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>6.8151908253431099E-4</v>
+      </c>
+      <c r="F84" s="20" t="s">
+        <v>351</v>
       </c>
       <c r="G84">
         <v>0</v>
       </c>
       <c r="H84">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I84">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J84">
-        <v>0</v>
+        <v>2179</v>
       </c>
       <c r="K84">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="L84">
         <v>0</v>
@@ -10476,44 +10606,45 @@
       <c r="Z84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>84</v>
       </c>
-      <c r="B85" s="21">
+      <c r="B85" s="23">
         <v>3563</v>
       </c>
-      <c r="C85" s="19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D85" s="19">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="C85" s="21">
+        <v>1576</v>
+      </c>
+      <c r="D85" s="23">
+        <v>26</v>
       </c>
       <c r="E85" s="19">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F85">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>6.1101710847903743E-4</v>
+      </c>
+      <c r="F85" s="20" t="s">
+        <v>351</v>
       </c>
       <c r="G85">
         <v>0</v>
       </c>
       <c r="H85">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I85">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J85">
-        <v>0</v>
+        <v>1576</v>
       </c>
       <c r="K85">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="L85">
         <v>0</v>
@@ -10560,44 +10691,45 @@
       <c r="Z85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>85</v>
       </c>
-      <c r="B86" s="21">
+      <c r="B86" s="23">
         <v>27538</v>
       </c>
-      <c r="C86" s="19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D86" s="19">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="C86" s="21">
+        <v>994</v>
+      </c>
+      <c r="D86" s="23">
+        <v>185</v>
       </c>
       <c r="E86" s="19">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F86">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>4.3476217334085356E-3</v>
+      </c>
+      <c r="F86" s="20" t="s">
+        <v>351</v>
       </c>
       <c r="G86">
         <v>0</v>
       </c>
       <c r="H86">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I86">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J86">
-        <v>0</v>
+        <v>994</v>
       </c>
       <c r="K86">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="L86">
         <v>0</v>
@@ -10644,44 +10776,45 @@
       <c r="Z86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>86</v>
       </c>
-      <c r="B87" s="21">
+      <c r="B87" s="23">
         <v>77528</v>
       </c>
-      <c r="C87" s="19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D87" s="19">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="C87" s="21">
+        <v>2539</v>
+      </c>
+      <c r="D87" s="23">
+        <v>441</v>
       </c>
       <c r="E87" s="19">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F87">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1.0363790186125212E-2</v>
+      </c>
+      <c r="F87" s="20" t="s">
+        <v>351</v>
       </c>
       <c r="G87">
         <v>0</v>
       </c>
       <c r="H87">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I87">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J87">
-        <v>0</v>
+        <v>2539</v>
       </c>
       <c r="K87">
-        <v>0</v>
+        <v>441</v>
       </c>
       <c r="L87">
         <v>0</v>
@@ -10728,44 +10861,45 @@
       <c r="Z87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>87</v>
       </c>
-      <c r="B88" s="21">
+      <c r="B88" s="23">
         <v>5851</v>
       </c>
-      <c r="C88" s="19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D88" s="19">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="C88" s="21">
+        <v>104</v>
+      </c>
+      <c r="D88" s="23">
+        <v>26</v>
       </c>
       <c r="E88" s="19">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F88">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>6.1101710847903743E-4</v>
+      </c>
+      <c r="F88" s="20" t="s">
+        <v>351</v>
       </c>
       <c r="G88">
         <v>0</v>
       </c>
       <c r="H88">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I88">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J88">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="K88">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="L88">
         <v>0</v>
@@ -10812,44 +10946,47 @@
       <c r="Z88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>222</v>
       </c>
-      <c r="B89" s="21">
+      <c r="B89" s="23">
         <v>3246893</v>
       </c>
-      <c r="C89" s="19">
-        <f t="shared" si="4"/>
+      <c r="C89" s="23">
+        <f>SUM(G89+J89+M89+P89+S89+V89+Y89)</f>
         <v>106061</v>
       </c>
-      <c r="D89" s="19">
-        <f t="shared" si="5"/>
+      <c r="D89" s="23">
+        <f>SUM(D2:D88)</f>
+        <v>42552</v>
+      </c>
+      <c r="E89" s="19">
+        <f t="shared" ref="E89" si="4">D89/B89</f>
+        <v>1.3105451888928893E-2</v>
+      </c>
+      <c r="F89" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="G89">
+        <v>106061</v>
+      </c>
+      <c r="H89">
         <v>11353</v>
       </c>
-      <c r="E89" s="19">
-        <f t="shared" si="6"/>
+      <c r="I89">
+        <f t="shared" si="3"/>
         <v>3.4965734934905464E-3</v>
       </c>
-      <c r="F89">
-        <v>106061</v>
-      </c>
-      <c r="G89">
-        <v>11353</v>
-      </c>
-      <c r="H89">
-        <f t="shared" si="7"/>
-        <v>3.4965734934905464E-3</v>
-      </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
       <c r="J89">
         <v>0</v>
       </c>
       <c r="K89">
-        <v>0</v>
+        <v>42552</v>
       </c>
       <c r="L89">
         <v>0</v>
@@ -10896,10 +11033,13 @@
       <c r="Z89">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -10912,7 +11052,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10925,112 +11065,97 @@
         <v>215</v>
       </c>
       <c r="B1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>352</v>
       </c>
       <c r="B2">
-        <v>5769</v>
+        <v>10687</v>
       </c>
       <c r="C2">
-        <v>11353</v>
+        <v>42552</v>
       </c>
       <c r="D2">
         <f>B2/C2</f>
-        <v>0.50814762617810272</v>
+        <v>0.25115153224290282</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>249</v>
+        <v>351</v>
       </c>
       <c r="B3">
-        <v>1358</v>
+        <v>14348</v>
       </c>
       <c r="C3">
-        <v>11353</v>
+        <v>42552</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D6" si="0">B3/C3</f>
-        <v>0.11961596053906456</v>
+        <f t="shared" ref="D3:D5" si="0">B3/C3</f>
+        <v>0.33718744124835498</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>250</v>
+        <v>353</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>17517</v>
       </c>
       <c r="C4">
-        <v>11353</v>
+        <v>42552</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.41166102650874226</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>251</v>
+        <v>354</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>42552</v>
       </c>
       <c r="C5">
-        <v>11353</v>
+        <v>42552</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>252</v>
-      </c>
-      <c r="B6">
-        <v>140</v>
-      </c>
-      <c r="C6">
-        <v>11353</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>1.2331542323614903E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B16" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C16" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D16" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -11041,10 +11166,10 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>11353</v>
+        <v>42552</v>
       </c>
       <c r="D17">
-        <v>11353</v>
+        <v>42552</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -11076,43 +11201,55 @@
         <f>C19*B19</f>
         <v>197861.80379999999</v>
       </c>
-      <c r="K19" s="23" t="s">
-        <v>340</v>
+      <c r="H19" t="s">
+        <v>356</v>
+      </c>
+      <c r="K19" s="22" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
+        <v>357</v>
+      </c>
       <c r="H20">
         <v>1425</v>
       </c>
-      <c r="K20" s="23" t="s">
-        <v>341</v>
+      <c r="K20" s="22" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="G21" t="s">
+        <v>358</v>
+      </c>
       <c r="H21">
         <v>19693</v>
       </c>
-      <c r="K21" s="23" t="s">
-        <v>342</v>
+      <c r="K21" s="22" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B22" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C22" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D22" t="s">
         <v>121</v>
       </c>
+      <c r="G22" t="s">
+        <v>359</v>
+      </c>
       <c r="H22">
         <v>35324</v>
       </c>
-      <c r="K22" s="23"/>
+      <c r="K22" s="22"/>
     </row>
     <row r="23" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A23">
@@ -11127,11 +11264,14 @@
       <c r="D23">
         <v>667446</v>
       </c>
+      <c r="G23" t="s">
+        <v>360</v>
+      </c>
       <c r="H23">
         <v>45298</v>
       </c>
-      <c r="K23" s="23" t="s">
-        <v>343</v>
+      <c r="K23" s="22" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -11147,22 +11287,31 @@
       <c r="D24">
         <v>233563</v>
       </c>
+      <c r="G24" t="s">
+        <v>361</v>
+      </c>
       <c r="H24">
         <v>98057</v>
       </c>
-      <c r="K24" s="23" t="s">
-        <v>344</v>
+      <c r="K24" s="22" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="G25" t="s">
+        <v>362</v>
+      </c>
       <c r="H25">
         <v>124844</v>
       </c>
-      <c r="K25" s="23" t="s">
-        <v>345</v>
+      <c r="K25" s="22" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G26" t="s">
+        <v>363</v>
+      </c>
       <c r="H26">
         <v>206871</v>
       </c>
@@ -11174,15 +11323,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>199</v>
       </c>
@@ -11196,7 +11345,7 @@
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="10"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -11208,7 +11357,7 @@
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>200</v>
       </c>
@@ -11222,7 +11371,7 @@
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -11234,7 +11383,7 @@
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>201</v>
       </c>
@@ -11248,7 +11397,7 @@
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -11260,7 +11409,7 @@
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>202</v>
       </c>
@@ -11274,7 +11423,7 @@
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -11286,7 +11435,7 @@
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>203</v>
       </c>
@@ -11300,7 +11449,7 @@
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -11312,7 +11461,7 @@
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -11324,7 +11473,7 @@
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
     </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>215</v>
       </c>
@@ -11341,25 +11490,31 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" t="s">
+        <v>312</v>
+      </c>
+      <c r="I12" t="s">
+        <v>313</v>
+      </c>
+      <c r="J12" t="s">
+        <v>314</v>
+      </c>
+      <c r="K12" t="s">
+        <v>315</v>
+      </c>
+      <c r="L12" t="s">
         <v>316</v>
-      </c>
-      <c r="I12" t="s">
-        <v>317</v>
-      </c>
-      <c r="J12" t="s">
-        <v>318</v>
-      </c>
-      <c r="K12" t="s">
-        <v>319</v>
-      </c>
-      <c r="L12" t="s">
-        <v>320</v>
       </c>
       <c r="M12" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N12" t="s">
+        <v>364</v>
+      </c>
+      <c r="O12" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>205</v>
       </c>
@@ -11376,7 +11531,7 @@
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I13">
         <v>1616</v>
@@ -11394,8 +11549,15 @@
         <f>SUM(I13:L13)</f>
         <v>17502</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N13">
+        <v>925235</v>
+      </c>
+      <c r="O13">
+        <f>M13/N13</f>
+        <v>1.8916275324647253E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>2</v>
       </c>
@@ -11412,7 +11574,7 @@
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="I14">
         <v>3069</v>
@@ -11427,11 +11589,18 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <f t="shared" ref="M14:M29" si="0">SUM(I14:L14)</f>
+        <f t="shared" ref="M13:N29" si="0">SUM(I14:L14)</f>
         <v>31101</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N14">
+        <v>925235</v>
+      </c>
+      <c r="O14">
+        <f t="shared" ref="O14:O28" si="1">M14/N14</f>
+        <v>3.3614162888347288E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>19</v>
       </c>
@@ -11448,7 +11617,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="I15">
         <v>3846</v>
@@ -11466,8 +11635,15 @@
         <f t="shared" si="0"/>
         <v>43992</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N15">
+        <v>925235</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="1"/>
+        <v>4.754683945159878E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>27</v>
       </c>
@@ -11484,7 +11660,7 @@
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="I16">
         <v>4724</v>
@@ -11502,8 +11678,15 @@
         <f t="shared" si="0"/>
         <v>55109</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N16">
+        <v>925235</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="1"/>
+        <v>5.9562165287737709E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>31</v>
       </c>
@@ -11520,7 +11703,7 @@
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="I17">
         <v>4690</v>
@@ -11538,8 +11721,15 @@
         <f t="shared" si="0"/>
         <v>57864</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N17">
+        <v>925235</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="1"/>
+        <v>6.2539787189200585E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>55</v>
       </c>
@@ -11556,7 +11746,7 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I18">
         <v>3965</v>
@@ -11574,8 +11764,15 @@
         <f t="shared" si="0"/>
         <v>50679</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N18">
+        <v>925235</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="1"/>
+        <v>5.4774192502445328E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>62</v>
       </c>
@@ -11592,7 +11789,7 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="I19">
         <v>4471</v>
@@ -11610,8 +11807,15 @@
         <f t="shared" si="0"/>
         <v>58204</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N19">
+        <v>925235</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="1"/>
+        <v>6.2907261398455525E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>72</v>
       </c>
@@ -11628,7 +11832,7 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="I20">
         <v>5520</v>
@@ -11646,8 +11850,15 @@
         <f t="shared" si="0"/>
         <v>71477</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N20">
+        <v>925235</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="1"/>
+        <v>7.7252806043869943E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
         <v>69</v>
       </c>
@@ -11664,7 +11875,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I21">
         <v>8353</v>
@@ -11682,8 +11893,15 @@
         <f t="shared" si="0"/>
         <v>95847</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N21">
+        <v>925235</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="1"/>
+        <v>0.1035920603954671</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>82</v>
       </c>
@@ -11700,7 +11918,7 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
       <c r="H22" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="I22">
         <v>11874</v>
@@ -11718,8 +11936,15 @@
         <f t="shared" si="0"/>
         <v>110603</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N22">
+        <v>925235</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="1"/>
+        <v>0.11954044107713176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>206</v>
       </c>
@@ -11736,7 +11961,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="I23">
         <v>14772</v>
@@ -11754,8 +11979,15 @@
         <f t="shared" si="0"/>
         <v>112059</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N23">
+        <v>925235</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="1"/>
+        <v>0.12111409533794117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -11764,7 +11996,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I24">
         <v>13032</v>
@@ -11782,8 +12014,15 @@
         <f t="shared" si="0"/>
         <v>89931</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N24">
+        <v>925235</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="1"/>
+        <v>9.7198009154431039E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -11792,7 +12031,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="I25">
         <v>9318</v>
@@ -11810,8 +12049,15 @@
         <f t="shared" si="0"/>
         <v>63041</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N25">
+        <v>925235</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="1"/>
+        <v>6.8135122428356037E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -11820,7 +12066,7 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I26">
         <v>6424</v>
@@ -11838,8 +12084,15 @@
         <f t="shared" si="0"/>
         <v>38808</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N26">
+        <v>925235</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="1"/>
+        <v>4.1943938566958668E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
         <v>215</v>
       </c>
@@ -11856,7 +12109,7 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="I27">
         <v>7292</v>
@@ -11874,8 +12127,15 @@
         <f t="shared" si="0"/>
         <v>28429</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N27">
+        <v>925235</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="1"/>
+        <v>3.0726247926202533E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
         <v>207</v>
       </c>
@@ -11892,7 +12152,7 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
       <c r="H28" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="I28">
         <v>20</v>
@@ -11910,8 +12170,15 @@
         <f t="shared" si="0"/>
         <v>589</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N28">
+        <v>925235</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="1"/>
+        <v>6.365950272093036E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
         <v>2</v>
       </c>
@@ -11932,15 +12199,15 @@
         <v>102986</v>
       </c>
       <c r="J29">
-        <f t="shared" ref="J29:L29" si="1">SUM(J13:J28)</f>
+        <f t="shared" ref="J29:L29" si="2">SUM(J13:J28)</f>
         <v>780886</v>
       </c>
       <c r="K29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41363</v>
       </c>
       <c r="L29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M29">
@@ -11948,7 +12215,7 @@
         <v>925235</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>19</v>
       </c>
@@ -11968,7 +12235,7 @@
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
     </row>
-    <row r="31" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
         <v>27</v>
       </c>
@@ -11988,7 +12255,7 @@
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
     </row>
-    <row r="32" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
         <v>31</v>
       </c>
@@ -12004,11 +12271,21 @@
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-    </row>
-    <row r="33" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="H32" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="I32" s="11">
+        <v>147704</v>
+      </c>
+      <c r="J32">
+        <v>925235</v>
+      </c>
+      <c r="K32">
+        <f t="shared" ref="K32:K36" si="3">I32/J32</f>
+        <v>0.15963944295233104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
         <v>55</v>
       </c>
@@ -12024,11 +12301,21 @@
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-    </row>
-    <row r="34" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="H33" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="I33" s="11">
+        <v>166747</v>
+      </c>
+      <c r="J33">
+        <v>925235</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="3"/>
+        <v>0.18022124109010143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
         <v>62</v>
       </c>
@@ -12044,11 +12331,21 @@
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-    </row>
-    <row r="35" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="H34" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="I34" s="11">
+        <v>277927</v>
+      </c>
+      <c r="J34">
+        <v>925235</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="3"/>
+        <v>0.3003853075164688</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
         <v>72</v>
       </c>
@@ -12064,11 +12361,21 @@
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-    </row>
-    <row r="36" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="H35" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="I35" s="11">
+        <v>332268</v>
+      </c>
+      <c r="J35">
+        <v>925235</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="3"/>
+        <v>0.35911741341388942</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
         <v>69</v>
       </c>
@@ -12084,11 +12391,21 @@
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-    </row>
-    <row r="37" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="H36" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="I36">
+        <v>589</v>
+      </c>
+      <c r="J36">
+        <v>925235</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="3"/>
+        <v>6.365950272093036E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
         <v>82</v>
       </c>
@@ -12108,7 +12425,7 @@
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
     </row>
-    <row r="38" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
         <v>206</v>
       </c>
@@ -12128,7 +12445,7 @@
       <c r="I38" s="11"/>
       <c r="J38" s="11"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -16275,7 +16592,7 @@
         <v>148</v>
       </c>
       <c r="O32" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="P32">
         <v>1425</v>
@@ -16303,7 +16620,7 @@
         <v>149</v>
       </c>
       <c r="O33" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="P33">
         <v>19693</v>
@@ -16331,13 +16648,13 @@
         <v>149</v>
       </c>
       <c r="I34" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="J34">
         <v>7573</v>
       </c>
       <c r="O34" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="P34">
         <v>35324</v>
@@ -16365,13 +16682,13 @@
         <v>149</v>
       </c>
       <c r="I35" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="J35">
         <v>30110</v>
       </c>
       <c r="O35" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="P35">
         <v>45298</v>
@@ -16399,13 +16716,13 @@
         <v>149</v>
       </c>
       <c r="I36" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="J36">
         <v>27408</v>
       </c>
       <c r="O36" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="P36">
         <v>98057</v>
@@ -16433,13 +16750,13 @@
         <v>149</v>
       </c>
       <c r="I37" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="J37">
         <v>42693</v>
       </c>
       <c r="O37" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="P37">
         <v>124844</v>
@@ -16467,13 +16784,13 @@
         <v>149</v>
       </c>
       <c r="I38" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="J38">
         <v>67073</v>
       </c>
       <c r="O38" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="P38">
         <v>206871</v>
@@ -16501,7 +16818,7 @@
         <v>149</v>
       </c>
       <c r="I39" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="J39">
         <v>24940</v>
@@ -16529,7 +16846,7 @@
         <v>149</v>
       </c>
       <c r="I40" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
@@ -16920,26 +17237,45 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3959946-208A-0648-99C3-FA34EBA2C5C8}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C1" t="s">
-        <v>306</v>
-      </c>
-      <c r="D1" t="s">
-        <v>307</v>
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>37710</v>
+      </c>
+      <c r="C2">
+        <v>3818</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>13467</v>
+      </c>
+      <c r="C3">
+        <v>8892</v>
       </c>
     </row>
   </sheetData>

--- a/build/data/maindata.xlsx
+++ b/build/data/maindata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/elections/20180927-absentee/build/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C38D090-0CCA-A140-AA00-85FC0F748400}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593960D5-9B7A-3149-ACCC-56D9F80FF59D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="1840" windowWidth="25480" windowHeight="17360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4200" yWindow="760" windowWidth="25480" windowHeight="17360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018age" sheetId="11" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="375">
   <si>
     <t>countyname</t>
   </si>
@@ -1099,9 +1099,6 @@
     <t>tc</t>
   </si>
   <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
     <t>statewide</t>
   </si>
   <si>
@@ -1145,6 +1142,24 @@
   </si>
   <si>
     <t>66+</t>
+  </si>
+  <si>
+    <t>central</t>
+  </si>
+  <si>
+    <t>northwest</t>
+  </si>
+  <si>
+    <t>southwest</t>
+  </si>
+  <si>
+    <t>west central</t>
+  </si>
+  <si>
+    <t>northland</t>
+  </si>
+  <si>
+    <t>southern</t>
   </si>
 </sst>
 </file>
@@ -3462,8 +3477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB4EA2C9-9ED6-A943-AB1C-F5E8A28BF868}">
   <dimension ref="A1:AA93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="A1:AA89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3573,7 +3588,7 @@
         <v>3.8541079150216208E-3</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -3743,7 +3758,7 @@
         <v>8.5307388606880984E-3</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>351</v>
+        <v>372</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -3828,7 +3843,7 @@
         <v>7.3322053017484488E-3</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -3913,7 +3928,7 @@
         <v>2.8200789622109417E-3</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -3998,7 +4013,7 @@
         <v>5.4051513442376388E-4</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -4083,7 +4098,7 @@
         <v>2.0774581688287271E-2</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4168,7 +4183,7 @@
         <v>2.2325625117503292E-3</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -4253,7 +4268,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -4423,7 +4438,7 @@
         <v>1.8213009964278999E-2</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -4508,7 +4523,7 @@
         <v>5.4051513442376388E-4</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -4593,7 +4608,7 @@
         <v>7.1912013536379014E-3</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -4678,7 +4693,7 @@
         <v>1.2196841511562324E-2</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>351</v>
+        <v>372</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -4763,7 +4778,7 @@
         <v>1.0810302688475278E-3</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -4848,7 +4863,7 @@
         <v>7.2852039857115999E-4</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -4933,7 +4948,7 @@
         <v>1.1515322429028012E-3</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -5018,7 +5033,7 @@
         <v>7.6612145140063925E-3</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -5188,7 +5203,7 @@
         <v>7.5202105658958454E-4</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -5273,7 +5288,7 @@
         <v>9.1652566271855605E-3</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>351</v>
+        <v>372</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -5358,7 +5373,7 @@
         <v>1.4100394811054709E-3</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -5443,7 +5458,7 @@
         <v>2.2325625117503292E-3</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -5528,7 +5543,7 @@
         <v>4.1596164692611392E-3</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -5613,7 +5628,7 @@
         <v>8.4602368866328256E-3</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -5698,7 +5713,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>351</v>
+        <v>372</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -5868,7 +5883,7 @@
         <v>1.3395375070501974E-3</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -5953,7 +5968,7 @@
         <v>7.6612145140063925E-3</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -6038,7 +6053,7 @@
         <v>3.9716112051137436E-3</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -6123,7 +6138,7 @@
         <v>2.2419627749576988E-2</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -6208,7 +6223,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -6293,7 +6308,7 @@
         <v>1.45704079714232E-3</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -6378,7 +6393,7 @@
         <v>5.5226546343297616E-3</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -6463,7 +6478,7 @@
         <v>1.4805414551607445E-3</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -6548,7 +6563,7 @@
         <v>1.45704079714232E-3</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -6633,7 +6648,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -6718,7 +6733,7 @@
         <v>2.0915585636397819E-3</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -6803,7 +6818,7 @@
         <v>4.7001316036849034E-5</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -6888,7 +6903,7 @@
         <v>7.6612145140063925E-3</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -6973,7 +6988,7 @@
         <v>3.0550855423951872E-4</v>
       </c>
       <c r="F42" s="20" t="s">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -7058,7 +7073,7 @@
         <v>2.6085730400451212E-3</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -7143,7 +7158,7 @@
         <v>8.225230306448581E-4</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -7228,7 +7243,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -7313,7 +7328,7 @@
         <v>4.7001316036849033E-4</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -7398,7 +7413,7 @@
         <v>1.3865388230870465E-3</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -7483,7 +7498,7 @@
         <v>1.7390486933634142E-3</v>
       </c>
       <c r="F48" s="20" t="s">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -7568,7 +7583,7 @@
         <v>3.6661026508742244E-3</v>
       </c>
       <c r="F49" s="20" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -7653,7 +7668,7 @@
         <v>7.5202105658958454E-4</v>
       </c>
       <c r="F50" s="20" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -7738,7 +7753,7 @@
         <v>3.8776085730400449E-3</v>
       </c>
       <c r="F51" s="20" t="s">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -7823,7 +7838,7 @@
         <v>7.0501974055273543E-4</v>
       </c>
       <c r="F52" s="20" t="s">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -7908,7 +7923,7 @@
         <v>5.3111487121639406E-3</v>
       </c>
       <c r="F53" s="20" t="s">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -7993,7 +8008,7 @@
         <v>1.9975559315660836E-3</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -8078,7 +8093,7 @@
         <v>4.2301184433164127E-4</v>
       </c>
       <c r="F55" s="20" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -8163,7 +8178,7 @@
         <v>2.0586576424139875E-2</v>
       </c>
       <c r="F56" s="20" t="s">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -8248,7 +8263,7 @@
         <v>9.9642789998119954E-3</v>
       </c>
       <c r="F57" s="20" t="s">
-        <v>351</v>
+        <v>372</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -8333,7 +8348,7 @@
         <v>1.0340289528106787E-3</v>
       </c>
       <c r="F58" s="20" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -8418,7 +8433,7 @@
         <v>5.5226546343297616E-3</v>
       </c>
       <c r="F59" s="20" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -8503,7 +8518,7 @@
         <v>3.2900921225794322E-4</v>
       </c>
       <c r="F60" s="20" t="s">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -8588,7 +8603,7 @@
         <v>2.4675690919345743E-3</v>
       </c>
       <c r="F61" s="20" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -8673,7 +8688,7 @@
         <v>1.9505546155292347E-3</v>
       </c>
       <c r="F62" s="20" t="s">
-        <v>351</v>
+        <v>372</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -8843,7 +8858,7 @@
         <v>4.4886256815190829E-3</v>
       </c>
       <c r="F64" s="20" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -8928,7 +8943,7 @@
         <v>1.9740552735476595E-3</v>
       </c>
       <c r="F65" s="20" t="s">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -9013,7 +9028,7 @@
         <v>7.7552171460800899E-4</v>
       </c>
       <c r="F66" s="20" t="s">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -9098,7 +9113,7 @@
         <v>7.1912013536379014E-3</v>
       </c>
       <c r="F67" s="20" t="s">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -9183,7 +9198,7 @@
         <v>2.1150592216582064E-4</v>
       </c>
       <c r="F68" s="20" t="s">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -9268,7 +9283,7 @@
         <v>1.4100394811054709E-3</v>
       </c>
       <c r="F69" s="20" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -9353,7 +9368,7 @@
         <v>1.7625493513818386E-2</v>
       </c>
       <c r="F70" s="20" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="G70">
         <v>3160</v>
@@ -9523,7 +9538,7 @@
         <v>8.3192329385222783E-3</v>
       </c>
       <c r="F72" s="20" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -9608,7 +9623,7 @@
         <v>1.6685467193081405E-3</v>
       </c>
       <c r="F73" s="20" t="s">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -9693,7 +9708,7 @@
         <v>2.253713103966911E-2</v>
       </c>
       <c r="F74" s="20" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -9778,7 +9793,7 @@
         <v>3.3840947546531302E-3</v>
       </c>
       <c r="F75" s="20" t="s">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -9863,7 +9878,7 @@
         <v>3.9951118631321677E-4</v>
       </c>
       <c r="F76" s="20" t="s">
-        <v>351</v>
+        <v>372</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -9948,7 +9963,7 @@
         <v>0</v>
       </c>
       <c r="F77" s="20" t="s">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -10033,7 +10048,7 @@
         <v>2.1620605376950555E-3</v>
       </c>
       <c r="F78" s="20" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -10118,7 +10133,7 @@
         <v>3.9951118631321677E-4</v>
       </c>
       <c r="F79" s="20" t="s">
-        <v>351</v>
+        <v>372</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -10203,7 +10218,7 @@
         <v>2.9375822523030645E-3</v>
       </c>
       <c r="F80" s="20" t="s">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -10288,7 +10303,7 @@
         <v>1.45704079714232E-3</v>
       </c>
       <c r="F81" s="20" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -10373,7 +10388,7 @@
         <v>1.5745440872344425E-3</v>
       </c>
       <c r="F82" s="20" t="s">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -10543,7 +10558,7 @@
         <v>6.8151908253431099E-4</v>
       </c>
       <c r="F84" s="20" t="s">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -10628,7 +10643,7 @@
         <v>6.1101710847903743E-4</v>
       </c>
       <c r="F85" s="20" t="s">
-        <v>351</v>
+        <v>372</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -10713,7 +10728,7 @@
         <v>4.3476217334085356E-3</v>
       </c>
       <c r="F86" s="20" t="s">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -10798,7 +10813,7 @@
         <v>1.0363790186125212E-2</v>
       </c>
       <c r="F87" s="20" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -10883,7 +10898,7 @@
         <v>6.1101710847903743E-4</v>
       </c>
       <c r="F88" s="20" t="s">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -10970,7 +10985,7 @@
         <v>1.3105451888928893E-2</v>
       </c>
       <c r="F89" s="20" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G89">
         <v>106061</v>
@@ -11051,8 +11066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34709779-4AE9-184C-8747-61ED2F71A71A}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11075,72 +11090,147 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>352</v>
-      </c>
-      <c r="B2">
-        <v>10687</v>
+      <c r="A2" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B2" s="4">
+        <v>17517</v>
       </c>
       <c r="C2">
         <v>42552</v>
       </c>
       <c r="D2">
         <f>B2/C2</f>
-        <v>0.25115153224290282</v>
+        <v>0.41166102650874226</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>351</v>
-      </c>
-      <c r="B3">
-        <v>14348</v>
+      <c r="A3" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="B3" s="4">
+        <v>10687</v>
       </c>
       <c r="C3">
         <v>42552</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D5" si="0">B3/C3</f>
-        <v>0.33718744124835498</v>
+        <f>B3/C3</f>
+        <v>0.25115153224290282</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>353</v>
-      </c>
-      <c r="B4">
-        <v>17517</v>
+      <c r="A4" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3783</v>
       </c>
       <c r="C4">
         <v>42552</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
-        <v>0.41166102650874226</v>
+        <f>B4/C4</f>
+        <v>8.890298928369994E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>354</v>
-      </c>
-      <c r="B5">
-        <v>42552</v>
+      <c r="A5" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2050</v>
       </c>
       <c r="C5">
         <v>42552</v>
       </c>
       <c r="D5">
+        <f t="shared" ref="D5:D10" si="0">B5/C5</f>
+        <v>4.8176348937770258E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1187</v>
+      </c>
+      <c r="C6">
+        <v>42552</v>
+      </c>
+      <c r="D6">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+        <v>2.7895281067869902E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B7" s="4">
+        <v>306</v>
+      </c>
+      <c r="C7">
+        <v>42552</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>7.1912013536379014E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="B8" s="4">
+        <v>4339</v>
+      </c>
+      <c r="C8">
+        <v>42552</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0.10196935514194397</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B9" s="4">
+        <v>844</v>
+      </c>
+      <c r="C9">
+        <v>42552</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>1.9834555367550293E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1839</v>
+      </c>
+      <c r="C10">
+        <v>42552</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>4.3217710095882683E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>254</v>
       </c>
     </row>
@@ -11202,7 +11292,7 @@
         <v>197861.80379999999</v>
       </c>
       <c r="H19" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K19" s="22" t="s">
         <v>336</v>
@@ -11210,7 +11300,7 @@
     </row>
     <row r="20" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="G20" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H20">
         <v>1425</v>
@@ -11221,7 +11311,7 @@
     </row>
     <row r="21" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="G21" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H21">
         <v>19693</v>
@@ -11244,7 +11334,7 @@
         <v>121</v>
       </c>
       <c r="G22" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H22">
         <v>35324</v>
@@ -11265,7 +11355,7 @@
         <v>667446</v>
       </c>
       <c r="G23" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H23">
         <v>45298</v>
@@ -11288,7 +11378,7 @@
         <v>233563</v>
       </c>
       <c r="G24" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H24">
         <v>98057</v>
@@ -11299,7 +11389,7 @@
     </row>
     <row r="25" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="G25" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H25">
         <v>124844</v>
@@ -11310,7 +11400,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G26" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H26">
         <v>206871</v>
@@ -11508,7 +11598,7 @@
         <v>162</v>
       </c>
       <c r="N12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O12" t="s">
         <v>309</v>
@@ -11589,7 +11679,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <f t="shared" ref="M13:N29" si="0">SUM(I14:L14)</f>
+        <f t="shared" ref="M14:M29" si="0">SUM(I14:L14)</f>
         <v>31101</v>
       </c>
       <c r="N14">
@@ -12272,7 +12362,7 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I32" s="11">
         <v>147704</v>
@@ -12302,7 +12392,7 @@
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I33" s="11">
         <v>166747</v>
@@ -12332,7 +12422,7 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I34" s="11">
         <v>277927</v>
@@ -12362,7 +12452,7 @@
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I35" s="11">
         <v>332268</v>
@@ -12392,7 +12482,7 @@
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I36">
         <v>589</v>

--- a/build/data/maindata.xlsx
+++ b/build/data/maindata.xlsx
@@ -8,24 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/elections/20180927-absentee/build/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593960D5-9B7A-3149-ACCC-56D9F80FF59D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC31DC73-9DDE-194F-84F5-FD98DA9BCF24}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="760" windowWidth="25480" windowHeight="17360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42460" yWindow="5620" windowWidth="18720" windowHeight="17360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018age" sheetId="11" r:id="rId1"/>
-    <sheet name="2018counties" sheetId="10" r:id="rId2"/>
-    <sheet name="2018regions" sheetId="9" r:id="rId3"/>
-    <sheet name="2018primary" sheetId="8" r:id="rId4"/>
-    <sheet name="2016where" sheetId="1" r:id="rId5"/>
-    <sheet name="2016who" sheetId="2" r:id="rId6"/>
-    <sheet name="2016when" sheetId="3" r:id="rId7"/>
-    <sheet name="2016lean" sheetId="4" r:id="rId8"/>
-    <sheet name="2014weekly" sheetId="12" r:id="rId9"/>
-    <sheet name="source" sheetId="6" r:id="rId10"/>
-    <sheet name="layout" sheetId="7" r:id="rId11"/>
+    <sheet name="Sheet2" sheetId="14" r:id="rId2"/>
+    <sheet name="2018counties" sheetId="10" r:id="rId3"/>
+    <sheet name="2018regions" sheetId="9" r:id="rId4"/>
+    <sheet name="2018primary" sheetId="8" r:id="rId5"/>
+    <sheet name="2016where" sheetId="1" r:id="rId6"/>
+    <sheet name="2016who" sheetId="2" r:id="rId7"/>
+    <sheet name="2016when" sheetId="3" r:id="rId8"/>
+    <sheet name="2016lean" sheetId="4" r:id="rId9"/>
+    <sheet name="2014weekly" sheetId="12" r:id="rId10"/>
+    <sheet name="source" sheetId="6" r:id="rId11"/>
+    <sheet name="layout" sheetId="7" r:id="rId12"/>
   </sheets>
   <calcPr calcId="179021"/>
+  <pivotCaches>
+    <pivotCache cacheId="43" r:id="rId13"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="377">
   <si>
     <t>countyname</t>
   </si>
@@ -1090,15 +1094,15 @@
     <t>Nov 1-7</t>
   </si>
   <si>
-    <t>outstate</t>
-  </si>
-  <si>
     <t>metro</t>
   </si>
   <si>
     <t>tc</t>
   </si>
   <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
     <t>statewide</t>
   </si>
   <si>
@@ -1160,6 +1164,12 @@
   </si>
   <si>
     <t>southern</t>
+  </si>
+  <si>
+    <t>Sum of total_ab</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
   </si>
 </sst>
 </file>
@@ -1319,7 +1329,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1349,6 +1359,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
   </cellXfs>
   <cellStyles count="30">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2464,6 +2475,2767 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Jeffrey Hargarten" refreshedDate="43378.628389583333" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="88" xr:uid="{9604871B-C8C9-984B-BDD3-006AEB5AA2D0}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:AA89" sheet="2018counties"/>
+  </cacheSource>
+  <cacheFields count="27">
+    <cacheField name="county" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="registered_voters" numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1991" maxValue="3246893"/>
+    </cacheField>
+    <cacheField name="total_requested" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="6" maxValue="106061"/>
+    </cacheField>
+    <cacheField name="total_ab" numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="42552"/>
+    </cacheField>
+    <cacheField name="total_pct" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.31138371874412485"/>
+    </cacheField>
+    <cacheField name="region" numFmtId="0">
+      <sharedItems count="9">
+        <s v="northland"/>
+        <s v="metro"/>
+        <s v="west central"/>
+        <s v="northwest"/>
+        <s v="central"/>
+        <s v="southwest"/>
+        <s v="southern"/>
+        <s v="tc"/>
+        <s v="statewide"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="week1_requested" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="106061"/>
+    </cacheField>
+    <cacheField name="week1_ab" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="11353"/>
+    </cacheField>
+    <cacheField name="week1_pct" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="5.7688925525302172E-3"/>
+    </cacheField>
+    <cacheField name="week2_requested" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="51443"/>
+    </cacheField>
+    <cacheField name="week2_ab" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="42552"/>
+    </cacheField>
+    <cacheField name="week2_pct" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="week3_requested" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="week3_ab" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="week3_pct" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="week4_requested" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="week4_ab" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="week4_pct" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="week5_requested" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="week5_ab" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="week5_pct" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="week6_requested" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="week6_ab" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="week6_pct" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="week7_requested" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="week7_ab" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="week7_pct" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="88">
+  <r>
+    <s v="Aitkin"/>
+    <n v="10041"/>
+    <n v="1291"/>
+    <n v="164"/>
+    <n v="3.8541079150216208E-3"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1291"/>
+    <n v="164"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Anoka"/>
+    <n v="206870"/>
+    <n v="8406"/>
+    <n v="2771"/>
+    <n v="6.5120323369054336E-2"/>
+    <x v="1"/>
+    <n v="5947"/>
+    <n v="522"/>
+    <n v="2.5233238265577416E-3"/>
+    <n v="8406"/>
+    <n v="2771"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Becker"/>
+    <n v="19110"/>
+    <n v="1885"/>
+    <n v="363"/>
+    <n v="8.5307388606880984E-3"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1885"/>
+    <n v="363"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Beltrami"/>
+    <n v="23932"/>
+    <n v="1002"/>
+    <n v="312"/>
+    <n v="7.3322053017484488E-3"/>
+    <x v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1002"/>
+    <n v="312"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Benton"/>
+    <n v="22566"/>
+    <n v="643"/>
+    <n v="120"/>
+    <n v="2.8200789622109417E-3"/>
+    <x v="4"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="643"/>
+    <n v="120"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Big Stone"/>
+    <n v="3043"/>
+    <n v="1270"/>
+    <n v="23"/>
+    <n v="5.4051513442376388E-4"/>
+    <x v="5"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1270"/>
+    <n v="23"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Blue Earth"/>
+    <n v="36134"/>
+    <n v="5306"/>
+    <n v="884"/>
+    <n v="2.0774581688287271E-2"/>
+    <x v="6"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5306"/>
+    <n v="884"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Brown"/>
+    <n v="14880"/>
+    <n v="2826"/>
+    <n v="95"/>
+    <n v="2.2325625117503292E-3"/>
+    <x v="6"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="2826"/>
+    <n v="95"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Carlton"/>
+    <n v="20458"/>
+    <n v="836"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="836"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Carver"/>
+    <n v="61854"/>
+    <n v="2860"/>
+    <n v="802"/>
+    <n v="1.8847527730776463E-2"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="2860"/>
+    <n v="802"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Cass"/>
+    <n v="18117"/>
+    <n v="5751"/>
+    <n v="775"/>
+    <n v="1.8213009964278999E-2"/>
+    <x v="4"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5751"/>
+    <n v="775"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Chippewa"/>
+    <n v="6931"/>
+    <n v="133"/>
+    <n v="23"/>
+    <n v="5.4051513442376388E-4"/>
+    <x v="5"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="133"/>
+    <n v="23"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Chisago"/>
+    <n v="33544"/>
+    <n v="1317"/>
+    <n v="306"/>
+    <n v="7.1912013536379014E-3"/>
+    <x v="4"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1317"/>
+    <n v="306"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Clay"/>
+    <n v="32032"/>
+    <n v="3233"/>
+    <n v="519"/>
+    <n v="1.2196841511562324E-2"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3233"/>
+    <n v="519"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Clearwater"/>
+    <n v="4660"/>
+    <n v="455"/>
+    <n v="46"/>
+    <n v="1.0810302688475278E-3"/>
+    <x v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="455"/>
+    <n v="46"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Cook"/>
+    <n v="3698"/>
+    <n v="126"/>
+    <n v="31"/>
+    <n v="7.2852039857115999E-4"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="126"/>
+    <n v="31"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Cottonwood"/>
+    <n v="6196"/>
+    <n v="167"/>
+    <n v="49"/>
+    <n v="1.1515322429028012E-3"/>
+    <x v="5"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="167"/>
+    <n v="49"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Crow Wing"/>
+    <n v="40109"/>
+    <n v="4566"/>
+    <n v="326"/>
+    <n v="7.6612145140063925E-3"/>
+    <x v="4"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="4566"/>
+    <n v="326"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Dakota"/>
+    <n v="255313"/>
+    <n v="15103"/>
+    <n v="3627"/>
+    <n v="8.523688663282572E-2"/>
+    <x v="1"/>
+    <n v="10288"/>
+    <n v="836"/>
+    <n v="3.2744121920936261E-3"/>
+    <n v="15103"/>
+    <n v="3627"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Dodge"/>
+    <n v="11834"/>
+    <n v="267"/>
+    <n v="32"/>
+    <n v="7.5202105658958454E-4"/>
+    <x v="6"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="267"/>
+    <n v="32"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Douglas"/>
+    <n v="24578"/>
+    <n v="940"/>
+    <n v="390"/>
+    <n v="9.1652566271855605E-3"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="940"/>
+    <n v="390"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Faribault"/>
+    <n v="8089"/>
+    <n v="303"/>
+    <n v="60"/>
+    <n v="1.4100394811054709E-3"/>
+    <x v="6"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="303"/>
+    <n v="60"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Fillmore"/>
+    <n v="12168"/>
+    <n v="1658"/>
+    <n v="95"/>
+    <n v="2.2325625117503292E-3"/>
+    <x v="6"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1658"/>
+    <n v="95"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Freeborn"/>
+    <n v="17532"/>
+    <n v="1081"/>
+    <n v="177"/>
+    <n v="4.1596164692611392E-3"/>
+    <x v="6"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1081"/>
+    <n v="177"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Goodhue"/>
+    <n v="28156"/>
+    <n v="1145"/>
+    <n v="360"/>
+    <n v="8.4602368866328256E-3"/>
+    <x v="6"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1145"/>
+    <n v="360"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Grant"/>
+    <n v="3819"/>
+    <n v="2353"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="2353"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Hennepin"/>
+    <n v="744857"/>
+    <n v="51443"/>
+    <n v="13250"/>
+    <n v="0.31138371874412485"/>
+    <x v="7"/>
+    <n v="36657"/>
+    <n v="4297"/>
+    <n v="5.7688925525302172E-3"/>
+    <n v="51443"/>
+    <n v="13250"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Houston"/>
+    <n v="11827"/>
+    <n v="322"/>
+    <n v="57"/>
+    <n v="1.3395375070501974E-3"/>
+    <x v="6"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="322"/>
+    <n v="57"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Hubbard"/>
+    <n v="12762"/>
+    <n v="2115"/>
+    <n v="326"/>
+    <n v="7.6612145140063925E-3"/>
+    <x v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="2115"/>
+    <n v="326"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Isanti"/>
+    <n v="23372"/>
+    <n v="837"/>
+    <n v="169"/>
+    <n v="3.9716112051137436E-3"/>
+    <x v="4"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="837"/>
+    <n v="169"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Itasca"/>
+    <n v="26727"/>
+    <n v="7913"/>
+    <n v="954"/>
+    <n v="2.2419627749576988E-2"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="7913"/>
+    <n v="954"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Jackson"/>
+    <n v="5915"/>
+    <n v="1340"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="5"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1340"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Kanabec"/>
+    <n v="9419"/>
+    <n v="236"/>
+    <n v="62"/>
+    <n v="1.45704079714232E-3"/>
+    <x v="4"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="236"/>
+    <n v="62"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Kandiyohi"/>
+    <n v="23901"/>
+    <n v="978"/>
+    <n v="235"/>
+    <n v="5.5226546343297616E-3"/>
+    <x v="5"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="978"/>
+    <n v="235"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Kittson"/>
+    <n v="2650"/>
+    <n v="1755"/>
+    <n v="63"/>
+    <n v="1.4805414551607445E-3"/>
+    <x v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1755"/>
+    <n v="63"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Koochiching"/>
+    <n v="7088"/>
+    <n v="2092"/>
+    <n v="62"/>
+    <n v="1.45704079714232E-3"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="2092"/>
+    <n v="62"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Lac Qui Parle"/>
+    <n v="4160"/>
+    <n v="57"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="5"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="57"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Lake"/>
+    <n v="7038"/>
+    <n v="706"/>
+    <n v="89"/>
+    <n v="2.0915585636397819E-3"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="706"/>
+    <n v="89"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Lake of the Woods"/>
+    <n v="2404"/>
+    <n v="6"/>
+    <n v="2"/>
+    <n v="4.7001316036849034E-5"/>
+    <x v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="6"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Le Sueur"/>
+    <n v="16733"/>
+    <n v="3483"/>
+    <n v="326"/>
+    <n v="7.6612145140063925E-3"/>
+    <x v="6"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3483"/>
+    <n v="326"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Lincoln"/>
+    <n v="3410"/>
+    <n v="64"/>
+    <n v="13"/>
+    <n v="3.0550855423951872E-4"/>
+    <x v="5"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="64"/>
+    <n v="13"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Lyon"/>
+    <n v="13570"/>
+    <n v="2775"/>
+    <n v="111"/>
+    <n v="2.6085730400451212E-3"/>
+    <x v="5"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="2775"/>
+    <n v="111"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="McLeod"/>
+    <n v="20858"/>
+    <n v="846"/>
+    <n v="35"/>
+    <n v="8.225230306448581E-4"/>
+    <x v="5"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="846"/>
+    <n v="35"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Mahnomen"/>
+    <n v="2468"/>
+    <n v="1038"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1038"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Marshall"/>
+    <n v="5340"/>
+    <n v="3479"/>
+    <n v="20"/>
+    <n v="4.7001316036849033E-4"/>
+    <x v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3479"/>
+    <n v="20"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Martin"/>
+    <n v="11517"/>
+    <n v="260"/>
+    <n v="59"/>
+    <n v="1.3865388230870465E-3"/>
+    <x v="6"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="260"/>
+    <n v="59"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Meeker"/>
+    <n v="13520"/>
+    <n v="1341"/>
+    <n v="74"/>
+    <n v="1.7390486933634142E-3"/>
+    <x v="5"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1341"/>
+    <n v="74"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Mille Lacs"/>
+    <n v="14701"/>
+    <n v="988"/>
+    <n v="156"/>
+    <n v="3.6661026508742244E-3"/>
+    <x v="4"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="988"/>
+    <n v="156"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Morrison"/>
+    <n v="19803"/>
+    <n v="533"/>
+    <n v="32"/>
+    <n v="7.5202105658958454E-4"/>
+    <x v="4"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="533"/>
+    <n v="32"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Mower"/>
+    <n v="19605"/>
+    <n v="2799"/>
+    <n v="165"/>
+    <n v="3.8776085730400449E-3"/>
+    <x v="6"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="2799"/>
+    <n v="165"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Murray"/>
+    <n v="5103"/>
+    <n v="152"/>
+    <n v="30"/>
+    <n v="7.0501974055273543E-4"/>
+    <x v="5"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="152"/>
+    <n v="30"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Nicollet"/>
+    <n v="19500"/>
+    <n v="3117"/>
+    <n v="226"/>
+    <n v="5.3111487121639406E-3"/>
+    <x v="6"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3117"/>
+    <n v="226"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Nobles"/>
+    <n v="9633"/>
+    <n v="1634"/>
+    <n v="85"/>
+    <n v="1.9975559315660836E-3"/>
+    <x v="5"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1634"/>
+    <n v="85"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Norman"/>
+    <n v="3573"/>
+    <n v="1714"/>
+    <n v="18"/>
+    <n v="4.2301184433164127E-4"/>
+    <x v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1714"/>
+    <n v="18"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Olmsted"/>
+    <n v="88682"/>
+    <n v="4519"/>
+    <n v="876"/>
+    <n v="2.0586576424139875E-2"/>
+    <x v="6"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="4519"/>
+    <n v="876"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Otter Tail"/>
+    <n v="35826"/>
+    <n v="1407"/>
+    <n v="424"/>
+    <n v="9.9642789998119954E-3"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1407"/>
+    <n v="424"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Pennington"/>
+    <n v="7457"/>
+    <n v="497"/>
+    <n v="44"/>
+    <n v="1.0340289528106787E-3"/>
+    <x v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="497"/>
+    <n v="44"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Pine"/>
+    <n v="15655"/>
+    <n v="1215"/>
+    <n v="235"/>
+    <n v="5.5226546343297616E-3"/>
+    <x v="4"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1215"/>
+    <n v="235"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Pipestone"/>
+    <n v="5257"/>
+    <n v="2037"/>
+    <n v="14"/>
+    <n v="3.2900921225794322E-4"/>
+    <x v="5"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="2037"/>
+    <n v="14"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Polk"/>
+    <n v="16519"/>
+    <n v="5243"/>
+    <n v="105"/>
+    <n v="2.4675690919345743E-3"/>
+    <x v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5243"/>
+    <n v="105"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Pope"/>
+    <n v="6877"/>
+    <n v="836"/>
+    <n v="83"/>
+    <n v="1.9505546155292347E-3"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="836"/>
+    <n v="83"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Ramsey"/>
+    <n v="301541"/>
+    <n v="16590"/>
+    <n v="4267"/>
+    <n v="0.10027730776461741"/>
+    <x v="7"/>
+    <n v="12775"/>
+    <n v="1472"/>
+    <n v="4.8815915580302516E-3"/>
+    <n v="16590"/>
+    <n v="4267"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Red Lake"/>
+    <n v="2068"/>
+    <n v="1175"/>
+    <n v="191"/>
+    <n v="4.4886256815190829E-3"/>
+    <x v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1175"/>
+    <n v="191"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Redwood"/>
+    <n v="9064"/>
+    <n v="198"/>
+    <n v="84"/>
+    <n v="1.9740552735476595E-3"/>
+    <x v="5"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="198"/>
+    <n v="84"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Renville"/>
+    <n v="8548"/>
+    <n v="143"/>
+    <n v="33"/>
+    <n v="7.7552171460800899E-4"/>
+    <x v="5"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="143"/>
+    <n v="33"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Rice"/>
+    <n v="35838"/>
+    <n v="1593"/>
+    <n v="306"/>
+    <n v="7.1912013536379014E-3"/>
+    <x v="6"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1593"/>
+    <n v="306"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Rock"/>
+    <n v="5164"/>
+    <n v="94"/>
+    <n v="9"/>
+    <n v="2.1150592216582064E-4"/>
+    <x v="5"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="94"/>
+    <n v="9"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Roseau"/>
+    <n v="8723"/>
+    <n v="2565"/>
+    <n v="60"/>
+    <n v="1.4100394811054709E-3"/>
+    <x v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="2565"/>
+    <n v="60"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="St. Louis"/>
+    <n v="121806"/>
+    <n v="6823"/>
+    <n v="750"/>
+    <n v="1.7625493513818386E-2"/>
+    <x v="0"/>
+    <n v="3160"/>
+    <n v="140"/>
+    <n v="1.1493686682101047E-3"/>
+    <n v="6823"/>
+    <n v="750"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Scott"/>
+    <n v="83212"/>
+    <n v="3709"/>
+    <n v="744"/>
+    <n v="1.7484489565707841E-2"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3709"/>
+    <n v="744"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Sherburne"/>
+    <n v="54646"/>
+    <n v="1660"/>
+    <n v="354"/>
+    <n v="8.3192329385222783E-3"/>
+    <x v="4"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1660"/>
+    <n v="354"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Sibley"/>
+    <n v="8651"/>
+    <n v="211"/>
+    <n v="71"/>
+    <n v="1.6685467193081405E-3"/>
+    <x v="6"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="211"/>
+    <n v="71"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Stearns"/>
+    <n v="86797"/>
+    <n v="7210"/>
+    <n v="959"/>
+    <n v="2.253713103966911E-2"/>
+    <x v="4"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="7210"/>
+    <n v="959"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Steele"/>
+    <n v="20929"/>
+    <n v="520"/>
+    <n v="144"/>
+    <n v="3.3840947546531302E-3"/>
+    <x v="6"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="520"/>
+    <n v="144"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Stevens"/>
+    <n v="5600"/>
+    <n v="2012"/>
+    <n v="17"/>
+    <n v="3.9951118631321677E-4"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="2012"/>
+    <n v="17"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Swift"/>
+    <n v="5490"/>
+    <n v="1756"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="5"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1756"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Todd"/>
+    <n v="13153"/>
+    <n v="340"/>
+    <n v="92"/>
+    <n v="2.1620605376950555E-3"/>
+    <x v="4"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="340"/>
+    <n v="92"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Traverse"/>
+    <n v="1991"/>
+    <n v="864"/>
+    <n v="17"/>
+    <n v="3.9951118631321677E-4"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="864"/>
+    <n v="17"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Wabasha"/>
+    <n v="13261"/>
+    <n v="1243"/>
+    <n v="125"/>
+    <n v="2.9375822523030645E-3"/>
+    <x v="6"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1243"/>
+    <n v="125"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Wadena"/>
+    <n v="7720"/>
+    <n v="213"/>
+    <n v="62"/>
+    <n v="1.45704079714232E-3"/>
+    <x v="4"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="213"/>
+    <n v="62"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Waseca"/>
+    <n v="10582"/>
+    <n v="242"/>
+    <n v="67"/>
+    <n v="1.5745440872344425E-3"/>
+    <x v="6"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="242"/>
+    <n v="67"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Washington"/>
+    <n v="158540"/>
+    <n v="8094"/>
+    <n v="2743"/>
+    <n v="6.4462304944538446E-2"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="8094"/>
+    <n v="2743"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Watonwan"/>
+    <n v="5698"/>
+    <n v="2179"/>
+    <n v="29"/>
+    <n v="6.8151908253431099E-4"/>
+    <x v="6"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="2179"/>
+    <n v="29"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Wilkin"/>
+    <n v="3563"/>
+    <n v="1576"/>
+    <n v="26"/>
+    <n v="6.1101710847903743E-4"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1576"/>
+    <n v="26"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Winona"/>
+    <n v="27538"/>
+    <n v="994"/>
+    <n v="185"/>
+    <n v="4.3476217334085356E-3"/>
+    <x v="6"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="994"/>
+    <n v="185"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Wright"/>
+    <n v="77528"/>
+    <n v="2539"/>
+    <n v="441"/>
+    <n v="1.0363790186125212E-2"/>
+    <x v="4"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="2539"/>
+    <n v="441"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Yellow Medicine"/>
+    <n v="5851"/>
+    <n v="104"/>
+    <n v="26"/>
+    <n v="6.1101710847903743E-4"/>
+    <x v="5"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="104"/>
+    <n v="26"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="TOTAL"/>
+    <n v="3246893"/>
+    <n v="106061"/>
+    <n v="42552"/>
+    <n v="1.3105451888928893E-2"/>
+    <x v="8"/>
+    <n v="106061"/>
+    <n v="11353"/>
+    <n v="3.4965734934905464E-3"/>
+    <n v="0"/>
+    <n v="42552"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{81B504DB-CD74-014B-912B-021CFD10958B}" name="PivotTable9" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="27">
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="4"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of total_ab" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2782,6 +5554,54 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3959946-208A-0648-99C3-FA34EBA2C5C8}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>37710</v>
+      </c>
+      <c r="C2">
+        <v>3818</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>13467</v>
+      </c>
+      <c r="C3">
+        <v>8892</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -2920,7 +5740,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:B78"/>
   <sheetViews>
@@ -3474,10 +6294,117 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC984DA-06C8-7147-9D2F-3CB4F5D96965}">
+  <dimension ref="A3:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="A4:B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="B3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B4" s="4">
+        <v>4089</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B5" s="4">
+        <v>10687</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="B8" s="4">
+        <v>4339</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B9" s="4">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B10" s="4">
+        <v>42552</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="B11" s="4">
+        <v>17517</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B13" s="4">
+        <v>85104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB4EA2C9-9ED6-A943-AB1C-F5E8A28BF868}">
   <dimension ref="A1:AA93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="A1:AA89"/>
     </sheetView>
   </sheetViews>
@@ -3673,7 +6600,7 @@
         <v>6.5120323369054336E-2</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G3">
         <v>5947</v>
@@ -4353,7 +7280,7 @@
         <v>1.8847527730776463E-2</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -5118,7 +8045,7 @@
         <v>8.523688663282572E-2</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G20">
         <v>10288</v>
@@ -5798,7 +8725,7 @@
         <v>0.31138371874412485</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G28">
         <v>36657</v>
@@ -8773,7 +11700,7 @@
         <v>0.10027730776461741</v>
       </c>
       <c r="F63" s="20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G63">
         <v>12775</v>
@@ -9453,7 +12380,7 @@
         <v>1.7484489565707841E-2</v>
       </c>
       <c r="F71" s="20" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -10473,7 +13400,7 @@
         <v>6.4462304944538446E-2</v>
       </c>
       <c r="F83" s="20" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -11062,12 +13989,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34709779-4AE9-184C-8747-61ED2F71A71A}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11091,7 +14018,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B2" s="4">
         <v>17517</v>
@@ -11106,7 +14033,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B3" s="4">
         <v>10687</v>
@@ -11124,59 +14051,59 @@
         <v>369</v>
       </c>
       <c r="B4" s="4">
-        <v>3783</v>
+        <v>4089</v>
       </c>
       <c r="C4">
         <v>42552</v>
       </c>
       <c r="D4">
         <f>B4/C4</f>
-        <v>8.890298928369994E-2</v>
+        <v>9.6094190637337845E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B5" s="4">
-        <v>2050</v>
+        <v>1839</v>
       </c>
       <c r="C5">
         <v>42552</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:D10" si="0">B5/C5</f>
-        <v>4.8176348937770258E-2</v>
+        <f>B5/C5</f>
+        <v>4.3217710095882683E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B6" s="4">
-        <v>1187</v>
+        <v>2050</v>
       </c>
       <c r="C6">
         <v>42552</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
-        <v>2.7895281067869902E-2</v>
+        <f>B6/C6</f>
+        <v>4.8176348937770258E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="B7" s="4">
-        <v>306</v>
+        <v>1187</v>
       </c>
       <c r="C7">
         <v>42552</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
-        <v>7.1912013536379014E-3</v>
+        <f t="shared" ref="D7:D9" si="0">B7/C7</f>
+        <v>2.7895281067869902E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -11211,17 +14138,17 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="B10" s="4">
-        <v>1839</v>
+        <v>42552</v>
       </c>
       <c r="C10">
         <v>42552</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
-        <v>4.3217710095882683E-2</v>
+        <f>B10/C10</f>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -11411,7 +14338,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O39"/>
   <sheetViews>
@@ -12560,7 +15487,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K88"/>
   <sheetViews>
@@ -14049,7 +16976,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L137"/>
   <sheetViews>
@@ -15957,7 +18884,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:P41"/>
   <sheetViews>
@@ -16973,7 +19900,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D36"/>
   <sheetViews>
@@ -17323,52 +20250,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3959946-208A-0648-99C3-FA34EBA2C5C8}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>37710</v>
-      </c>
-      <c r="C2">
-        <v>3818</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>13467</v>
-      </c>
-      <c r="C3">
-        <v>8892</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/build/data/maindata.xlsx
+++ b/build/data/maindata.xlsx
@@ -1,36 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/elections/20180927-absentee/build/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB3F81F-2757-E94D-A1C0-CEC33E9001EE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBEBAFA4-2E24-F04B-A09F-F2A6E01FF187}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6060" yWindow="680" windowWidth="26960" windowHeight="18400" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="520" yWindow="460" windowWidth="26960" windowHeight="18400" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018age" sheetId="11" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="14" r:id="rId2"/>
-    <sheet name="2018counties" sheetId="10" r:id="rId3"/>
-    <sheet name="2018regions" sheetId="9" r:id="rId4"/>
-    <sheet name="2018primary" sheetId="8" r:id="rId5"/>
-    <sheet name="2018rankings" sheetId="13" r:id="rId6"/>
-    <sheet name="2016where" sheetId="1" r:id="rId7"/>
-    <sheet name="2016who" sheetId="2" r:id="rId8"/>
-    <sheet name="2016when" sheetId="3" r:id="rId9"/>
-    <sheet name="2016lean" sheetId="4" r:id="rId10"/>
-    <sheet name="2014weekly" sheetId="12" r:id="rId11"/>
-    <sheet name="source" sheetId="6" r:id="rId12"/>
-    <sheet name="layout" sheetId="7" r:id="rId13"/>
+    <sheet name="2018counties" sheetId="10" r:id="rId2"/>
+    <sheet name="2018regions" sheetId="9" r:id="rId3"/>
+    <sheet name="2018primary" sheetId="8" r:id="rId4"/>
+    <sheet name="2018rankings" sheetId="13" r:id="rId5"/>
+    <sheet name="2016where" sheetId="1" r:id="rId6"/>
+    <sheet name="2016who" sheetId="2" r:id="rId7"/>
+    <sheet name="2016when" sheetId="3" r:id="rId8"/>
+    <sheet name="2016lean" sheetId="4" r:id="rId9"/>
+    <sheet name="2014weekly" sheetId="12" r:id="rId10"/>
+    <sheet name="source" sheetId="6" r:id="rId11"/>
+    <sheet name="layout" sheetId="7" r:id="rId12"/>
   </sheets>
   <calcPr calcId="179021"/>
-  <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId14"/>
-  </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -40,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="499">
   <si>
     <t>countyname</t>
   </si>
@@ -1524,13 +1520,19 @@
     <t>Absentee ballots accepted in 2018</t>
   </si>
   <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
     <t>Grand Total</t>
   </si>
   <si>
-    <t>Sum of total_ab</t>
+    <t>Sep 23-29</t>
+  </si>
+  <si>
+    <t>Sep 30-Oct 6</t>
+  </si>
+  <si>
+    <t>Oct 7-13</t>
+  </si>
+  <si>
+    <t>Oct 14-20</t>
   </si>
 </sst>
 </file>
@@ -1733,7 +1735,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1779,7 +1781,6 @@
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
   </cellXfs>
   <cellStyles count="30">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2895,2933 +2896,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Jeffrey Hargarten" refreshedDate="43384.651981365743" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="88" xr:uid="{BDC8FF85-210B-ED43-B9BA-0D95936FB499}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:AA89" sheet="2018counties"/>
-  </cacheSource>
-  <cacheFields count="27">
-    <cacheField name="county" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="registered_voters" numFmtId="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1991" maxValue="3246893"/>
-    </cacheField>
-    <cacheField name="total_requested" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="47" maxValue="319299"/>
-    </cacheField>
-    <cacheField name="total_ab" numFmtId="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="85438" count="82">
-        <n v="338"/>
-        <n v="4684"/>
-        <n v="677"/>
-        <n v="638"/>
-        <n v="211"/>
-        <n v="58"/>
-        <n v="1678"/>
-        <n v="236"/>
-        <n v="246"/>
-        <n v="1430"/>
-        <n v="1492"/>
-        <n v="67"/>
-        <n v="478"/>
-        <n v="927"/>
-        <n v="108"/>
-        <n v="69"/>
-        <n v="105"/>
-        <n v="1787"/>
-        <n v="7040"/>
-        <n v="139"/>
-        <n v="731"/>
-        <n v="116"/>
-        <n v="317"/>
-        <n v="391"/>
-        <n v="607"/>
-        <n v="26"/>
-        <n v="24432"/>
-        <n v="151"/>
-        <n v="745"/>
-        <n v="407"/>
-        <n v="2098"/>
-        <n v="95"/>
-        <n v="119"/>
-        <n v="531"/>
-        <n v="414"/>
-        <n v="201"/>
-        <n v="13"/>
-        <n v="2"/>
-        <n v="630"/>
-        <n v="35"/>
-        <n v="229"/>
-        <n v="140"/>
-        <n v="22"/>
-        <n v="575"/>
-        <n v="150"/>
-        <n v="292"/>
-        <n v="357"/>
-        <n v="32"/>
-        <n v="296"/>
-        <n v="61"/>
-        <n v="260"/>
-        <n v="2258"/>
-        <n v="857"/>
-        <n v="138"/>
-        <n v="457"/>
-        <n v="232"/>
-        <n v="205"/>
-        <n v="7533"/>
-        <n v="352"/>
-        <n v="142"/>
-        <n v="86"/>
-        <n v="732"/>
-        <n v="47"/>
-        <n v="135"/>
-        <n v="2339"/>
-        <n v="1579"/>
-        <n v="1057"/>
-        <n v="98"/>
-        <n v="1853"/>
-        <n v="353"/>
-        <n v="44"/>
-        <n v="38"/>
-        <n v="155"/>
-        <n v="21"/>
-        <n v="270"/>
-        <n v="120"/>
-        <n v="4734"/>
-        <n v="73"/>
-        <n v="40"/>
-        <n v="1171"/>
-        <n v="57"/>
-        <n v="85438"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="total_pct" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.3408787658887146E-5" maxValue="0.28596175004096536"/>
-    </cacheField>
-    <cacheField name="region" numFmtId="0">
-      <sharedItems count="9">
-        <s v="northland"/>
-        <s v="metro"/>
-        <s v="west central"/>
-        <s v="northwest"/>
-        <s v="central"/>
-        <s v="southwest"/>
-        <s v="southern"/>
-        <s v="tc"/>
-        <s v="statewide"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="week1_requested" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="106061"/>
-    </cacheField>
-    <cacheField name="week1_ab" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="11353"/>
-    </cacheField>
-    <cacheField name="week1_pct" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="5.7688925525302172E-3"/>
-    </cacheField>
-    <cacheField name="week2_requested" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="51443"/>
-    </cacheField>
-    <cacheField name="week2_ab" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="42552"/>
-    </cacheField>
-    <cacheField name="week2_pct" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
-    </cacheField>
-    <cacheField name="week3_requested" numFmtId="165">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="47" maxValue="319299"/>
-    </cacheField>
-    <cacheField name="week3_ab" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="85438"/>
-    </cacheField>
-    <cacheField name="week3_pct" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
-    </cacheField>
-    <cacheField name="week4_requested" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
-    </cacheField>
-    <cacheField name="week4_ab" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
-    </cacheField>
-    <cacheField name="week4_pct" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
-    </cacheField>
-    <cacheField name="week5_requested" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
-    </cacheField>
-    <cacheField name="week5_ab" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
-    </cacheField>
-    <cacheField name="week5_pct" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
-    </cacheField>
-    <cacheField name="week6_requested" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
-    </cacheField>
-    <cacheField name="week6_ab" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
-    </cacheField>
-    <cacheField name="week6_pct" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
-    </cacheField>
-    <cacheField name="week7_requested" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
-    </cacheField>
-    <cacheField name="week7_ab" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
-    </cacheField>
-    <cacheField name="week7_pct" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="88">
-  <r>
-    <s v="Aitkin"/>
-    <n v="10041"/>
-    <n v="1532"/>
-    <x v="0"/>
-    <n v="3.9560851143519279E-3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1291"/>
-    <n v="164"/>
-    <n v="0"/>
-    <n v="1532"/>
-    <n v="338"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Anoka"/>
-    <n v="206870"/>
-    <n v="11886"/>
-    <x v="1"/>
-    <n v="5.4823380697113698E-2"/>
-    <x v="1"/>
-    <n v="5947"/>
-    <n v="522"/>
-    <n v="2.5233238265577416E-3"/>
-    <n v="8406"/>
-    <n v="2771"/>
-    <n v="0"/>
-    <n v="11886"/>
-    <n v="4684"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Becker"/>
-    <n v="19110"/>
-    <n v="2274"/>
-    <x v="2"/>
-    <n v="7.9238746225332984E-3"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1885"/>
-    <n v="363"/>
-    <n v="0"/>
-    <n v="2274"/>
-    <n v="677"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Beltrami"/>
-    <n v="23932"/>
-    <n v="3488"/>
-    <x v="3"/>
-    <n v="7.4674032631849999E-3"/>
-    <x v="3"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1002"/>
-    <n v="312"/>
-    <n v="0"/>
-    <n v="3488"/>
-    <n v="638"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Benton"/>
-    <n v="22566"/>
-    <n v="1707"/>
-    <x v="4"/>
-    <n v="2.469627098012594E-3"/>
-    <x v="4"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="643"/>
-    <n v="120"/>
-    <n v="0"/>
-    <n v="1707"/>
-    <n v="211"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Big Stone"/>
-    <n v="3043"/>
-    <n v="1298"/>
-    <x v="5"/>
-    <n v="6.7885484210772719E-4"/>
-    <x v="5"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1270"/>
-    <n v="23"/>
-    <n v="0"/>
-    <n v="1298"/>
-    <n v="58"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Blue Earth"/>
-    <n v="36134"/>
-    <n v="6181"/>
-    <x v="6"/>
-    <n v="1.9639972845806316E-2"/>
-    <x v="6"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="5306"/>
-    <n v="884"/>
-    <n v="0"/>
-    <n v="6181"/>
-    <n v="1678"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Brown"/>
-    <n v="14880"/>
-    <n v="3125"/>
-    <x v="7"/>
-    <n v="2.7622369437486833E-3"/>
-    <x v="6"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="2826"/>
-    <n v="95"/>
-    <n v="0"/>
-    <n v="3125"/>
-    <n v="236"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Carlton"/>
-    <n v="20458"/>
-    <n v="3402"/>
-    <x v="8"/>
-    <n v="2.8792808820431188E-3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="836"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="3402"/>
-    <n v="246"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Carver"/>
-    <n v="61854"/>
-    <n v="4376"/>
-    <x v="9"/>
-    <n v="1.673728317610431E-2"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="2860"/>
-    <n v="802"/>
-    <n v="0"/>
-    <n v="4376"/>
-    <n v="1430"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Cass"/>
-    <n v="18117"/>
-    <n v="6101"/>
-    <x v="10"/>
-    <n v="1.7462955593529811E-2"/>
-    <x v="4"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="5751"/>
-    <n v="775"/>
-    <n v="0"/>
-    <n v="6101"/>
-    <n v="1492"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Chippewa"/>
-    <n v="6931"/>
-    <n v="268"/>
-    <x v="11"/>
-    <n v="7.8419438657271936E-4"/>
-    <x v="5"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="133"/>
-    <n v="23"/>
-    <n v="0"/>
-    <n v="268"/>
-    <n v="67"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Chisago"/>
-    <n v="33544"/>
-    <n v="1903"/>
-    <x v="12"/>
-    <n v="5.594700250474028E-3"/>
-    <x v="4"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1317"/>
-    <n v="306"/>
-    <n v="0"/>
-    <n v="1903"/>
-    <n v="478"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Clay"/>
-    <n v="32032"/>
-    <n v="3849"/>
-    <x v="13"/>
-    <n v="1.0849973079894193E-2"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="3233"/>
-    <n v="519"/>
-    <n v="0"/>
-    <n v="3849"/>
-    <n v="927"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Clearwater"/>
-    <n v="4660"/>
-    <n v="520"/>
-    <x v="14"/>
-    <n v="1.264074533579906E-3"/>
-    <x v="3"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="455"/>
-    <n v="46"/>
-    <n v="0"/>
-    <n v="520"/>
-    <n v="108"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Cook"/>
-    <n v="3698"/>
-    <n v="180"/>
-    <x v="15"/>
-    <n v="8.0760317423160652E-4"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="126"/>
-    <n v="31"/>
-    <n v="0"/>
-    <n v="180"/>
-    <n v="69"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Cottonwood"/>
-    <n v="6196"/>
-    <n v="313"/>
-    <x v="16"/>
-    <n v="1.2289613520915753E-3"/>
-    <x v="5"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="167"/>
-    <n v="49"/>
-    <n v="0"/>
-    <n v="313"/>
-    <n v="105"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Crow Wing"/>
-    <n v="40109"/>
-    <n v="5480"/>
-    <x v="17"/>
-    <n v="2.0915751773215665E-2"/>
-    <x v="4"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="4566"/>
-    <n v="326"/>
-    <n v="0"/>
-    <n v="5480"/>
-    <n v="1787"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Dakota"/>
-    <n v="255313"/>
-    <n v="21721"/>
-    <x v="18"/>
-    <n v="8.2398932559282753E-2"/>
-    <x v="1"/>
-    <n v="10288"/>
-    <n v="836"/>
-    <n v="3.2744121920936261E-3"/>
-    <n v="15103"/>
-    <n v="3627"/>
-    <n v="0"/>
-    <n v="21721"/>
-    <n v="7040"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Dodge"/>
-    <n v="11834"/>
-    <n v="440"/>
-    <x v="19"/>
-    <n v="1.6269107422926567E-3"/>
-    <x v="6"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="267"/>
-    <n v="32"/>
-    <n v="0"/>
-    <n v="440"/>
-    <n v="139"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Douglas"/>
-    <n v="24578"/>
-    <n v="1478"/>
-    <x v="20"/>
-    <n v="8.5559118893232516E-3"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="940"/>
-    <n v="390"/>
-    <n v="0"/>
-    <n v="1478"/>
-    <n v="731"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Faribault"/>
-    <n v="8089"/>
-    <n v="432"/>
-    <x v="21"/>
-    <n v="1.3577096842154544E-3"/>
-    <x v="6"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="303"/>
-    <n v="60"/>
-    <n v="0"/>
-    <n v="432"/>
-    <n v="116"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Fillmore"/>
-    <n v="12168"/>
-    <n v="1836"/>
-    <x v="22"/>
-    <n v="3.7102928439336127E-3"/>
-    <x v="6"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1658"/>
-    <n v="95"/>
-    <n v="0"/>
-    <n v="1836"/>
-    <n v="317"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Freeborn"/>
-    <n v="17532"/>
-    <n v="1446"/>
-    <x v="23"/>
-    <n v="4.5764179873124368E-3"/>
-    <x v="6"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1081"/>
-    <n v="177"/>
-    <n v="0"/>
-    <n v="1446"/>
-    <n v="391"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Goodhue"/>
-    <n v="28156"/>
-    <n v="1740"/>
-    <x v="24"/>
-    <n v="7.1045670544722488E-3"/>
-    <x v="6"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1145"/>
-    <n v="360"/>
-    <n v="0"/>
-    <n v="1740"/>
-    <n v="607"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Grant"/>
-    <n v="3819"/>
-    <n v="2405"/>
-    <x v="25"/>
-    <n v="3.0431423956553291E-4"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="2353"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="2405"/>
-    <n v="26"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Hennepin"/>
-    <n v="744857"/>
-    <n v="71233"/>
-    <x v="26"/>
-    <n v="0.28596175004096536"/>
-    <x v="7"/>
-    <n v="36657"/>
-    <n v="4297"/>
-    <n v="5.7688925525302172E-3"/>
-    <n v="51443"/>
-    <n v="13250"/>
-    <n v="0"/>
-    <n v="71233"/>
-    <n v="24432"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Houston"/>
-    <n v="11827"/>
-    <n v="498"/>
-    <x v="27"/>
-    <n v="1.7673634682459796E-3"/>
-    <x v="6"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="322"/>
-    <n v="57"/>
-    <n v="0"/>
-    <n v="498"/>
-    <n v="151"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Hubbard"/>
-    <n v="12762"/>
-    <n v="2464"/>
-    <x v="28"/>
-    <n v="8.7197734029354611E-3"/>
-    <x v="3"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="2115"/>
-    <n v="326"/>
-    <n v="0"/>
-    <n v="2464"/>
-    <n v="745"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Isanti"/>
-    <n v="23372"/>
-    <n v="1176"/>
-    <x v="29"/>
-    <n v="4.7636882885835341E-3"/>
-    <x v="4"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="837"/>
-    <n v="169"/>
-    <n v="0"/>
-    <n v="1176"/>
-    <n v="407"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Itasca"/>
-    <n v="26727"/>
-    <n v="8477"/>
-    <x v="30"/>
-    <n v="2.4555818254172617E-2"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="7913"/>
-    <n v="954"/>
-    <n v="0"/>
-    <n v="8477"/>
-    <n v="2098"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Jackson"/>
-    <n v="5915"/>
-    <n v="1451"/>
-    <x v="31"/>
-    <n v="1.1119174137971394E-3"/>
-    <x v="5"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1340"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1451"/>
-    <n v="95"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Kanabec"/>
-    <n v="9419"/>
-    <n v="366"/>
-    <x v="32"/>
-    <n v="1.3928228657037853E-3"/>
-    <x v="4"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="236"/>
-    <n v="62"/>
-    <n v="0"/>
-    <n v="366"/>
-    <n v="119"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Kandiyohi"/>
-    <n v="23901"/>
-    <n v="1436"/>
-    <x v="33"/>
-    <n v="6.2150331234345369E-3"/>
-    <x v="5"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="978"/>
-    <n v="235"/>
-    <n v="0"/>
-    <n v="1436"/>
-    <n v="531"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Kittson"/>
-    <n v="2650"/>
-    <n v="1787"/>
-    <x v="34"/>
-    <n v="4.8456190453896389E-3"/>
-    <x v="3"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1755"/>
-    <n v="63"/>
-    <n v="0"/>
-    <n v="1787"/>
-    <n v="414"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Koochiching"/>
-    <n v="7088"/>
-    <n v="2212"/>
-    <x v="35"/>
-    <n v="2.3525831597181581E-3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="2092"/>
-    <n v="62"/>
-    <n v="0"/>
-    <n v="2212"/>
-    <n v="201"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Lac Qui Parle"/>
-    <n v="4160"/>
-    <n v="1211"/>
-    <x v="36"/>
-    <n v="1.5215711978276646E-4"/>
-    <x v="5"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="57"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1211"/>
-    <n v="13"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Lake"/>
-    <n v="7038"/>
-    <n v="869"/>
-    <x v="4"/>
-    <n v="2.469627098012594E-3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="706"/>
-    <n v="89"/>
-    <n v="0"/>
-    <n v="869"/>
-    <n v="211"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Lake of the Woods"/>
-    <n v="2404"/>
-    <n v="47"/>
-    <x v="37"/>
-    <n v="2.3408787658887146E-5"/>
-    <x v="3"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="6"/>
-    <n v="2"/>
-    <n v="0"/>
-    <n v="47"/>
-    <n v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Le Sueur"/>
-    <n v="16733"/>
-    <n v="3704"/>
-    <x v="38"/>
-    <n v="7.3737681125494508E-3"/>
-    <x v="6"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="3483"/>
-    <n v="326"/>
-    <n v="0"/>
-    <n v="3704"/>
-    <n v="630"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Lincoln"/>
-    <n v="3410"/>
-    <n v="104"/>
-    <x v="39"/>
-    <n v="4.0965378403052508E-4"/>
-    <x v="5"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="64"/>
-    <n v="13"/>
-    <n v="0"/>
-    <n v="104"/>
-    <n v="35"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Lyon"/>
-    <n v="13570"/>
-    <n v="2951"/>
-    <x v="40"/>
-    <n v="2.6803061869425781E-3"/>
-    <x v="5"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="2775"/>
-    <n v="111"/>
-    <n v="0"/>
-    <n v="2951"/>
-    <n v="229"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="McLeod"/>
-    <n v="20858"/>
-    <n v="1147"/>
-    <x v="41"/>
-    <n v="1.6386151361221003E-3"/>
-    <x v="5"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="846"/>
-    <n v="35"/>
-    <n v="0"/>
-    <n v="1147"/>
-    <n v="140"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Mahnomen"/>
-    <n v="2468"/>
-    <n v="1071"/>
-    <x v="42"/>
-    <n v="2.5749666424775859E-4"/>
-    <x v="3"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1038"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1071"/>
-    <n v="22"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Marshall"/>
-    <n v="5340"/>
-    <n v="3524"/>
-    <x v="43"/>
-    <n v="6.7300264519300542E-3"/>
-    <x v="3"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="3479"/>
-    <n v="20"/>
-    <n v="0"/>
-    <n v="3524"/>
-    <n v="575"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Martin"/>
-    <n v="11517"/>
-    <n v="472"/>
-    <x v="44"/>
-    <n v="1.755659074416536E-3"/>
-    <x v="6"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="260"/>
-    <n v="59"/>
-    <n v="0"/>
-    <n v="472"/>
-    <n v="150"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Meeker"/>
-    <n v="13520"/>
-    <n v="1516"/>
-    <x v="45"/>
-    <n v="3.4176829981975233E-3"/>
-    <x v="5"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1341"/>
-    <n v="74"/>
-    <n v="0"/>
-    <n v="1516"/>
-    <n v="292"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Mille Lacs"/>
-    <n v="14701"/>
-    <n v="1224"/>
-    <x v="46"/>
-    <n v="4.1784685971113554E-3"/>
-    <x v="4"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="988"/>
-    <n v="156"/>
-    <n v="0"/>
-    <n v="1224"/>
-    <n v="357"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Morrison"/>
-    <n v="19803"/>
-    <n v="2519"/>
-    <x v="47"/>
-    <n v="3.7454060254219434E-4"/>
-    <x v="4"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="533"/>
-    <n v="32"/>
-    <n v="0"/>
-    <n v="2519"/>
-    <n v="32"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Mower"/>
-    <n v="19605"/>
-    <n v="3231"/>
-    <x v="48"/>
-    <n v="3.4645005735152975E-3"/>
-    <x v="6"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="2799"/>
-    <n v="165"/>
-    <n v="0"/>
-    <n v="3231"/>
-    <n v="296"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Murray"/>
-    <n v="5103"/>
-    <n v="1802"/>
-    <x v="49"/>
-    <n v="7.1396802359605799E-4"/>
-    <x v="5"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="152"/>
-    <n v="30"/>
-    <n v="0"/>
-    <n v="1802"/>
-    <n v="61"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Nicollet"/>
-    <n v="19500"/>
-    <n v="3447"/>
-    <x v="23"/>
-    <n v="4.5764179873124368E-3"/>
-    <x v="6"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="3117"/>
-    <n v="226"/>
-    <n v="0"/>
-    <n v="3447"/>
-    <n v="391"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Nobles"/>
-    <n v="9633"/>
-    <n v="1799"/>
-    <x v="50"/>
-    <n v="3.0431423956553288E-3"/>
-    <x v="5"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1634"/>
-    <n v="85"/>
-    <n v="0"/>
-    <n v="1799"/>
-    <n v="260"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Norman"/>
-    <n v="3573"/>
-    <n v="1756"/>
-    <x v="4"/>
-    <n v="2.469627098012594E-3"/>
-    <x v="3"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1714"/>
-    <n v="18"/>
-    <n v="0"/>
-    <n v="1756"/>
-    <n v="211"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Olmsted"/>
-    <n v="88682"/>
-    <n v="7060"/>
-    <x v="51"/>
-    <n v="2.6428521266883588E-2"/>
-    <x v="6"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="4519"/>
-    <n v="876"/>
-    <n v="0"/>
-    <n v="7060"/>
-    <n v="2258"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Otter Tail"/>
-    <n v="35826"/>
-    <n v="2068"/>
-    <x v="52"/>
-    <n v="1.0030665511833143E-2"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1407"/>
-    <n v="424"/>
-    <n v="0"/>
-    <n v="2068"/>
-    <n v="857"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Pennington"/>
-    <n v="7457"/>
-    <n v="625"/>
-    <x v="53"/>
-    <n v="1.615206348463213E-3"/>
-    <x v="3"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="497"/>
-    <n v="44"/>
-    <n v="0"/>
-    <n v="625"/>
-    <n v="138"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Pine"/>
-    <n v="15655"/>
-    <n v="1498"/>
-    <x v="54"/>
-    <n v="5.3489079800557128E-3"/>
-    <x v="4"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1215"/>
-    <n v="235"/>
-    <n v="0"/>
-    <n v="1498"/>
-    <n v="457"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Pipestone"/>
-    <n v="5257"/>
-    <n v="2075"/>
-    <x v="39"/>
-    <n v="4.0965378403052508E-4"/>
-    <x v="5"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="2037"/>
-    <n v="14"/>
-    <n v="0"/>
-    <n v="2075"/>
-    <n v="35"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Polk"/>
-    <n v="16519"/>
-    <n v="5484"/>
-    <x v="55"/>
-    <n v="2.7154193684309088E-3"/>
-    <x v="3"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="5243"/>
-    <n v="105"/>
-    <n v="0"/>
-    <n v="5484"/>
-    <n v="232"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Pope"/>
-    <n v="6877"/>
-    <n v="944"/>
-    <x v="56"/>
-    <n v="2.3994007350359326E-3"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="836"/>
-    <n v="83"/>
-    <n v="0"/>
-    <n v="944"/>
-    <n v="205"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Ramsey"/>
-    <n v="301541"/>
-    <n v="22516"/>
-    <x v="57"/>
-    <n v="8.816919871719843E-2"/>
-    <x v="7"/>
-    <n v="12775"/>
-    <n v="1472"/>
-    <n v="4.8815915580302516E-3"/>
-    <n v="16590"/>
-    <n v="4267"/>
-    <n v="0"/>
-    <n v="22516"/>
-    <n v="7533"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Red Lake"/>
-    <n v="2068"/>
-    <n v="1204"/>
-    <x v="58"/>
-    <n v="4.1199466279641375E-3"/>
-    <x v="3"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1175"/>
-    <n v="191"/>
-    <n v="0"/>
-    <n v="1204"/>
-    <n v="352"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Redwood"/>
-    <n v="9064"/>
-    <n v="291"/>
-    <x v="59"/>
-    <n v="1.6620239237809874E-3"/>
-    <x v="5"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="198"/>
-    <n v="84"/>
-    <n v="0"/>
-    <n v="291"/>
-    <n v="142"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Renville"/>
-    <n v="8548"/>
-    <n v="254"/>
-    <x v="60"/>
-    <n v="1.0065778693321473E-3"/>
-    <x v="5"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="143"/>
-    <n v="33"/>
-    <n v="0"/>
-    <n v="254"/>
-    <n v="86"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Rice"/>
-    <n v="35838"/>
-    <n v="2405"/>
-    <x v="61"/>
-    <n v="8.5676162831526959E-3"/>
-    <x v="6"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1593"/>
-    <n v="306"/>
-    <n v="0"/>
-    <n v="2405"/>
-    <n v="732"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Rock"/>
-    <n v="5164"/>
-    <n v="2127"/>
-    <x v="62"/>
-    <n v="5.5010650998384798E-4"/>
-    <x v="5"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="94"/>
-    <n v="9"/>
-    <n v="0"/>
-    <n v="2127"/>
-    <n v="47"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Roseau"/>
-    <n v="8723"/>
-    <n v="2662"/>
-    <x v="63"/>
-    <n v="1.5800931669748824E-3"/>
-    <x v="3"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="2565"/>
-    <n v="60"/>
-    <n v="0"/>
-    <n v="2662"/>
-    <n v="135"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="St. Louis"/>
-    <n v="121806"/>
-    <n v="9108"/>
-    <x v="64"/>
-    <n v="2.7376577167068518E-2"/>
-    <x v="0"/>
-    <n v="3160"/>
-    <n v="140"/>
-    <n v="1.1493686682101047E-3"/>
-    <n v="6823"/>
-    <n v="750"/>
-    <n v="0"/>
-    <n v="9108"/>
-    <n v="2339"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Scott"/>
-    <n v="83212"/>
-    <n v="5363"/>
-    <x v="65"/>
-    <n v="1.8481237856691403E-2"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="3709"/>
-    <n v="744"/>
-    <n v="0"/>
-    <n v="5363"/>
-    <n v="1579"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Sherburne"/>
-    <n v="54646"/>
-    <n v="2459"/>
-    <x v="66"/>
-    <n v="1.2371544277721858E-2"/>
-    <x v="4"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1660"/>
-    <n v="354"/>
-    <n v="0"/>
-    <n v="2459"/>
-    <n v="1057"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Sibley"/>
-    <n v="8651"/>
-    <n v="390"/>
-    <x v="67"/>
-    <n v="1.1470305952854701E-3"/>
-    <x v="6"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="211"/>
-    <n v="71"/>
-    <n v="0"/>
-    <n v="390"/>
-    <n v="98"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Stearns"/>
-    <n v="86797"/>
-    <n v="8530"/>
-    <x v="68"/>
-    <n v="2.1688241765958943E-2"/>
-    <x v="4"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="7210"/>
-    <n v="959"/>
-    <n v="0"/>
-    <n v="8530"/>
-    <n v="1853"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Steele"/>
-    <n v="20929"/>
-    <n v="871"/>
-    <x v="69"/>
-    <n v="4.1316510217935809E-3"/>
-    <x v="6"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="520"/>
-    <n v="144"/>
-    <n v="0"/>
-    <n v="871"/>
-    <n v="353"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Stevens"/>
-    <n v="5600"/>
-    <n v="2068"/>
-    <x v="70"/>
-    <n v="5.1499332849551719E-4"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="2012"/>
-    <n v="17"/>
-    <n v="0"/>
-    <n v="2068"/>
-    <n v="44"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Swift"/>
-    <n v="5490"/>
-    <n v="1826"/>
-    <x v="71"/>
-    <n v="4.4476696551885576E-4"/>
-    <x v="5"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1756"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1826"/>
-    <n v="38"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Todd"/>
-    <n v="13153"/>
-    <n v="501"/>
-    <x v="72"/>
-    <n v="1.8141810435637537E-3"/>
-    <x v="4"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="340"/>
-    <n v="92"/>
-    <n v="0"/>
-    <n v="501"/>
-    <n v="155"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Traverse"/>
-    <n v="1991"/>
-    <n v="888"/>
-    <x v="73"/>
-    <n v="2.4579227041831501E-4"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="864"/>
-    <n v="17"/>
-    <n v="0"/>
-    <n v="888"/>
-    <n v="21"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Wabasha"/>
-    <n v="13261"/>
-    <n v="1508"/>
-    <x v="74"/>
-    <n v="3.1601863339497647E-3"/>
-    <x v="6"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1243"/>
-    <n v="125"/>
-    <n v="0"/>
-    <n v="1508"/>
-    <n v="270"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Wadena"/>
-    <n v="7720"/>
-    <n v="555"/>
-    <x v="41"/>
-    <n v="1.6386151361221003E-3"/>
-    <x v="4"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="213"/>
-    <n v="62"/>
-    <n v="0"/>
-    <n v="555"/>
-    <n v="140"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Waseca"/>
-    <n v="10582"/>
-    <n v="388"/>
-    <x v="75"/>
-    <n v="1.4045272595332287E-3"/>
-    <x v="6"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="242"/>
-    <n v="67"/>
-    <n v="0"/>
-    <n v="388"/>
-    <n v="120"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Washington"/>
-    <n v="158540"/>
-    <n v="11673"/>
-    <x v="76"/>
-    <n v="5.5408600388585874E-2"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="8094"/>
-    <n v="2743"/>
-    <n v="0"/>
-    <n v="11673"/>
-    <n v="4734"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Watonwan"/>
-    <n v="5698"/>
-    <n v="2259"/>
-    <x v="77"/>
-    <n v="8.5442074954938084E-4"/>
-    <x v="6"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="2179"/>
-    <n v="29"/>
-    <n v="0"/>
-    <n v="2259"/>
-    <n v="73"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Wilkin"/>
-    <n v="3563"/>
-    <n v="1615"/>
-    <x v="78"/>
-    <n v="4.6817575317774292E-4"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1576"/>
-    <n v="26"/>
-    <n v="0"/>
-    <n v="1615"/>
-    <n v="40"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Winona"/>
-    <n v="27538"/>
-    <n v="1430"/>
-    <x v="23"/>
-    <n v="4.5764179873124368E-3"/>
-    <x v="6"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="994"/>
-    <n v="185"/>
-    <n v="0"/>
-    <n v="1430"/>
-    <n v="391"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Wright"/>
-    <n v="77528"/>
-    <n v="3605"/>
-    <x v="79"/>
-    <n v="1.3705845174278425E-2"/>
-    <x v="4"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="2539"/>
-    <n v="441"/>
-    <n v="0"/>
-    <n v="3605"/>
-    <n v="1171"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Yellow Medicine"/>
-    <n v="5851"/>
-    <n v="174"/>
-    <x v="80"/>
-    <n v="6.6715044827828367E-4"/>
-    <x v="5"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="104"/>
-    <n v="26"/>
-    <n v="0"/>
-    <n v="174"/>
-    <n v="57"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="TOTAL"/>
-    <n v="3246893"/>
-    <n v="319299"/>
-    <x v="81"/>
-    <n v="2.6313771350026008E-2"/>
-    <x v="8"/>
-    <n v="106061"/>
-    <n v="11353"/>
-    <n v="3.4965734934905464E-3"/>
-    <n v="0"/>
-    <n v="42552"/>
-    <n v="0"/>
-    <n v="319299"/>
-    <n v="85438"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2FCC94C2-964E-B149-8AFA-7ED8687754B7}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="27">
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="1" showAll="0">
-      <items count="83">
-        <item x="37"/>
-        <item x="36"/>
-        <item x="73"/>
-        <item x="42"/>
-        <item x="25"/>
-        <item x="47"/>
-        <item x="39"/>
-        <item x="71"/>
-        <item x="78"/>
-        <item x="70"/>
-        <item x="62"/>
-        <item x="80"/>
-        <item x="5"/>
-        <item x="49"/>
-        <item x="11"/>
-        <item x="15"/>
-        <item x="77"/>
-        <item x="60"/>
-        <item x="31"/>
-        <item x="67"/>
-        <item x="16"/>
-        <item x="14"/>
-        <item x="21"/>
-        <item x="32"/>
-        <item x="75"/>
-        <item x="63"/>
-        <item x="53"/>
-        <item x="19"/>
-        <item x="41"/>
-        <item x="59"/>
-        <item x="44"/>
-        <item x="27"/>
-        <item x="72"/>
-        <item x="35"/>
-        <item x="56"/>
-        <item x="4"/>
-        <item x="40"/>
-        <item x="55"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="50"/>
-        <item x="74"/>
-        <item x="45"/>
-        <item x="48"/>
-        <item x="22"/>
-        <item x="0"/>
-        <item x="58"/>
-        <item x="69"/>
-        <item x="46"/>
-        <item x="23"/>
-        <item x="29"/>
-        <item x="34"/>
-        <item x="54"/>
-        <item x="12"/>
-        <item x="33"/>
-        <item x="43"/>
-        <item x="24"/>
-        <item x="38"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="20"/>
-        <item x="61"/>
-        <item x="28"/>
-        <item x="52"/>
-        <item x="13"/>
-        <item x="66"/>
-        <item x="79"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="65"/>
-        <item x="6"/>
-        <item x="17"/>
-        <item x="68"/>
-        <item x="30"/>
-        <item x="51"/>
-        <item x="64"/>
-        <item x="1"/>
-        <item x="76"/>
-        <item x="18"/>
-        <item x="57"/>
-        <item x="26"/>
-        <item x="81"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item x="4"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item h="1" x="8"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="5"/>
-  </rowFields>
-  <rowItems count="9">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of total_ab" fld="3" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6140,363 +3214,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3959946-208A-0648-99C3-FA34EBA2C5C8}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="A3:C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B4">
-        <v>18001</v>
-      </c>
-      <c r="C4" s="1">
-        <f>B4/$B$14</f>
-        <v>9.0096447894613033E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B5">
-        <v>11354</v>
-      </c>
-      <c r="C5" s="1">
-        <f t="shared" ref="C5:C12" si="0">B5/$B$14</f>
-        <v>5.6827680095296727E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B6">
-        <v>25526</v>
-      </c>
-      <c r="C6" s="1">
-        <f t="shared" si="0"/>
-        <v>0.12775967607121227</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B7">
-        <v>58761</v>
-      </c>
-      <c r="C7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.29410351506779381</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B8">
-        <v>18403</v>
-      </c>
-      <c r="C8" s="1">
-        <f t="shared" si="0"/>
-        <v>9.210849011746923E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>134</v>
-      </c>
-      <c r="B9">
-        <v>12800</v>
-      </c>
-      <c r="C9" s="1">
-        <f t="shared" si="0"/>
-        <v>6.4065026001391412E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B10">
-        <v>26713</v>
-      </c>
-      <c r="C10" s="1">
-        <f t="shared" si="0"/>
-        <v>0.13370070621681007</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B11">
-        <v>27068</v>
-      </c>
-      <c r="C11" s="1">
-        <f t="shared" si="0"/>
-        <v>0.13547750967231739</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>137</v>
-      </c>
-      <c r="B12">
-        <v>1171</v>
-      </c>
-      <c r="C12" s="1">
-        <f t="shared" si="0"/>
-        <v>5.8609488630960421E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>121</v>
-      </c>
-      <c r="B14">
-        <f>SUM(B4:B12)</f>
-        <v>199797</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>141</v>
-      </c>
-      <c r="B17">
-        <f>SUM(B4:B7)</f>
-        <v>113642</v>
-      </c>
-      <c r="C17" s="1">
-        <f>B17/B14</f>
-        <v>0.56878731912891589</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>140</v>
-      </c>
-      <c r="B18">
-        <f>SUM(B8:B11)</f>
-        <v>84984</v>
-      </c>
-      <c r="C18" s="1">
-        <f>B18/B14</f>
-        <v>0.42535173200798809</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>160</v>
-      </c>
-      <c r="C25" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>129</v>
-      </c>
-      <c r="B26">
-        <v>246396</v>
-      </c>
-      <c r="C26" s="6">
-        <v>299</v>
-      </c>
-      <c r="D26" s="1">
-        <f t="shared" ref="D26:D34" si="1">B26/$B$36</f>
-        <v>8.4120898442167649E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>130</v>
-      </c>
-      <c r="B27">
-        <v>158522</v>
-      </c>
-      <c r="C27" s="6">
-        <v>200</v>
-      </c>
-      <c r="D27" s="1">
-        <f t="shared" si="1"/>
-        <v>5.4120249772111967E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>131</v>
-      </c>
-      <c r="B28">
-        <v>350110</v>
-      </c>
-      <c r="C28" s="6">
-        <v>414</v>
-      </c>
-      <c r="D28" s="1">
-        <f t="shared" si="1"/>
-        <v>0.11952940694486645</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>132</v>
-      </c>
-      <c r="B29">
-        <v>841976</v>
-      </c>
-      <c r="C29" s="6">
-        <v>821</v>
-      </c>
-      <c r="D29" s="1">
-        <f t="shared" si="1"/>
-        <v>0.28745506252837932</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>133</v>
-      </c>
-      <c r="B30">
-        <v>254454</v>
-      </c>
-      <c r="C30" s="6">
-        <v>323</v>
-      </c>
-      <c r="D30" s="1">
-        <f t="shared" si="1"/>
-        <v>8.6871942288849369E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>134</v>
-      </c>
-      <c r="B31">
-        <v>183600</v>
-      </c>
-      <c r="C31" s="6">
-        <v>260</v>
-      </c>
-      <c r="D31" s="1">
-        <f t="shared" si="1"/>
-        <v>6.2682011696545317E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>135</v>
-      </c>
-      <c r="B32">
-        <v>418437</v>
-      </c>
-      <c r="C32" s="6">
-        <v>616</v>
-      </c>
-      <c r="D32" s="1">
-        <f t="shared" si="1"/>
-        <v>0.14285660636311184</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>136</v>
-      </c>
-      <c r="B33">
-        <v>459999</v>
-      </c>
-      <c r="C33" s="6">
-        <v>1079</v>
-      </c>
-      <c r="D33" s="1">
-        <f t="shared" si="1"/>
-        <v>0.15704609312853568</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>137</v>
-      </c>
-      <c r="B34">
-        <v>15576</v>
-      </c>
-      <c r="C34" s="6">
-        <v>45</v>
-      </c>
-      <c r="D34" s="1">
-        <f t="shared" si="1"/>
-        <v>5.3177288354324071E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>162</v>
-      </c>
-      <c r="B36">
-        <f>SUM(B26:B34)</f>
-        <v>2929070</v>
-      </c>
-      <c r="C36">
-        <f>SUM(C26:C34)</f>
-        <v>4057</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A26:D34">
-    <sortCondition ref="A26:A34"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3959946-208A-0648-99C3-FA34EBA2C5C8}">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D4"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6531,6 +3253,9 @@
       <c r="D2">
         <v>19693</v>
       </c>
+      <c r="E2">
+        <v>11353</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -6545,6 +3270,9 @@
       <c r="D3">
         <v>35324</v>
       </c>
+      <c r="E3">
+        <v>31169</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -6558,6 +3286,20 @@
       </c>
       <c r="D4">
         <v>45298</v>
+      </c>
+      <c r="E4">
+        <v>42916</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>18641</v>
+      </c>
+      <c r="D5">
+        <v>98057</v>
+      </c>
+      <c r="E5">
+        <v>74222</v>
       </c>
     </row>
   </sheetData>
@@ -6565,7 +3307,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -6715,7 +3457,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:B80"/>
   <sheetViews>
@@ -7285,110 +4027,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB684CE3-0EAA-354D-948C-23546E57A1C9}">
-  <dimension ref="A3:B12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="A4:B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="35" t="s">
-        <v>494</v>
-      </c>
-      <c r="B3" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="B4" s="4">
-        <v>9716</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="B5" s="4">
-        <v>19467</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="B6" s="4">
-        <v>5502</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="B7" s="4">
-        <v>3572</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="B8" s="4">
-        <v>9397</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="B9" s="4">
-        <v>2291</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="B10" s="4">
-        <v>31965</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="B11" s="4">
-        <v>3528</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="B12" s="4">
-        <v>85438</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB4EA2C9-9ED6-A943-AB1C-F5E8A28BF868}">
   <dimension ref="A1:AA93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="A1:AA89"/>
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7488,14 +4131,14 @@
         <v>10041</v>
       </c>
       <c r="C2" s="21">
-        <v>1532</v>
+        <v>1802</v>
       </c>
       <c r="D2" s="23">
-        <v>338</v>
+        <v>772</v>
       </c>
       <c r="E2" s="19">
         <f>D2/$D$89</f>
-        <v>3.9560851143519279E-3</v>
+        <v>4.8352749592884877E-3</v>
       </c>
       <c r="F2" s="20" t="s">
         <v>371</v>
@@ -7529,10 +4172,10 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1802</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>772</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -7573,14 +4216,14 @@
         <v>206870</v>
       </c>
       <c r="C3" s="21">
-        <v>11886</v>
+        <v>15869</v>
       </c>
       <c r="D3" s="23">
-        <v>4684</v>
+        <v>8468</v>
       </c>
       <c r="E3" s="19">
         <f t="shared" ref="E3:E66" si="0">D3/$D$89</f>
-        <v>5.4823380697113698E-2</v>
+        <v>5.3037705123387201E-2</v>
       </c>
       <c r="F3" s="20" t="s">
         <v>350</v>
@@ -7614,10 +4257,10 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>15869</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>8468</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -7658,14 +4301,14 @@
         <v>19110</v>
       </c>
       <c r="C4" s="21">
-        <v>2274</v>
+        <v>2717</v>
       </c>
       <c r="D4" s="23">
-        <v>677</v>
+        <v>1195</v>
       </c>
       <c r="E4" s="19">
         <f t="shared" si="0"/>
-        <v>7.9238746225332984E-3</v>
+        <v>7.4846548916447453E-3</v>
       </c>
       <c r="F4" s="20" t="s">
         <v>370</v>
@@ -7699,10 +4342,10 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>2717</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1195</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -7743,14 +4386,14 @@
         <v>23932</v>
       </c>
       <c r="C5" s="21">
-        <v>3488</v>
+        <v>4105</v>
       </c>
       <c r="D5" s="23">
-        <v>638</v>
+        <v>1128</v>
       </c>
       <c r="E5" s="19">
         <f t="shared" si="0"/>
-        <v>7.4674032631849999E-3</v>
+        <v>7.0650131529500192E-3</v>
       </c>
       <c r="F5" s="20" t="s">
         <v>368</v>
@@ -7784,10 +4427,10 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>4105</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1128</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -7828,14 +4471,14 @@
         <v>22566</v>
       </c>
       <c r="C6" s="21">
-        <v>1707</v>
+        <v>2084</v>
       </c>
       <c r="D6" s="23">
-        <v>211</v>
+        <v>555</v>
       </c>
       <c r="E6" s="19">
         <f t="shared" si="0"/>
-        <v>2.469627098012594E-3</v>
+        <v>3.4761367906801953E-3</v>
       </c>
       <c r="F6" s="20" t="s">
         <v>367</v>
@@ -7869,10 +4512,10 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>2084</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>555</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -7913,14 +4556,14 @@
         <v>3043</v>
       </c>
       <c r="C7" s="21">
-        <v>1298</v>
+        <v>1353</v>
       </c>
       <c r="D7" s="23">
-        <v>58</v>
+        <v>342</v>
       </c>
       <c r="E7" s="19">
         <f t="shared" si="0"/>
-        <v>6.7885484210772719E-4</v>
+        <v>2.1420518602029313E-3</v>
       </c>
       <c r="F7" s="20" t="s">
         <v>369</v>
@@ -7954,10 +4597,10 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1353</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>342</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -7998,14 +4641,14 @@
         <v>36134</v>
       </c>
       <c r="C8" s="21">
-        <v>6181</v>
+        <v>6955</v>
       </c>
       <c r="D8" s="23">
-        <v>1678</v>
+        <v>2814</v>
       </c>
       <c r="E8" s="19">
         <f t="shared" si="0"/>
-        <v>1.9639972845806316E-2</v>
+        <v>1.7624953025178504E-2</v>
       </c>
       <c r="F8" s="20" t="s">
         <v>372</v>
@@ -8039,10 +4682,10 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>6955</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>2814</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -8083,14 +4726,14 @@
         <v>14880</v>
       </c>
       <c r="C9" s="21">
-        <v>3125</v>
+        <v>3443</v>
       </c>
       <c r="D9" s="23">
-        <v>236</v>
+        <v>519</v>
       </c>
       <c r="E9" s="19">
         <f t="shared" si="0"/>
-        <v>2.7622369437486833E-3</v>
+        <v>3.2506576475009397E-3</v>
       </c>
       <c r="F9" s="20" t="s">
         <v>372</v>
@@ -8124,10 +4767,10 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>3443</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>519</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -8168,14 +4811,14 @@
         <v>20458</v>
       </c>
       <c r="C10" s="21">
-        <v>3402</v>
+        <v>3874</v>
       </c>
       <c r="D10" s="23">
-        <v>246</v>
+        <v>442</v>
       </c>
       <c r="E10" s="19">
         <f t="shared" si="0"/>
-        <v>2.8792808820431188E-3</v>
+        <v>2.7683828134786423E-3</v>
       </c>
       <c r="F10" s="20" t="s">
         <v>371</v>
@@ -8209,10 +4852,10 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>3874</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>442</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -8253,14 +4896,14 @@
         <v>61854</v>
       </c>
       <c r="C11" s="21">
-        <v>4376</v>
+        <v>6052</v>
       </c>
       <c r="D11" s="23">
-        <v>1430</v>
+        <v>2806</v>
       </c>
       <c r="E11" s="19">
         <f t="shared" si="0"/>
-        <v>1.673728317610431E-2</v>
+        <v>1.7574846548916449E-2</v>
       </c>
       <c r="F11" s="20" t="s">
         <v>350</v>
@@ -8294,10 +4937,10 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>6052</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>2806</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -8338,14 +4981,14 @@
         <v>18117</v>
       </c>
       <c r="C12" s="21">
-        <v>6101</v>
+        <v>6510</v>
       </c>
       <c r="D12" s="23">
-        <v>1492</v>
+        <v>2575</v>
       </c>
       <c r="E12" s="19">
         <f t="shared" si="0"/>
-        <v>1.7462955593529811E-2</v>
+        <v>1.6128022046849554E-2</v>
       </c>
       <c r="F12" s="20" t="s">
         <v>367</v>
@@ -8379,10 +5022,10 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>6510</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>2575</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -8423,14 +5066,14 @@
         <v>6931</v>
       </c>
       <c r="C13" s="21">
-        <v>268</v>
+        <v>1650</v>
       </c>
       <c r="D13" s="23">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="E13" s="19">
         <f t="shared" si="0"/>
-        <v>7.8419438657271936E-4</v>
+        <v>9.5202304897908053E-4</v>
       </c>
       <c r="F13" s="20" t="s">
         <v>369</v>
@@ -8464,10 +5107,10 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -8508,14 +5151,14 @@
         <v>33544</v>
       </c>
       <c r="C14" s="21">
-        <v>1903</v>
+        <v>2728</v>
       </c>
       <c r="D14" s="23">
-        <v>478</v>
+        <v>1126</v>
       </c>
       <c r="E14" s="19">
         <f t="shared" si="0"/>
-        <v>5.594700250474028E-3</v>
+        <v>7.0524865338845045E-3</v>
       </c>
       <c r="F14" s="20" t="s">
         <v>367</v>
@@ -8549,10 +5192,10 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>2728</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>1126</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -8593,14 +5236,14 @@
         <v>32032</v>
       </c>
       <c r="C15" s="21">
-        <v>3849</v>
+        <v>4514</v>
       </c>
       <c r="D15" s="23">
-        <v>927</v>
+        <v>1694</v>
       </c>
       <c r="E15" s="19">
         <f t="shared" si="0"/>
-        <v>1.0849973079894193E-2</v>
+        <v>1.0610046348490542E-2</v>
       </c>
       <c r="F15" s="20" t="s">
         <v>370</v>
@@ -8634,10 +5277,10 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>4514</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>1694</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -8678,14 +5321,14 @@
         <v>4660</v>
       </c>
       <c r="C16" s="21">
-        <v>520</v>
+        <v>598</v>
       </c>
       <c r="D16" s="23">
-        <v>108</v>
+        <v>210</v>
       </c>
       <c r="E16" s="19">
         <f t="shared" si="0"/>
-        <v>1.264074533579906E-3</v>
+        <v>1.3152950018789928E-3</v>
       </c>
       <c r="F16" s="20" t="s">
         <v>368</v>
@@ -8719,10 +5362,10 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>598</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -8763,14 +5406,14 @@
         <v>3698</v>
       </c>
       <c r="C17" s="21">
-        <v>180</v>
+        <v>2914</v>
       </c>
       <c r="D17" s="23">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="E17" s="19">
         <f t="shared" si="0"/>
-        <v>8.0760317423160652E-4</v>
+        <v>7.8291369159463864E-4</v>
       </c>
       <c r="F17" s="20" t="s">
         <v>371</v>
@@ -8804,10 +5447,10 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>2914</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -8848,14 +5491,14 @@
         <v>6196</v>
       </c>
       <c r="C18" s="21">
-        <v>313</v>
+        <v>399</v>
       </c>
       <c r="D18" s="23">
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="E18" s="19">
         <f t="shared" si="0"/>
-        <v>1.2289613520915753E-3</v>
+        <v>1.0584993110359514E-3</v>
       </c>
       <c r="F18" s="20" t="s">
         <v>369</v>
@@ -8889,10 +5532,10 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>399</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -8933,14 +5576,14 @@
         <v>40109</v>
       </c>
       <c r="C19" s="21">
-        <v>5480</v>
+        <v>6413</v>
       </c>
       <c r="D19" s="23">
-        <v>1787</v>
+        <v>2728</v>
       </c>
       <c r="E19" s="19">
         <f t="shared" si="0"/>
-        <v>2.0915751773215665E-2</v>
+        <v>1.7086308405361392E-2</v>
       </c>
       <c r="F19" s="20" t="s">
         <v>367</v>
@@ -8974,10 +5617,10 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6413</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>2728</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -9018,14 +5661,14 @@
         <v>255313</v>
       </c>
       <c r="C20" s="21">
-        <v>21721</v>
+        <v>29108</v>
       </c>
       <c r="D20" s="23">
-        <v>7040</v>
+        <v>12642</v>
       </c>
       <c r="E20" s="19">
         <f t="shared" si="0"/>
-        <v>8.2398932559282753E-2</v>
+        <v>7.9180759113115368E-2</v>
       </c>
       <c r="F20" s="20" t="s">
         <v>350</v>
@@ -9059,10 +5702,10 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>29108</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>12642</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -9103,14 +5746,14 @@
         <v>11834</v>
       </c>
       <c r="C21" s="21">
-        <v>440</v>
+        <v>657</v>
       </c>
       <c r="D21" s="23">
-        <v>139</v>
+        <v>236</v>
       </c>
       <c r="E21" s="19">
         <f t="shared" si="0"/>
-        <v>1.6269107422926567E-3</v>
+        <v>1.4781410497306778E-3</v>
       </c>
       <c r="F21" s="20" t="s">
         <v>372</v>
@@ -9144,10 +5787,10 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>657</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -9188,14 +5831,14 @@
         <v>24578</v>
       </c>
       <c r="C22" s="21">
-        <v>1478</v>
+        <v>1979</v>
       </c>
       <c r="D22" s="23">
-        <v>731</v>
+        <v>1212</v>
       </c>
       <c r="E22" s="19">
         <f t="shared" si="0"/>
-        <v>8.5559118893232516E-3</v>
+        <v>7.5911311537016158E-3</v>
       </c>
       <c r="F22" s="20" t="s">
         <v>370</v>
@@ -9229,10 +5872,10 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>1979</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>1212</v>
       </c>
       <c r="R22">
         <v>0</v>
@@ -9273,14 +5916,14 @@
         <v>8089</v>
       </c>
       <c r="C23" s="21">
-        <v>432</v>
+        <v>578</v>
       </c>
       <c r="D23" s="23">
-        <v>116</v>
+        <v>251</v>
       </c>
       <c r="E23" s="19">
         <f t="shared" si="0"/>
-        <v>1.3577096842154544E-3</v>
+        <v>1.5720906927220344E-3</v>
       </c>
       <c r="F23" s="20" t="s">
         <v>372</v>
@@ -9314,10 +5957,10 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>578</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>251</v>
       </c>
       <c r="R23">
         <v>0</v>
@@ -9358,14 +6001,14 @@
         <v>12168</v>
       </c>
       <c r="C24" s="21">
-        <v>1836</v>
+        <v>1983</v>
       </c>
       <c r="D24" s="23">
-        <v>317</v>
+        <v>546</v>
       </c>
       <c r="E24" s="19">
         <f t="shared" si="0"/>
-        <v>3.7102928439336127E-3</v>
+        <v>3.4197670048853814E-3</v>
       </c>
       <c r="F24" s="20" t="s">
         <v>372</v>
@@ -9399,10 +6042,10 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>1983</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>546</v>
       </c>
       <c r="R24">
         <v>0</v>
@@ -9443,14 +6086,14 @@
         <v>17532</v>
       </c>
       <c r="C25" s="21">
-        <v>1446</v>
+        <v>1838</v>
       </c>
       <c r="D25" s="23">
-        <v>391</v>
+        <v>634</v>
       </c>
       <c r="E25" s="19">
         <f t="shared" si="0"/>
-        <v>4.5764179873124368E-3</v>
+        <v>3.9709382437680069E-3</v>
       </c>
       <c r="F25" s="20" t="s">
         <v>372</v>
@@ -9484,10 +6127,10 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>1838</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>634</v>
       </c>
       <c r="R25">
         <v>0</v>
@@ -9528,14 +6171,14 @@
         <v>28156</v>
       </c>
       <c r="C26" s="21">
-        <v>1740</v>
+        <v>2368</v>
       </c>
       <c r="D26" s="23">
-        <v>607</v>
+        <v>1207</v>
       </c>
       <c r="E26" s="19">
         <f t="shared" si="0"/>
-        <v>7.1045670544722488E-3</v>
+        <v>7.5598146060378308E-3</v>
       </c>
       <c r="F26" s="20" t="s">
         <v>372</v>
@@ -9569,10 +6212,10 @@
         <v>0</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>2368</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>1207</v>
       </c>
       <c r="R26">
         <v>0</v>
@@ -9613,14 +6256,14 @@
         <v>3819</v>
       </c>
       <c r="C27" s="21">
-        <v>2405</v>
+        <v>2478</v>
       </c>
       <c r="D27" s="23">
-        <v>26</v>
+        <v>338</v>
       </c>
       <c r="E27" s="19">
         <f t="shared" si="0"/>
-        <v>3.0431423956553291E-4</v>
+        <v>2.1169986220719028E-3</v>
       </c>
       <c r="F27" s="20" t="s">
         <v>370</v>
@@ -9654,10 +6297,10 @@
         <v>0</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>2478</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>338</v>
       </c>
       <c r="R27">
         <v>0</v>
@@ -9698,14 +6341,14 @@
         <v>744857</v>
       </c>
       <c r="C28" s="21">
-        <v>71233</v>
+        <v>94244</v>
       </c>
       <c r="D28" s="23">
-        <v>24432</v>
+        <v>43325</v>
       </c>
       <c r="E28" s="19">
         <f t="shared" si="0"/>
-        <v>0.28596175004096536</v>
+        <v>0.27135788550670176</v>
       </c>
       <c r="F28" s="20" t="s">
         <v>351</v>
@@ -9739,10 +6382,10 @@
         <v>0</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>94244</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>43325</v>
       </c>
       <c r="R28">
         <v>0</v>
@@ -9783,14 +6426,14 @@
         <v>11827</v>
       </c>
       <c r="C29" s="21">
-        <v>498</v>
+        <v>704</v>
       </c>
       <c r="D29" s="23">
-        <v>151</v>
+        <v>317</v>
       </c>
       <c r="E29" s="19">
         <f t="shared" si="0"/>
-        <v>1.7673634682459796E-3</v>
+        <v>1.9854691218840034E-3</v>
       </c>
       <c r="F29" s="20" t="s">
         <v>372</v>
@@ -9824,10 +6467,10 @@
         <v>0</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>704</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="R29">
         <v>0</v>
@@ -9868,14 +6511,14 @@
         <v>12762</v>
       </c>
       <c r="C30" s="21">
-        <v>2464</v>
+        <v>2743</v>
       </c>
       <c r="D30" s="23">
-        <v>745</v>
+        <v>1191</v>
       </c>
       <c r="E30" s="19">
         <f t="shared" si="0"/>
-        <v>8.7197734029354611E-3</v>
+        <v>7.4596016535137168E-3</v>
       </c>
       <c r="F30" s="20" t="s">
         <v>368</v>
@@ -9909,10 +6552,10 @@
         <v>0</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>2743</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>1191</v>
       </c>
       <c r="R30">
         <v>0</v>
@@ -9953,14 +6596,14 @@
         <v>23372</v>
       </c>
       <c r="C31" s="21">
-        <v>1176</v>
+        <v>1643</v>
       </c>
       <c r="D31" s="23">
-        <v>407</v>
+        <v>824</v>
       </c>
       <c r="E31" s="19">
         <f t="shared" si="0"/>
-        <v>4.7636882885835341E-3</v>
+        <v>5.1609670549918581E-3</v>
       </c>
       <c r="F31" s="20" t="s">
         <v>367</v>
@@ -9994,10 +6637,10 @@
         <v>0</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>1643</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>824</v>
       </c>
       <c r="R31">
         <v>0</v>
@@ -10038,14 +6681,14 @@
         <v>26727</v>
       </c>
       <c r="C32" s="21">
-        <v>8477</v>
+        <v>9083</v>
       </c>
       <c r="D32" s="23">
-        <v>2098</v>
+        <v>3674</v>
       </c>
       <c r="E32" s="19">
         <f t="shared" si="0"/>
-        <v>2.4555818254172617E-2</v>
+        <v>2.3011399223349618E-2</v>
       </c>
       <c r="F32" s="20" t="s">
         <v>371</v>
@@ -10079,10 +6722,10 @@
         <v>0</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>9083</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>3674</v>
       </c>
       <c r="R32">
         <v>0</v>
@@ -10123,14 +6766,14 @@
         <v>5915</v>
       </c>
       <c r="C33" s="21">
-        <v>1451</v>
+        <v>1547</v>
       </c>
       <c r="D33" s="23">
-        <v>95</v>
+        <v>299</v>
       </c>
       <c r="E33" s="19">
         <f t="shared" si="0"/>
-        <v>1.1119174137971394E-3</v>
+        <v>1.8727295502943754E-3</v>
       </c>
       <c r="F33" s="20" t="s">
         <v>369</v>
@@ -10164,10 +6807,10 @@
         <v>0</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>1547</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="R33">
         <v>0</v>
@@ -10208,14 +6851,14 @@
         <v>9419</v>
       </c>
       <c r="C34" s="21">
-        <v>366</v>
+        <v>573</v>
       </c>
       <c r="D34" s="23">
-        <v>119</v>
+        <v>319</v>
       </c>
       <c r="E34" s="19">
         <f t="shared" si="0"/>
-        <v>1.3928228657037853E-3</v>
+        <v>1.9979957409495177E-3</v>
       </c>
       <c r="F34" s="20" t="s">
         <v>367</v>
@@ -10249,10 +6892,10 @@
         <v>0</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>573</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>319</v>
       </c>
       <c r="R34">
         <v>0</v>
@@ -10293,14 +6936,14 @@
         <v>23901</v>
       </c>
       <c r="C35" s="21">
-        <v>1436</v>
+        <v>2230</v>
       </c>
       <c r="D35" s="23">
-        <v>531</v>
+        <v>973</v>
       </c>
       <c r="E35" s="19">
         <f t="shared" si="0"/>
-        <v>6.2150331234345369E-3</v>
+        <v>6.094200175372667E-3</v>
       </c>
       <c r="F35" s="20" t="s">
         <v>369</v>
@@ -10334,10 +6977,10 @@
         <v>0</v>
       </c>
       <c r="P35">
-        <v>0</v>
+        <v>2230</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>973</v>
       </c>
       <c r="R35">
         <v>0</v>
@@ -10378,14 +7021,14 @@
         <v>2650</v>
       </c>
       <c r="C36" s="21">
-        <v>1787</v>
+        <v>1829</v>
       </c>
       <c r="D36" s="23">
-        <v>414</v>
+        <v>689</v>
       </c>
       <c r="E36" s="19">
         <f t="shared" si="0"/>
-        <v>4.8456190453896389E-3</v>
+        <v>4.3154202680696476E-3</v>
       </c>
       <c r="F36" s="20" t="s">
         <v>368</v>
@@ -10419,10 +7062,10 @@
         <v>0</v>
       </c>
       <c r="P36">
-        <v>0</v>
+        <v>1829</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>689</v>
       </c>
       <c r="R36">
         <v>0</v>
@@ -10463,14 +7106,14 @@
         <v>7088</v>
       </c>
       <c r="C37" s="21">
-        <v>2212</v>
+        <v>2414</v>
       </c>
       <c r="D37" s="23">
-        <v>201</v>
+        <v>626</v>
       </c>
       <c r="E37" s="19">
         <f t="shared" si="0"/>
-        <v>2.3525831597181581E-3</v>
+        <v>3.9208317675059499E-3</v>
       </c>
       <c r="F37" s="20" t="s">
         <v>371</v>
@@ -10504,10 +7147,10 @@
         <v>0</v>
       </c>
       <c r="P37">
-        <v>0</v>
+        <v>2414</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>626</v>
       </c>
       <c r="R37">
         <v>0</v>
@@ -10548,14 +7191,14 @@
         <v>4160</v>
       </c>
       <c r="C38" s="21">
-        <v>1211</v>
+        <v>1279</v>
       </c>
       <c r="D38" s="23">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E38" s="19">
         <f t="shared" si="0"/>
-        <v>1.5215711978276646E-4</v>
+        <v>2.2547914317925591E-4</v>
       </c>
       <c r="F38" s="20" t="s">
         <v>369</v>
@@ -10589,10 +7232,10 @@
         <v>0</v>
       </c>
       <c r="P38">
-        <v>0</v>
+        <v>1279</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="R38">
         <v>0</v>
@@ -10633,14 +7276,14 @@
         <v>7038</v>
       </c>
       <c r="C39" s="21">
-        <v>869</v>
+        <v>1016</v>
       </c>
       <c r="D39" s="23">
-        <v>211</v>
+        <v>433</v>
       </c>
       <c r="E39" s="19">
         <f t="shared" si="0"/>
-        <v>2.469627098012594E-3</v>
+        <v>2.712013027683828E-3</v>
       </c>
       <c r="F39" s="20" t="s">
         <v>371</v>
@@ -10674,10 +7317,10 @@
         <v>0</v>
       </c>
       <c r="P39">
-        <v>0</v>
+        <v>1016</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>433</v>
       </c>
       <c r="R39">
         <v>0</v>
@@ -10718,14 +7361,14 @@
         <v>2404</v>
       </c>
       <c r="C40" s="21">
-        <v>47</v>
+        <v>1902</v>
       </c>
       <c r="D40" s="23">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E40" s="19">
         <f t="shared" si="0"/>
-        <v>2.3408787658887146E-5</v>
+        <v>1.1900288112238507E-4</v>
       </c>
       <c r="F40" s="20" t="s">
         <v>368</v>
@@ -10759,10 +7402,10 @@
         <v>0</v>
       </c>
       <c r="P40">
-        <v>0</v>
+        <v>1902</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="R40">
         <v>0</v>
@@ -10803,14 +7446,14 @@
         <v>16733</v>
       </c>
       <c r="C41" s="21">
-        <v>3704</v>
+        <v>3936</v>
       </c>
       <c r="D41" s="23">
-        <v>630</v>
+        <v>1191</v>
       </c>
       <c r="E41" s="19">
         <f t="shared" si="0"/>
-        <v>7.3737681125494508E-3</v>
+        <v>7.4596016535137168E-3</v>
       </c>
       <c r="F41" s="20" t="s">
         <v>372</v>
@@ -10844,10 +7487,10 @@
         <v>0</v>
       </c>
       <c r="P41">
-        <v>0</v>
+        <v>3936</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>1191</v>
       </c>
       <c r="R41">
         <v>0</v>
@@ -10888,14 +7531,14 @@
         <v>3410</v>
       </c>
       <c r="C42" s="21">
-        <v>104</v>
+        <v>164</v>
       </c>
       <c r="D42" s="23">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="E42" s="19">
         <f t="shared" si="0"/>
-        <v>4.0965378403052508E-4</v>
+        <v>3.4448202430164101E-4</v>
       </c>
       <c r="F42" s="20" t="s">
         <v>369</v>
@@ -10929,10 +7572,10 @@
         <v>0</v>
       </c>
       <c r="P42">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="Q42">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="R42">
         <v>0</v>
@@ -10973,14 +7616,14 @@
         <v>13570</v>
       </c>
       <c r="C43" s="21">
-        <v>2951</v>
+        <v>3205</v>
       </c>
       <c r="D43" s="23">
-        <v>229</v>
+        <v>691</v>
       </c>
       <c r="E43" s="19">
         <f t="shared" si="0"/>
-        <v>2.6803061869425781E-3</v>
+        <v>4.3279468871351623E-3</v>
       </c>
       <c r="F43" s="20" t="s">
         <v>369</v>
@@ -11014,10 +7657,10 @@
         <v>0</v>
       </c>
       <c r="P43">
-        <v>0</v>
+        <v>3205</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>691</v>
       </c>
       <c r="R43">
         <v>0</v>
@@ -11058,14 +7701,14 @@
         <v>20858</v>
       </c>
       <c r="C44" s="21">
-        <v>1147</v>
+        <v>1443</v>
       </c>
       <c r="D44" s="23">
-        <v>140</v>
+        <v>499</v>
       </c>
       <c r="E44" s="19">
         <f t="shared" si="0"/>
-        <v>1.6386151361221003E-3</v>
+        <v>3.1253914568457972E-3</v>
       </c>
       <c r="F44" s="20" t="s">
         <v>369</v>
@@ -11099,10 +7742,10 @@
         <v>0</v>
       </c>
       <c r="P44">
-        <v>0</v>
+        <v>1443</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>499</v>
       </c>
       <c r="R44">
         <v>0</v>
@@ -11143,14 +7786,14 @@
         <v>2468</v>
       </c>
       <c r="C45" s="21">
-        <v>1071</v>
+        <v>1104</v>
       </c>
       <c r="D45" s="23">
-        <v>22</v>
+        <v>308</v>
       </c>
       <c r="E45" s="19">
         <f t="shared" si="0"/>
-        <v>2.5749666424775859E-4</v>
+        <v>1.9290993360891896E-3</v>
       </c>
       <c r="F45" s="20" t="s">
         <v>368</v>
@@ -11184,10 +7827,10 @@
         <v>0</v>
       </c>
       <c r="P45">
-        <v>0</v>
+        <v>1104</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="R45">
         <v>0</v>
@@ -11228,14 +7871,14 @@
         <v>5340</v>
       </c>
       <c r="C46" s="21">
-        <v>3524</v>
+        <v>3579</v>
       </c>
       <c r="D46" s="23">
-        <v>575</v>
+        <v>1098</v>
       </c>
       <c r="E46" s="19">
         <f t="shared" si="0"/>
-        <v>6.7300264519300542E-3</v>
+        <v>6.8771138669673059E-3</v>
       </c>
       <c r="F46" s="20" t="s">
         <v>368</v>
@@ -11269,10 +7912,10 @@
         <v>0</v>
       </c>
       <c r="P46">
-        <v>0</v>
+        <v>3579</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>1098</v>
       </c>
       <c r="R46">
         <v>0</v>
@@ -11313,14 +7956,14 @@
         <v>11517</v>
       </c>
       <c r="C47" s="21">
-        <v>472</v>
+        <v>846</v>
       </c>
       <c r="D47" s="23">
-        <v>150</v>
+        <v>298</v>
       </c>
       <c r="E47" s="19">
         <f t="shared" si="0"/>
-        <v>1.755659074416536E-3</v>
+        <v>1.8664662407616185E-3</v>
       </c>
       <c r="F47" s="20" t="s">
         <v>372</v>
@@ -11354,10 +7997,10 @@
         <v>0</v>
       </c>
       <c r="P47">
-        <v>0</v>
+        <v>846</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>298</v>
       </c>
       <c r="R47">
         <v>0</v>
@@ -11398,14 +8041,14 @@
         <v>13520</v>
       </c>
       <c r="C48" s="21">
-        <v>1516</v>
+        <v>1697</v>
       </c>
       <c r="D48" s="23">
-        <v>292</v>
+        <v>586</v>
       </c>
       <c r="E48" s="19">
         <f t="shared" si="0"/>
-        <v>3.4176829981975233E-3</v>
+        <v>3.6702993861956659E-3</v>
       </c>
       <c r="F48" s="20" t="s">
         <v>369</v>
@@ -11439,10 +8082,10 @@
         <v>0</v>
       </c>
       <c r="P48">
-        <v>0</v>
+        <v>1697</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>586</v>
       </c>
       <c r="R48">
         <v>0</v>
@@ -11483,14 +8126,14 @@
         <v>14701</v>
       </c>
       <c r="C49" s="21">
-        <v>1224</v>
+        <v>1491</v>
       </c>
       <c r="D49" s="23">
-        <v>357</v>
+        <v>558</v>
       </c>
       <c r="E49" s="19">
         <f t="shared" si="0"/>
-        <v>4.1784685971113554E-3</v>
+        <v>3.4949267192784668E-3</v>
       </c>
       <c r="F49" s="20" t="s">
         <v>367</v>
@@ -11524,10 +8167,10 @@
         <v>0</v>
       </c>
       <c r="P49">
-        <v>0</v>
+        <v>1491</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>558</v>
       </c>
       <c r="R49">
         <v>0</v>
@@ -11568,14 +8211,14 @@
         <v>19803</v>
       </c>
       <c r="C50" s="21">
-        <v>2519</v>
+        <v>4105</v>
       </c>
       <c r="D50" s="23">
-        <v>32</v>
+        <v>209</v>
       </c>
       <c r="E50" s="19">
         <f t="shared" si="0"/>
-        <v>3.7454060254219434E-4</v>
+        <v>1.3090316923462357E-3</v>
       </c>
       <c r="F50" s="20" t="s">
         <v>367</v>
@@ -11609,10 +8252,10 @@
         <v>0</v>
       </c>
       <c r="P50">
-        <v>0</v>
+        <v>4105</v>
       </c>
       <c r="Q50">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="R50">
         <v>0</v>
@@ -11653,14 +8296,14 @@
         <v>19605</v>
       </c>
       <c r="C51" s="21">
-        <v>3231</v>
+        <v>3673</v>
       </c>
       <c r="D51" s="23">
-        <v>296</v>
+        <v>1015</v>
       </c>
       <c r="E51" s="19">
         <f t="shared" si="0"/>
-        <v>3.4645005735152975E-3</v>
+        <v>6.3572591757484658E-3</v>
       </c>
       <c r="F51" s="20" t="s">
         <v>372</v>
@@ -11694,10 +8337,10 @@
         <v>0</v>
       </c>
       <c r="P51">
-        <v>0</v>
+        <v>3673</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>1015</v>
       </c>
       <c r="R51">
         <v>0</v>
@@ -11738,14 +8381,14 @@
         <v>5103</v>
       </c>
       <c r="C52" s="21">
-        <v>1802</v>
+        <v>1868</v>
       </c>
       <c r="D52" s="23">
-        <v>61</v>
+        <v>250</v>
       </c>
       <c r="E52" s="19">
         <f t="shared" si="0"/>
-        <v>7.1396802359605799E-4</v>
+        <v>1.5658273831892773E-3</v>
       </c>
       <c r="F52" s="20" t="s">
         <v>369</v>
@@ -11779,10 +8422,10 @@
         <v>0</v>
       </c>
       <c r="P52">
-        <v>0</v>
+        <v>1868</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="R52">
         <v>0</v>
@@ -11823,14 +8466,14 @@
         <v>19500</v>
       </c>
       <c r="C53" s="21">
-        <v>3447</v>
+        <v>3779</v>
       </c>
       <c r="D53" s="23">
-        <v>391</v>
+        <v>1052</v>
       </c>
       <c r="E53" s="19">
         <f t="shared" si="0"/>
-        <v>4.5764179873124368E-3</v>
+        <v>6.5890016284604787E-3</v>
       </c>
       <c r="F53" s="20" t="s">
         <v>372</v>
@@ -11864,10 +8507,10 @@
         <v>0</v>
       </c>
       <c r="P53">
-        <v>0</v>
+        <v>3779</v>
       </c>
       <c r="Q53">
-        <v>0</v>
+        <v>1052</v>
       </c>
       <c r="R53">
         <v>0</v>
@@ -11908,14 +8551,14 @@
         <v>9633</v>
       </c>
       <c r="C54" s="21">
-        <v>1799</v>
+        <v>1996</v>
       </c>
       <c r="D54" s="23">
-        <v>260</v>
+        <v>575</v>
       </c>
       <c r="E54" s="19">
         <f t="shared" si="0"/>
-        <v>3.0431423956553288E-3</v>
+        <v>3.6014029813353377E-3</v>
       </c>
       <c r="F54" s="20" t="s">
         <v>369</v>
@@ -11949,10 +8592,10 @@
         <v>0</v>
       </c>
       <c r="P54">
-        <v>0</v>
+        <v>1996</v>
       </c>
       <c r="Q54">
-        <v>0</v>
+        <v>575</v>
       </c>
       <c r="R54">
         <v>0</v>
@@ -11993,14 +8636,14 @@
         <v>3573</v>
       </c>
       <c r="C55" s="21">
-        <v>1756</v>
+        <v>1814</v>
       </c>
       <c r="D55" s="23">
-        <v>211</v>
+        <v>507</v>
       </c>
       <c r="E55" s="19">
         <f t="shared" si="0"/>
-        <v>2.469627098012594E-3</v>
+        <v>3.1754979331078542E-3</v>
       </c>
       <c r="F55" s="20" t="s">
         <v>368</v>
@@ -12034,10 +8677,10 @@
         <v>0</v>
       </c>
       <c r="P55">
-        <v>0</v>
+        <v>1814</v>
       </c>
       <c r="Q55">
-        <v>0</v>
+        <v>507</v>
       </c>
       <c r="R55">
         <v>0</v>
@@ -12078,14 +8721,14 @@
         <v>88682</v>
       </c>
       <c r="C56" s="21">
-        <v>7060</v>
+        <v>10111</v>
       </c>
       <c r="D56" s="23">
-        <v>2258</v>
+        <v>4523</v>
       </c>
       <c r="E56" s="19">
         <f t="shared" si="0"/>
-        <v>2.6428521266883588E-2</v>
+        <v>2.8328949016660405E-2</v>
       </c>
       <c r="F56" s="20" t="s">
         <v>372</v>
@@ -12119,10 +8762,10 @@
         <v>0</v>
       </c>
       <c r="P56">
-        <v>0</v>
+        <v>10111</v>
       </c>
       <c r="Q56">
-        <v>0</v>
+        <v>4523</v>
       </c>
       <c r="R56">
         <v>0</v>
@@ -12163,14 +8806,14 @@
         <v>35826</v>
       </c>
       <c r="C57" s="21">
-        <v>2068</v>
+        <v>3086</v>
       </c>
       <c r="D57" s="23">
-        <v>857</v>
+        <v>1369</v>
       </c>
       <c r="E57" s="19">
         <f t="shared" si="0"/>
-        <v>1.0030665511833143E-2</v>
+        <v>8.5744707503444817E-3</v>
       </c>
       <c r="F57" s="20" t="s">
         <v>370</v>
@@ -12204,10 +8847,10 @@
         <v>0</v>
       </c>
       <c r="P57">
-        <v>0</v>
+        <v>3086</v>
       </c>
       <c r="Q57">
-        <v>0</v>
+        <v>1369</v>
       </c>
       <c r="R57">
         <v>0</v>
@@ -12248,14 +8891,14 @@
         <v>7457</v>
       </c>
       <c r="C58" s="21">
-        <v>625</v>
+        <v>726</v>
       </c>
       <c r="D58" s="23">
-        <v>138</v>
+        <v>275</v>
       </c>
       <c r="E58" s="19">
         <f t="shared" si="0"/>
-        <v>1.615206348463213E-3</v>
+        <v>1.7224101215082049E-3</v>
       </c>
       <c r="F58" s="20" t="s">
         <v>368</v>
@@ -12289,10 +8932,10 @@
         <v>0</v>
       </c>
       <c r="P58">
-        <v>0</v>
+        <v>726</v>
       </c>
       <c r="Q58">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="R58">
         <v>0</v>
@@ -12333,14 +8976,14 @@
         <v>15655</v>
       </c>
       <c r="C59" s="21">
-        <v>1498</v>
+        <v>1741</v>
       </c>
       <c r="D59" s="23">
-        <v>457</v>
+        <v>776</v>
       </c>
       <c r="E59" s="19">
         <f t="shared" si="0"/>
-        <v>5.3489079800557128E-3</v>
+        <v>4.8603281974195162E-3</v>
       </c>
       <c r="F59" s="20" t="s">
         <v>367</v>
@@ -12374,10 +9017,10 @@
         <v>0</v>
       </c>
       <c r="P59">
-        <v>0</v>
+        <v>1741</v>
       </c>
       <c r="Q59">
-        <v>0</v>
+        <v>776</v>
       </c>
       <c r="R59">
         <v>0</v>
@@ -12418,14 +9061,14 @@
         <v>5257</v>
       </c>
       <c r="C60" s="21">
-        <v>2075</v>
+        <v>2163</v>
       </c>
       <c r="D60" s="23">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="E60" s="19">
         <f t="shared" si="0"/>
-        <v>4.0965378403052508E-4</v>
+        <v>3.8206188149818364E-4</v>
       </c>
       <c r="F60" s="20" t="s">
         <v>369</v>
@@ -12459,10 +9102,10 @@
         <v>0</v>
       </c>
       <c r="P60">
-        <v>0</v>
+        <v>2163</v>
       </c>
       <c r="Q60">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="R60">
         <v>0</v>
@@ -12503,14 +9146,14 @@
         <v>16519</v>
       </c>
       <c r="C61" s="21">
-        <v>5484</v>
+        <v>5767</v>
       </c>
       <c r="D61" s="23">
-        <v>232</v>
+        <v>1275</v>
       </c>
       <c r="E61" s="19">
         <f t="shared" si="0"/>
-        <v>2.7154193684309088E-3</v>
+        <v>7.9857196542653143E-3</v>
       </c>
       <c r="F61" s="20" t="s">
         <v>368</v>
@@ -12544,10 +9187,10 @@
         <v>0</v>
       </c>
       <c r="P61">
-        <v>0</v>
+        <v>5767</v>
       </c>
       <c r="Q61">
-        <v>0</v>
+        <v>1275</v>
       </c>
       <c r="R61">
         <v>0</v>
@@ -12588,14 +9231,14 @@
         <v>6877</v>
       </c>
       <c r="C62" s="21">
-        <v>944</v>
+        <v>1107</v>
       </c>
       <c r="D62" s="23">
-        <v>205</v>
+        <v>380</v>
       </c>
       <c r="E62" s="19">
         <f t="shared" si="0"/>
-        <v>2.3994007350359326E-3</v>
+        <v>2.3800576224477015E-3</v>
       </c>
       <c r="F62" s="20" t="s">
         <v>370</v>
@@ -12629,10 +9272,10 @@
         <v>0</v>
       </c>
       <c r="P62">
-        <v>0</v>
+        <v>1107</v>
       </c>
       <c r="Q62">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="R62">
         <v>0</v>
@@ -12673,14 +9316,14 @@
         <v>301541</v>
       </c>
       <c r="C63" s="21">
-        <v>22516</v>
+        <v>29400</v>
       </c>
       <c r="D63" s="23">
-        <v>7533</v>
+        <v>12679</v>
       </c>
       <c r="E63" s="19">
         <f t="shared" si="0"/>
-        <v>8.816919871719843E-2</v>
+        <v>7.9412501565827381E-2</v>
       </c>
       <c r="F63" s="20" t="s">
         <v>351</v>
@@ -12714,10 +9357,10 @@
         <v>0</v>
       </c>
       <c r="P63">
-        <v>0</v>
+        <v>29400</v>
       </c>
       <c r="Q63">
-        <v>0</v>
+        <v>12679</v>
       </c>
       <c r="R63">
         <v>0</v>
@@ -12758,14 +9401,14 @@
         <v>2068</v>
       </c>
       <c r="C64" s="21">
-        <v>1204</v>
+        <v>1224</v>
       </c>
       <c r="D64" s="23">
-        <v>352</v>
+        <v>510</v>
       </c>
       <c r="E64" s="19">
         <f t="shared" si="0"/>
-        <v>4.1199466279641375E-3</v>
+        <v>3.1942878617061254E-3</v>
       </c>
       <c r="F64" s="20" t="s">
         <v>368</v>
@@ -12799,10 +9442,10 @@
         <v>0</v>
       </c>
       <c r="P64">
-        <v>0</v>
+        <v>1224</v>
       </c>
       <c r="Q64">
-        <v>0</v>
+        <v>510</v>
       </c>
       <c r="R64">
         <v>0</v>
@@ -12843,14 +9486,14 @@
         <v>9064</v>
       </c>
       <c r="C65" s="21">
-        <v>291</v>
+        <v>399</v>
       </c>
       <c r="D65" s="23">
-        <v>142</v>
+        <v>234</v>
       </c>
       <c r="E65" s="19">
         <f t="shared" si="0"/>
-        <v>1.6620239237809874E-3</v>
+        <v>1.4656144306651635E-3</v>
       </c>
       <c r="F65" s="20" t="s">
         <v>369</v>
@@ -12884,10 +9527,10 @@
         <v>0</v>
       </c>
       <c r="P65">
-        <v>0</v>
+        <v>399</v>
       </c>
       <c r="Q65">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="R65">
         <v>0</v>
@@ -12928,14 +9571,14 @@
         <v>8548</v>
       </c>
       <c r="C66" s="21">
-        <v>254</v>
+        <v>344</v>
       </c>
       <c r="D66" s="23">
-        <v>86</v>
+        <v>162</v>
       </c>
       <c r="E66" s="19">
         <f t="shared" si="0"/>
-        <v>1.0065778693321473E-3</v>
+        <v>1.0146561443066515E-3</v>
       </c>
       <c r="F66" s="20" t="s">
         <v>369</v>
@@ -12969,10 +9612,10 @@
         <v>0</v>
       </c>
       <c r="P66">
-        <v>0</v>
+        <v>344</v>
       </c>
       <c r="Q66">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="R66">
         <v>0</v>
@@ -13013,14 +9656,14 @@
         <v>35838</v>
       </c>
       <c r="C67" s="21">
-        <v>2405</v>
+        <v>3270</v>
       </c>
       <c r="D67" s="23">
-        <v>732</v>
+        <v>1458</v>
       </c>
       <c r="E67" s="19">
         <f t="shared" ref="E67:E88" si="2">D67/$D$89</f>
-        <v>8.5676162831526959E-3</v>
+        <v>9.131905298759865E-3</v>
       </c>
       <c r="F67" s="20" t="s">
         <v>372</v>
@@ -13054,10 +9697,10 @@
         <v>0</v>
       </c>
       <c r="P67">
-        <v>0</v>
+        <v>3270</v>
       </c>
       <c r="Q67">
-        <v>0</v>
+        <v>1458</v>
       </c>
       <c r="R67">
         <v>0</v>
@@ -13098,14 +9741,14 @@
         <v>5164</v>
       </c>
       <c r="C68" s="21">
-        <v>2127</v>
+        <v>2196</v>
       </c>
       <c r="D68" s="23">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="E68" s="19">
         <f t="shared" si="2"/>
-        <v>5.5010650998384798E-4</v>
+        <v>6.0754102467743952E-4</v>
       </c>
       <c r="F68" s="20" t="s">
         <v>369</v>
@@ -13139,10 +9782,10 @@
         <v>0</v>
       </c>
       <c r="P68">
-        <v>0</v>
+        <v>2196</v>
       </c>
       <c r="Q68">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="R68">
         <v>0</v>
@@ -13183,14 +9826,14 @@
         <v>8723</v>
       </c>
       <c r="C69" s="21">
-        <v>2662</v>
+        <v>2808</v>
       </c>
       <c r="D69" s="23">
-        <v>135</v>
+        <v>439</v>
       </c>
       <c r="E69" s="19">
         <f t="shared" si="2"/>
-        <v>1.5800931669748824E-3</v>
+        <v>2.7495928848803707E-3</v>
       </c>
       <c r="F69" s="20" t="s">
         <v>368</v>
@@ -13224,10 +9867,10 @@
         <v>0</v>
       </c>
       <c r="P69">
-        <v>0</v>
+        <v>2808</v>
       </c>
       <c r="Q69">
-        <v>0</v>
+        <v>439</v>
       </c>
       <c r="R69">
         <v>0</v>
@@ -13268,14 +9911,14 @@
         <v>121806</v>
       </c>
       <c r="C70" s="21">
-        <v>9108</v>
+        <v>11783</v>
       </c>
       <c r="D70" s="23">
-        <v>2339</v>
+        <v>4600</v>
       </c>
       <c r="E70" s="19">
         <f t="shared" si="2"/>
-        <v>2.7376577167068518E-2</v>
+        <v>2.8811223850682702E-2</v>
       </c>
       <c r="F70" s="20" t="s">
         <v>371</v>
@@ -13309,10 +9952,10 @@
         <v>0</v>
       </c>
       <c r="P70">
-        <v>0</v>
+        <v>11783</v>
       </c>
       <c r="Q70">
-        <v>0</v>
+        <v>4600</v>
       </c>
       <c r="R70">
         <v>0</v>
@@ -13353,14 +9996,14 @@
         <v>83212</v>
       </c>
       <c r="C71" s="21">
-        <v>5363</v>
+        <v>7191</v>
       </c>
       <c r="D71" s="23">
-        <v>1579</v>
+        <v>3121</v>
       </c>
       <c r="E71" s="19">
         <f t="shared" si="2"/>
-        <v>1.8481237856691403E-2</v>
+        <v>1.9547789051734935E-2</v>
       </c>
       <c r="F71" s="20" t="s">
         <v>350</v>
@@ -13394,10 +10037,10 @@
         <v>0</v>
       </c>
       <c r="P71">
-        <v>0</v>
+        <v>7191</v>
       </c>
       <c r="Q71">
-        <v>0</v>
+        <v>3121</v>
       </c>
       <c r="R71">
         <v>0</v>
@@ -13438,14 +10081,14 @@
         <v>54646</v>
       </c>
       <c r="C72" s="21">
-        <v>2459</v>
+        <v>3459</v>
       </c>
       <c r="D72" s="23">
-        <v>1057</v>
+        <v>1847</v>
       </c>
       <c r="E72" s="19">
         <f t="shared" si="2"/>
-        <v>1.2371544277721858E-2</v>
+        <v>1.1568332707002381E-2</v>
       </c>
       <c r="F72" s="20" t="s">
         <v>367</v>
@@ -13479,10 +10122,10 @@
         <v>0</v>
       </c>
       <c r="P72">
-        <v>0</v>
+        <v>3459</v>
       </c>
       <c r="Q72">
-        <v>0</v>
+        <v>1847</v>
       </c>
       <c r="R72">
         <v>0</v>
@@ -13523,14 +10166,14 @@
         <v>8651</v>
       </c>
       <c r="C73" s="21">
-        <v>390</v>
+        <v>498</v>
       </c>
       <c r="D73" s="23">
-        <v>98</v>
+        <v>194</v>
       </c>
       <c r="E73" s="19">
         <f t="shared" si="2"/>
-        <v>1.1470305952854701E-3</v>
+        <v>1.215082049354879E-3</v>
       </c>
       <c r="F73" s="20" t="s">
         <v>372</v>
@@ -13564,10 +10207,10 @@
         <v>0</v>
       </c>
       <c r="P73">
-        <v>0</v>
+        <v>498</v>
       </c>
       <c r="Q73">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="R73">
         <v>0</v>
@@ -13608,14 +10251,14 @@
         <v>86797</v>
       </c>
       <c r="C74" s="21">
-        <v>8530</v>
+        <v>9984</v>
       </c>
       <c r="D74" s="23">
-        <v>1853</v>
+        <v>3729</v>
       </c>
       <c r="E74" s="19">
         <f t="shared" si="2"/>
-        <v>2.1688241765958943E-2</v>
+        <v>2.3355881247651259E-2</v>
       </c>
       <c r="F74" s="20" t="s">
         <v>367</v>
@@ -13649,10 +10292,10 @@
         <v>0</v>
       </c>
       <c r="P74">
-        <v>0</v>
+        <v>9984</v>
       </c>
       <c r="Q74">
-        <v>0</v>
+        <v>3729</v>
       </c>
       <c r="R74">
         <v>0</v>
@@ -13693,14 +10336,14 @@
         <v>20929</v>
       </c>
       <c r="C75" s="21">
-        <v>871</v>
+        <v>1302</v>
       </c>
       <c r="D75" s="23">
-        <v>353</v>
+        <v>623</v>
       </c>
       <c r="E75" s="19">
         <f t="shared" si="2"/>
-        <v>4.1316510217935809E-3</v>
+        <v>3.9020418389076788E-3</v>
       </c>
       <c r="F75" s="20" t="s">
         <v>372</v>
@@ -13734,10 +10377,10 @@
         <v>0</v>
       </c>
       <c r="P75">
-        <v>0</v>
+        <v>1302</v>
       </c>
       <c r="Q75">
-        <v>0</v>
+        <v>623</v>
       </c>
       <c r="R75">
         <v>0</v>
@@ -13778,14 +10421,14 @@
         <v>5600</v>
       </c>
       <c r="C76" s="21">
-        <v>2068</v>
+        <v>2139</v>
       </c>
       <c r="D76" s="23">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="E76" s="19">
         <f t="shared" si="2"/>
-        <v>5.1499332849551719E-4</v>
+        <v>7.6412376299636727E-4</v>
       </c>
       <c r="F76" s="20" t="s">
         <v>370</v>
@@ -13819,10 +10462,10 @@
         <v>0</v>
       </c>
       <c r="P76">
-        <v>0</v>
+        <v>2139</v>
       </c>
       <c r="Q76">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="R76">
         <v>0</v>
@@ -13863,14 +10506,14 @@
         <v>5490</v>
       </c>
       <c r="C77" s="21">
-        <v>1826</v>
+        <v>1904</v>
       </c>
       <c r="D77" s="23">
-        <v>38</v>
+        <v>303</v>
       </c>
       <c r="E77" s="19">
         <f t="shared" si="2"/>
-        <v>4.4476696551885576E-4</v>
+        <v>1.8977827884254039E-3</v>
       </c>
       <c r="F77" s="20" t="s">
         <v>369</v>
@@ -13904,10 +10547,10 @@
         <v>0</v>
       </c>
       <c r="P77">
-        <v>0</v>
+        <v>1904</v>
       </c>
       <c r="Q77">
-        <v>0</v>
+        <v>303</v>
       </c>
       <c r="R77">
         <v>0</v>
@@ -13948,14 +10591,14 @@
         <v>13153</v>
       </c>
       <c r="C78" s="21">
-        <v>501</v>
+        <v>700</v>
       </c>
       <c r="D78" s="23">
-        <v>155</v>
+        <v>348</v>
       </c>
       <c r="E78" s="19">
         <f t="shared" si="2"/>
-        <v>1.8141810435637537E-3</v>
+        <v>2.179631717399474E-3</v>
       </c>
       <c r="F78" s="20" t="s">
         <v>367</v>
@@ -13989,10 +10632,10 @@
         <v>0</v>
       </c>
       <c r="P78">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="Q78">
-        <v>0</v>
+        <v>348</v>
       </c>
       <c r="R78">
         <v>0</v>
@@ -14033,14 +10676,14 @@
         <v>1991</v>
       </c>
       <c r="C79" s="21">
-        <v>888</v>
+        <v>932</v>
       </c>
       <c r="D79" s="23">
-        <v>21</v>
+        <v>189</v>
       </c>
       <c r="E79" s="19">
         <f t="shared" si="2"/>
-        <v>2.4579227041831501E-4</v>
+        <v>1.1837655016910937E-3</v>
       </c>
       <c r="F79" s="20" t="s">
         <v>370</v>
@@ -14074,10 +10717,10 @@
         <v>0</v>
       </c>
       <c r="P79">
-        <v>0</v>
+        <v>932</v>
       </c>
       <c r="Q79">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="R79">
         <v>0</v>
@@ -14118,14 +10761,14 @@
         <v>13261</v>
       </c>
       <c r="C80" s="21">
-        <v>1508</v>
+        <v>1725</v>
       </c>
       <c r="D80" s="23">
-        <v>270</v>
+        <v>559</v>
       </c>
       <c r="E80" s="19">
         <f t="shared" si="2"/>
-        <v>3.1601863339497647E-3</v>
+        <v>3.5011900288112238E-3</v>
       </c>
       <c r="F80" s="20" t="s">
         <v>372</v>
@@ -14159,10 +10802,10 @@
         <v>0</v>
       </c>
       <c r="P80">
-        <v>0</v>
+        <v>1725</v>
       </c>
       <c r="Q80">
-        <v>0</v>
+        <v>559</v>
       </c>
       <c r="R80">
         <v>0</v>
@@ -14203,14 +10846,14 @@
         <v>7720</v>
       </c>
       <c r="C81" s="21">
-        <v>555</v>
+        <v>657</v>
       </c>
       <c r="D81" s="23">
-        <v>140</v>
+        <v>248</v>
       </c>
       <c r="E81" s="19">
         <f t="shared" si="2"/>
-        <v>1.6386151361221003E-3</v>
+        <v>1.553300764123763E-3</v>
       </c>
       <c r="F81" s="20" t="s">
         <v>367</v>
@@ -14244,10 +10887,10 @@
         <v>0</v>
       </c>
       <c r="P81">
-        <v>0</v>
+        <v>657</v>
       </c>
       <c r="Q81">
-        <v>0</v>
+        <v>248</v>
       </c>
       <c r="R81">
         <v>0</v>
@@ -14288,14 +10931,14 @@
         <v>10582</v>
       </c>
       <c r="C82" s="21">
-        <v>388</v>
+        <v>558</v>
       </c>
       <c r="D82" s="23">
-        <v>120</v>
+        <v>253</v>
       </c>
       <c r="E82" s="19">
         <f t="shared" si="2"/>
-        <v>1.4045272595332287E-3</v>
+        <v>1.5846173117875484E-3</v>
       </c>
       <c r="F82" s="20" t="s">
         <v>372</v>
@@ -14329,10 +10972,10 @@
         <v>0</v>
       </c>
       <c r="P82">
-        <v>0</v>
+        <v>558</v>
       </c>
       <c r="Q82">
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="R82">
         <v>0</v>
@@ -14373,14 +11016,14 @@
         <v>158540</v>
       </c>
       <c r="C83" s="21">
-        <v>11673</v>
+        <v>15801</v>
       </c>
       <c r="D83" s="23">
-        <v>4734</v>
+        <v>8884</v>
       </c>
       <c r="E83" s="19">
         <f t="shared" si="2"/>
-        <v>5.5408600388585874E-2</v>
+        <v>5.5643241889014157E-2</v>
       </c>
       <c r="F83" s="20" t="s">
         <v>350</v>
@@ -14414,10 +11057,10 @@
         <v>0</v>
       </c>
       <c r="P83">
-        <v>0</v>
+        <v>15801</v>
       </c>
       <c r="Q83">
-        <v>0</v>
+        <v>8884</v>
       </c>
       <c r="R83">
         <v>0</v>
@@ -14458,14 +11101,14 @@
         <v>5698</v>
       </c>
       <c r="C84" s="21">
-        <v>2259</v>
+        <v>2365</v>
       </c>
       <c r="D84" s="23">
-        <v>73</v>
+        <v>481</v>
       </c>
       <c r="E84" s="19">
         <f t="shared" si="2"/>
-        <v>8.5442074954938084E-4</v>
+        <v>3.0126518852561695E-3</v>
       </c>
       <c r="F84" s="20" t="s">
         <v>372</v>
@@ -14499,10 +11142,10 @@
         <v>0</v>
       </c>
       <c r="P84">
-        <v>0</v>
+        <v>2365</v>
       </c>
       <c r="Q84">
-        <v>0</v>
+        <v>481</v>
       </c>
       <c r="R84">
         <v>0</v>
@@ -14543,14 +11186,14 @@
         <v>3563</v>
       </c>
       <c r="C85" s="21">
-        <v>1615</v>
+        <v>1661</v>
       </c>
       <c r="D85" s="23">
-        <v>40</v>
+        <v>345</v>
       </c>
       <c r="E85" s="19">
         <f t="shared" si="2"/>
-        <v>4.6817575317774292E-4</v>
+        <v>2.1608417888012025E-3</v>
       </c>
       <c r="F85" s="20" t="s">
         <v>370</v>
@@ -14584,10 +11227,10 @@
         <v>0</v>
       </c>
       <c r="P85">
-        <v>0</v>
+        <v>1661</v>
       </c>
       <c r="Q85">
-        <v>0</v>
+        <v>345</v>
       </c>
       <c r="R85">
         <v>0</v>
@@ -14628,14 +11271,14 @@
         <v>27538</v>
       </c>
       <c r="C86" s="21">
-        <v>1430</v>
+        <v>1968</v>
       </c>
       <c r="D86" s="23">
-        <v>391</v>
+        <v>795</v>
       </c>
       <c r="E86" s="19">
         <f t="shared" si="2"/>
-        <v>4.5764179873124368E-3</v>
+        <v>4.9793310785419013E-3</v>
       </c>
       <c r="F86" s="20" t="s">
         <v>372</v>
@@ -14669,10 +11312,10 @@
         <v>0</v>
       </c>
       <c r="P86">
-        <v>0</v>
+        <v>1968</v>
       </c>
       <c r="Q86">
-        <v>0</v>
+        <v>795</v>
       </c>
       <c r="R86">
         <v>0</v>
@@ -14713,14 +11356,14 @@
         <v>77528</v>
       </c>
       <c r="C87" s="21">
-        <v>3605</v>
+        <v>5046</v>
       </c>
       <c r="D87" s="23">
-        <v>1171</v>
+        <v>2157</v>
       </c>
       <c r="E87" s="19">
         <f t="shared" si="2"/>
-        <v>1.3705845174278425E-2</v>
+        <v>1.3509958662157083E-2</v>
       </c>
       <c r="F87" s="20" t="s">
         <v>367</v>
@@ -14754,10 +11397,10 @@
         <v>0</v>
       </c>
       <c r="P87">
-        <v>0</v>
+        <v>5046</v>
       </c>
       <c r="Q87">
-        <v>0</v>
+        <v>2157</v>
       </c>
       <c r="R87">
         <v>0</v>
@@ -14798,14 +11441,14 @@
         <v>5851</v>
       </c>
       <c r="C88" s="21">
-        <v>174</v>
+        <v>231</v>
       </c>
       <c r="D88" s="23">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="E88" s="19">
         <f t="shared" si="2"/>
-        <v>6.6715044827828367E-4</v>
+        <v>7.5786045346361015E-4</v>
       </c>
       <c r="F88" s="20" t="s">
         <v>369</v>
@@ -14839,10 +11482,10 @@
         <v>0</v>
       </c>
       <c r="P88">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="Q88">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="R88">
         <v>0</v>
@@ -14883,14 +11526,14 @@
         <v>3246893</v>
       </c>
       <c r="C89" s="23">
-        <v>319299</v>
+        <v>405122</v>
       </c>
       <c r="D89" s="23">
-        <v>85438</v>
+        <v>159660</v>
       </c>
       <c r="E89" s="19">
         <f t="shared" ref="E89" si="4">D89/B89</f>
-        <v>2.6313771350026008E-2</v>
+        <v>4.9173163390355025E-2</v>
       </c>
       <c r="F89" s="20" t="s">
         <v>352</v>
@@ -14924,10 +11567,10 @@
         <v>0</v>
       </c>
       <c r="P89">
-        <v>0</v>
+        <v>405122</v>
       </c>
       <c r="Q89">
-        <v>0</v>
+        <v>159660</v>
       </c>
       <c r="R89">
         <v>0</v>
@@ -14970,12 +11613,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34709779-4AE9-184C-8747-61ED2F71A71A}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D2:D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15001,15 +11644,15 @@
       <c r="A2" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="B2">
-        <v>31965</v>
+      <c r="B2" s="4">
+        <v>56004</v>
       </c>
       <c r="C2">
-        <v>85438</v>
+        <v>159660</v>
       </c>
       <c r="D2">
         <f>B2/C2</f>
-        <v>0.37413094875816383</v>
+        <v>0.35077038707252911</v>
       </c>
       <c r="H2" t="s">
         <v>351</v>
@@ -15022,15 +11665,15 @@
       <c r="A3" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="B3">
-        <v>19467</v>
+      <c r="B3" s="4">
+        <v>35921</v>
       </c>
       <c r="C3">
-        <v>85438</v>
+        <v>159660</v>
       </c>
       <c r="D3">
-        <f>B3/C3</f>
-        <v>0.22784943467777805</v>
+        <f t="shared" ref="D3:D9" si="0">B3/C3</f>
+        <v>0.2249843417261681</v>
       </c>
       <c r="H3" t="s">
         <v>350</v>
@@ -15043,15 +11686,15 @@
       <c r="A4" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="B4">
-        <v>9716</v>
+      <c r="B4" s="4">
+        <v>17999</v>
       </c>
       <c r="C4">
-        <v>85438</v>
+        <v>159660</v>
       </c>
       <c r="D4">
-        <f>B4/C4</f>
-        <v>0.11371989044687375</v>
+        <f t="shared" si="0"/>
+        <v>0.1127333082800952</v>
       </c>
       <c r="H4" t="s">
         <v>367</v>
@@ -15064,15 +11707,15 @@
       <c r="A5" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="B5">
-        <v>3528</v>
+      <c r="B5" s="4">
+        <v>6844</v>
       </c>
       <c r="C5">
-        <v>85438</v>
+        <v>159660</v>
       </c>
       <c r="D5">
-        <f>B5/C5</f>
-        <v>4.1293101430276924E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.2866090442189655E-2</v>
       </c>
       <c r="H5" t="s">
         <v>370</v>
@@ -15085,15 +11728,15 @@
       <c r="A6" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="B6">
-        <v>5502</v>
+      <c r="B6" s="4">
+        <v>10672</v>
       </c>
       <c r="C6">
-        <v>85438</v>
+        <v>159660</v>
       </c>
       <c r="D6">
-        <f>B6/C6</f>
-        <v>6.4397574849598543E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.6842039333583861E-2</v>
       </c>
       <c r="H6" t="s">
         <v>371</v>
@@ -15106,15 +11749,15 @@
       <c r="A7" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="B7">
-        <v>3572</v>
+      <c r="B7" s="4">
+        <v>7649</v>
       </c>
       <c r="C7">
-        <v>85438</v>
+        <v>159660</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7:D9" si="0">B7/C7</f>
-        <v>4.1808094758772445E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.7908054616059126E-2</v>
       </c>
       <c r="H7" t="s">
         <v>368</v>
@@ -15127,15 +11770,15 @@
       <c r="A8" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="B8">
-        <v>9397</v>
+      <c r="B8" s="4">
+        <v>18966</v>
       </c>
       <c r="C8">
-        <v>85438</v>
+        <v>159660</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>0.10998618881528126</v>
+        <v>0.11878992859827132</v>
       </c>
       <c r="H8" t="s">
         <v>372</v>
@@ -15148,15 +11791,15 @@
       <c r="A9" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="B9">
-        <v>2291</v>
+      <c r="B9" s="4">
+        <v>5605</v>
       </c>
       <c r="C9">
-        <v>85438</v>
+        <v>159660</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>2.6814766263255227E-2</v>
+        <v>3.5105849931103598E-2</v>
       </c>
       <c r="H9" t="s">
         <v>369</v>
@@ -15170,17 +11813,17 @@
         <v>352</v>
       </c>
       <c r="B10">
-        <v>85438</v>
+        <v>159660</v>
       </c>
       <c r="C10">
-        <v>85438</v>
+        <v>159660</v>
       </c>
       <c r="D10">
         <f>B10/C10</f>
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I10">
         <v>85438</v>
@@ -15366,6 +12009,46 @@
       </c>
       <c r="H26">
         <v>206871</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E30" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E31" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E32" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E33" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E34" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E35" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E36" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E37" s="3" t="s">
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -15373,7 +12056,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O39"/>
   <sheetViews>
@@ -16522,7 +13205,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11EC1AA0-E28F-1E45-8A96-DDEF282FA7B9}">
   <dimension ref="A1:AW55"/>
   <sheetViews>
@@ -18111,7 +14794,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K88"/>
   <sheetViews>
@@ -19600,7 +16283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L137"/>
   <sheetViews>
@@ -21508,12 +18191,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:P41"/>
+  <dimension ref="A2:S41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P32" sqref="P32:P38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S35" sqref="S35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21881,7 +18564,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>9</v>
       </c>
@@ -21903,7 +18586,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>9</v>
       </c>
@@ -21925,7 +18608,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>10</v>
       </c>
@@ -21947,7 +18630,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>10</v>
       </c>
@@ -21969,7 +18652,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>10</v>
       </c>
@@ -21991,7 +18674,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>10</v>
       </c>
@@ -22013,7 +18696,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>10</v>
       </c>
@@ -22035,7 +18718,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>10</v>
       </c>
@@ -22057,7 +18740,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>10</v>
       </c>
@@ -22079,7 +18762,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>10</v>
       </c>
@@ -22101,7 +18784,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>10</v>
       </c>
@@ -22123,7 +18806,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>10</v>
       </c>
@@ -22145,7 +18828,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>10</v>
       </c>
@@ -22167,7 +18850,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>10</v>
       </c>
@@ -22189,7 +18872,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>10</v>
       </c>
@@ -22211,7 +18894,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>10</v>
       </c>
@@ -22238,8 +18921,14 @@
       <c r="P32">
         <v>1425</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R32" t="s">
+        <v>495</v>
+      </c>
+      <c r="S32">
+        <v>15213</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>10</v>
       </c>
@@ -22266,8 +18955,14 @@
       <c r="P33">
         <v>19693</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R33" t="s">
+        <v>496</v>
+      </c>
+      <c r="S33">
+        <v>33298</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>10</v>
       </c>
@@ -22300,8 +18995,14 @@
       <c r="P34">
         <v>35324</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R34" t="s">
+        <v>497</v>
+      </c>
+      <c r="S34">
+        <v>42146</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>10</v>
       </c>
@@ -22334,8 +19035,14 @@
       <c r="P35">
         <v>45298</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R35" t="s">
+        <v>498</v>
+      </c>
+      <c r="S35">
+        <v>66474</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>10</v>
       </c>
@@ -22369,7 +19076,7 @@
         <v>98057</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>10</v>
       </c>
@@ -22403,7 +19110,7 @@
         <v>124844</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>10</v>
       </c>
@@ -22437,7 +19144,7 @@
         <v>206871</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>10</v>
       </c>
@@ -22465,7 +19172,7 @@
         <v>24940</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>10</v>
       </c>
@@ -22490,7 +19197,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>10</v>
       </c>
@@ -22522,4 +19229,356 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="A3:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4">
+        <v>18001</v>
+      </c>
+      <c r="C4" s="1">
+        <f>B4/$B$14</f>
+        <v>9.0096447894613033E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5">
+        <v>11354</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" ref="C5:C12" si="0">B5/$B$14</f>
+        <v>5.6827680095296727E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6">
+        <v>25526</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.12775967607121227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7">
+        <v>58761</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.29410351506779381</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8">
+        <v>18403</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="0"/>
+        <v>9.210849011746923E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9">
+        <v>12800</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="0"/>
+        <v>6.4065026001391412E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10">
+        <v>26713</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.13370070621681007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11">
+        <v>27068</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.13547750967231739</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12">
+        <v>1171</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="0"/>
+        <v>5.8609488630960421E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14">
+        <f>SUM(B4:B12)</f>
+        <v>199797</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17">
+        <f>SUM(B4:B7)</f>
+        <v>113642</v>
+      </c>
+      <c r="C17" s="1">
+        <f>B17/B14</f>
+        <v>0.56878731912891589</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18">
+        <f>SUM(B8:B11)</f>
+        <v>84984</v>
+      </c>
+      <c r="C18" s="1">
+        <f>B18/B14</f>
+        <v>0.42535173200798809</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>160</v>
+      </c>
+      <c r="C25" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>129</v>
+      </c>
+      <c r="B26">
+        <v>246396</v>
+      </c>
+      <c r="C26" s="6">
+        <v>299</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" ref="D26:D34" si="1">B26/$B$36</f>
+        <v>8.4120898442167649E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>130</v>
+      </c>
+      <c r="B27">
+        <v>158522</v>
+      </c>
+      <c r="C27" s="6">
+        <v>200</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="1"/>
+        <v>5.4120249772111967E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>131</v>
+      </c>
+      <c r="B28">
+        <v>350110</v>
+      </c>
+      <c r="C28" s="6">
+        <v>414</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="1"/>
+        <v>0.11952940694486645</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>132</v>
+      </c>
+      <c r="B29">
+        <v>841976</v>
+      </c>
+      <c r="C29" s="6">
+        <v>821</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="1"/>
+        <v>0.28745506252837932</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>133</v>
+      </c>
+      <c r="B30">
+        <v>254454</v>
+      </c>
+      <c r="C30" s="6">
+        <v>323</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="1"/>
+        <v>8.6871942288849369E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31">
+        <v>183600</v>
+      </c>
+      <c r="C31" s="6">
+        <v>260</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="1"/>
+        <v>6.2682011696545317E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>135</v>
+      </c>
+      <c r="B32">
+        <v>418437</v>
+      </c>
+      <c r="C32" s="6">
+        <v>616</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="1"/>
+        <v>0.14285660636311184</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>136</v>
+      </c>
+      <c r="B33">
+        <v>459999</v>
+      </c>
+      <c r="C33" s="6">
+        <v>1079</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="1"/>
+        <v>0.15704609312853568</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>137</v>
+      </c>
+      <c r="B34">
+        <v>15576</v>
+      </c>
+      <c r="C34" s="6">
+        <v>45</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="1"/>
+        <v>5.3177288354324071E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>162</v>
+      </c>
+      <c r="B36">
+        <f>SUM(B26:B34)</f>
+        <v>2929070</v>
+      </c>
+      <c r="C36">
+        <f>SUM(C26:C34)</f>
+        <v>4057</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A26:D34">
+    <sortCondition ref="A26:A34"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/build/data/maindata.xlsx
+++ b/build/data/maindata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/elections/20180927-absentee/build/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBEBAFA4-2E24-F04B-A09F-F2A6E01FF187}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE68448-93F1-314E-B83A-B8A3D066F18D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="460" windowWidth="26960" windowHeight="18400" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9100" yWindow="460" windowWidth="26960" windowHeight="18400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018age" sheetId="11" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="499">
   <si>
     <t>countyname</t>
   </si>
@@ -3215,10 +3215,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3959946-208A-0648-99C3-FA34EBA2C5C8}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3292,6 +3292,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="C5">
         <v>18641</v>
       </c>
@@ -3300,6 +3303,17 @@
       </c>
       <c r="E5">
         <v>74222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>37173</v>
+      </c>
+      <c r="D6">
+        <v>51751</v>
+      </c>
+      <c r="E6">
+        <v>90249</v>
       </c>
     </row>
   </sheetData>
@@ -4030,8 +4044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB4EA2C9-9ED6-A943-AB1C-F5E8A28BF868}">
   <dimension ref="A1:AA93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D94" sqref="D94"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4131,14 +4145,14 @@
         <v>10041</v>
       </c>
       <c r="C2" s="21">
-        <v>1802</v>
+        <v>2047</v>
       </c>
       <c r="D2" s="23">
-        <v>772</v>
+        <v>1151</v>
       </c>
       <c r="E2" s="19">
         <f>D2/$D$89</f>
-        <v>4.8352749592884877E-3</v>
+        <v>4.6056764662337091E-3</v>
       </c>
       <c r="F2" s="20" t="s">
         <v>371</v>
@@ -4181,10 +4195,10 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1151</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -4216,14 +4230,14 @@
         <v>206870</v>
       </c>
       <c r="C3" s="21">
-        <v>15869</v>
+        <v>19833</v>
       </c>
       <c r="D3" s="23">
-        <v>8468</v>
+        <v>12963</v>
       </c>
       <c r="E3" s="19">
         <f t="shared" ref="E3:E66" si="0">D3/$D$89</f>
-        <v>5.3037705123387201E-2</v>
+        <v>5.1870881000684252E-2</v>
       </c>
       <c r="F3" s="20" t="s">
         <v>350</v>
@@ -4266,10 +4280,10 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>19833</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>12963</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -4301,14 +4315,14 @@
         <v>19110</v>
       </c>
       <c r="C4" s="21">
-        <v>2717</v>
+        <v>3116</v>
       </c>
       <c r="D4" s="23">
-        <v>1195</v>
+        <v>1511</v>
       </c>
       <c r="E4" s="19">
         <f t="shared" si="0"/>
-        <v>7.4846548916447453E-3</v>
+        <v>6.0462008170974234E-3</v>
       </c>
       <c r="F4" s="20" t="s">
         <v>370</v>
@@ -4351,10 +4365,10 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>3116</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1511</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -4386,14 +4400,14 @@
         <v>23932</v>
       </c>
       <c r="C5" s="21">
-        <v>4105</v>
+        <v>4467</v>
       </c>
       <c r="D5" s="23">
-        <v>1128</v>
+        <v>1813</v>
       </c>
       <c r="E5" s="19">
         <f t="shared" si="0"/>
-        <v>7.0650131529500192E-3</v>
+        <v>7.254640689210873E-3</v>
       </c>
       <c r="F5" s="20" t="s">
         <v>368</v>
@@ -4436,10 +4450,10 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>4467</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>1813</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -4471,14 +4485,14 @@
         <v>22566</v>
       </c>
       <c r="C6" s="21">
-        <v>2084</v>
+        <v>2368</v>
       </c>
       <c r="D6" s="23">
-        <v>555</v>
+        <v>895</v>
       </c>
       <c r="E6" s="19">
         <f t="shared" si="0"/>
-        <v>3.4761367906801953E-3</v>
+        <v>3.5813035945084009E-3</v>
       </c>
       <c r="F6" s="20" t="s">
         <v>367</v>
@@ -4521,10 +4535,10 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>2368</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>895</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -4556,14 +4570,14 @@
         <v>3043</v>
       </c>
       <c r="C7" s="21">
-        <v>1353</v>
+        <v>1399</v>
       </c>
       <c r="D7" s="23">
-        <v>342</v>
+        <v>615</v>
       </c>
       <c r="E7" s="19">
         <f t="shared" si="0"/>
-        <v>2.1420518602029313E-3</v>
+        <v>2.4608957660588455E-3</v>
       </c>
       <c r="F7" s="20" t="s">
         <v>369</v>
@@ -4606,10 +4620,10 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>1399</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>615</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -4641,14 +4655,14 @@
         <v>36134</v>
       </c>
       <c r="C8" s="21">
-        <v>6955</v>
+        <v>7659</v>
       </c>
       <c r="D8" s="23">
-        <v>2814</v>
+        <v>3975</v>
       </c>
       <c r="E8" s="19">
         <f t="shared" si="0"/>
-        <v>1.7624953025178504E-2</v>
+        <v>1.5905789707453512E-2</v>
       </c>
       <c r="F8" s="20" t="s">
         <v>372</v>
@@ -4691,10 +4705,10 @@
         <v>0</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>7659</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>3975</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -4726,14 +4740,14 @@
         <v>14880</v>
       </c>
       <c r="C9" s="21">
-        <v>3443</v>
+        <v>3697</v>
       </c>
       <c r="D9" s="23">
-        <v>519</v>
+        <v>1225</v>
       </c>
       <c r="E9" s="19">
         <f t="shared" si="0"/>
-        <v>3.2506576475009397E-3</v>
+        <v>4.9017842494668059E-3</v>
       </c>
       <c r="F9" s="20" t="s">
         <v>372</v>
@@ -4776,10 +4790,10 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>3697</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>1225</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -4811,14 +4825,14 @@
         <v>20458</v>
       </c>
       <c r="C10" s="21">
-        <v>3874</v>
+        <v>4142</v>
       </c>
       <c r="D10" s="23">
-        <v>442</v>
+        <v>1491</v>
       </c>
       <c r="E10" s="19">
         <f t="shared" si="0"/>
-        <v>2.7683828134786423E-3</v>
+        <v>5.9661716864938836E-3</v>
       </c>
       <c r="F10" s="20" t="s">
         <v>371</v>
@@ -4861,10 +4875,10 @@
         <v>0</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>4142</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>1491</v>
       </c>
       <c r="U10">
         <v>0</v>
@@ -4896,14 +4910,14 @@
         <v>61854</v>
       </c>
       <c r="C11" s="21">
-        <v>6052</v>
+        <v>7585</v>
       </c>
       <c r="D11" s="23">
-        <v>2806</v>
+        <v>4550</v>
       </c>
       <c r="E11" s="19">
         <f t="shared" si="0"/>
-        <v>1.7574846548916449E-2</v>
+        <v>1.8206627212305281E-2</v>
       </c>
       <c r="F11" s="20" t="s">
         <v>350</v>
@@ -4946,10 +4960,10 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>7585</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>4550</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -4981,14 +4995,14 @@
         <v>18117</v>
       </c>
       <c r="C12" s="21">
-        <v>6510</v>
+        <v>6923</v>
       </c>
       <c r="D12" s="23">
-        <v>2575</v>
+        <v>3543</v>
       </c>
       <c r="E12" s="19">
         <f t="shared" si="0"/>
-        <v>1.6128022046849554E-2</v>
+        <v>1.4177160486417055E-2</v>
       </c>
       <c r="F12" s="20" t="s">
         <v>367</v>
@@ -5031,10 +5045,10 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>6923</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>3543</v>
       </c>
       <c r="U12">
         <v>0</v>
@@ -5066,14 +5080,14 @@
         <v>6931</v>
       </c>
       <c r="C13" s="21">
-        <v>1650</v>
+        <v>1759</v>
       </c>
       <c r="D13" s="23">
-        <v>152</v>
+        <v>385</v>
       </c>
       <c r="E13" s="19">
         <f t="shared" si="0"/>
-        <v>9.5202304897908053E-4</v>
+        <v>1.5405607641181391E-3</v>
       </c>
       <c r="F13" s="20" t="s">
         <v>369</v>
@@ -5116,10 +5130,10 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>1759</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>385</v>
       </c>
       <c r="U13">
         <v>0</v>
@@ -5151,14 +5165,14 @@
         <v>33544</v>
       </c>
       <c r="C14" s="21">
-        <v>2728</v>
+        <v>3214</v>
       </c>
       <c r="D14" s="23">
-        <v>1126</v>
+        <v>1803</v>
       </c>
       <c r="E14" s="19">
         <f t="shared" si="0"/>
-        <v>7.0524865338845045E-3</v>
+        <v>7.2146261239091026E-3</v>
       </c>
       <c r="F14" s="20" t="s">
         <v>367</v>
@@ -5201,10 +5215,10 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>3214</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>1803</v>
       </c>
       <c r="U14">
         <v>0</v>
@@ -5236,14 +5250,14 @@
         <v>32032</v>
       </c>
       <c r="C15" s="21">
-        <v>4514</v>
+        <v>5095</v>
       </c>
       <c r="D15" s="23">
-        <v>1694</v>
+        <v>2445</v>
       </c>
       <c r="E15" s="19">
         <f t="shared" si="0"/>
-        <v>1.0610046348490542E-2</v>
+        <v>9.7835612162827275E-3</v>
       </c>
       <c r="F15" s="20" t="s">
         <v>370</v>
@@ -5286,10 +5300,10 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>5095</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>2445</v>
       </c>
       <c r="U15">
         <v>0</v>
@@ -5321,14 +5335,14 @@
         <v>4660</v>
       </c>
       <c r="C16" s="21">
-        <v>598</v>
+        <v>677</v>
       </c>
       <c r="D16" s="23">
-        <v>210</v>
+        <v>357</v>
       </c>
       <c r="E16" s="19">
         <f t="shared" si="0"/>
-        <v>1.3152950018789928E-3</v>
+        <v>1.4285199812731834E-3</v>
       </c>
       <c r="F16" s="20" t="s">
         <v>368</v>
@@ -5371,10 +5385,10 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>677</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>357</v>
       </c>
       <c r="U16">
         <v>0</v>
@@ -5406,14 +5420,14 @@
         <v>3698</v>
       </c>
       <c r="C17" s="21">
-        <v>2914</v>
+        <v>2993</v>
       </c>
       <c r="D17" s="23">
-        <v>125</v>
+        <v>655</v>
       </c>
       <c r="E17" s="19">
         <f t="shared" si="0"/>
-        <v>7.8291369159463864E-4</v>
+        <v>2.6209540272659248E-3</v>
       </c>
       <c r="F17" s="20" t="s">
         <v>371</v>
@@ -5456,10 +5470,10 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>2993</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>655</v>
       </c>
       <c r="U17">
         <v>0</v>
@@ -5491,14 +5505,14 @@
         <v>6196</v>
       </c>
       <c r="C18" s="21">
-        <v>399</v>
+        <v>475</v>
       </c>
       <c r="D18" s="23">
-        <v>169</v>
+        <v>281</v>
       </c>
       <c r="E18" s="19">
         <f t="shared" si="0"/>
-        <v>1.0584993110359514E-3</v>
+        <v>1.1244092849797326E-3</v>
       </c>
       <c r="F18" s="20" t="s">
         <v>369</v>
@@ -5541,10 +5555,10 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>475</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>281</v>
       </c>
       <c r="U18">
         <v>0</v>
@@ -5576,14 +5590,14 @@
         <v>40109</v>
       </c>
       <c r="C19" s="21">
-        <v>6413</v>
+        <v>7266</v>
       </c>
       <c r="D19" s="23">
-        <v>2728</v>
+        <v>3983</v>
       </c>
       <c r="E19" s="19">
         <f t="shared" si="0"/>
-        <v>1.7086308405361392E-2</v>
+        <v>1.5937801359694928E-2</v>
       </c>
       <c r="F19" s="20" t="s">
         <v>367</v>
@@ -5626,10 +5640,10 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>7266</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>3983</v>
       </c>
       <c r="U19">
         <v>0</v>
@@ -5661,14 +5675,14 @@
         <v>255313</v>
       </c>
       <c r="C20" s="21">
-        <v>29108</v>
+        <v>36068</v>
       </c>
       <c r="D20" s="23">
-        <v>12642</v>
+        <v>19856</v>
       </c>
       <c r="E20" s="19">
         <f t="shared" si="0"/>
-        <v>7.9180759113115368E-2</v>
+        <v>7.9452920863194207E-2</v>
       </c>
       <c r="F20" s="20" t="s">
         <v>350</v>
@@ -5711,10 +5725,10 @@
         <v>0</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>36068</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>19856</v>
       </c>
       <c r="U20">
         <v>0</v>
@@ -5746,14 +5760,14 @@
         <v>11834</v>
       </c>
       <c r="C21" s="21">
-        <v>657</v>
+        <v>823</v>
       </c>
       <c r="D21" s="23">
-        <v>236</v>
+        <v>388</v>
       </c>
       <c r="E21" s="19">
         <f t="shared" si="0"/>
-        <v>1.4781410497306778E-3</v>
+        <v>1.5525651337086699E-3</v>
       </c>
       <c r="F21" s="20" t="s">
         <v>372</v>
@@ -5796,10 +5810,10 @@
         <v>0</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>823</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="U21">
         <v>0</v>
@@ -5831,14 +5845,14 @@
         <v>24578</v>
       </c>
       <c r="C22" s="21">
-        <v>1979</v>
+        <v>2440</v>
       </c>
       <c r="D22" s="23">
-        <v>1212</v>
+        <v>1742</v>
       </c>
       <c r="E22" s="19">
         <f t="shared" si="0"/>
-        <v>7.5911311537016158E-3</v>
+        <v>6.9705372755683066E-3</v>
       </c>
       <c r="F22" s="20" t="s">
         <v>370</v>
@@ -5881,10 +5895,10 @@
         <v>0</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>2440</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>1742</v>
       </c>
       <c r="U22">
         <v>0</v>
@@ -5916,14 +5930,14 @@
         <v>8089</v>
       </c>
       <c r="C23" s="21">
-        <v>578</v>
+        <v>686</v>
       </c>
       <c r="D23" s="23">
-        <v>251</v>
+        <v>390</v>
       </c>
       <c r="E23" s="19">
         <f t="shared" si="0"/>
-        <v>1.5720906927220344E-3</v>
+        <v>1.560568046769024E-3</v>
       </c>
       <c r="F23" s="20" t="s">
         <v>372</v>
@@ -5966,10 +5980,10 @@
         <v>0</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>686</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="U23">
         <v>0</v>
@@ -6001,14 +6015,14 @@
         <v>12168</v>
       </c>
       <c r="C24" s="21">
-        <v>1983</v>
+        <v>2149</v>
       </c>
       <c r="D24" s="23">
-        <v>546</v>
+        <v>836</v>
       </c>
       <c r="E24" s="19">
         <f t="shared" si="0"/>
-        <v>3.4197670048853814E-3</v>
+        <v>3.3452176592279588E-3</v>
       </c>
       <c r="F24" s="20" t="s">
         <v>372</v>
@@ -6051,10 +6065,10 @@
         <v>0</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>2149</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>836</v>
       </c>
       <c r="U24">
         <v>0</v>
@@ -6086,14 +6100,14 @@
         <v>17532</v>
       </c>
       <c r="C25" s="21">
-        <v>1838</v>
+        <v>2168</v>
       </c>
       <c r="D25" s="23">
-        <v>634</v>
+        <v>1047</v>
       </c>
       <c r="E25" s="19">
         <f t="shared" si="0"/>
-        <v>3.9709382437680069E-3</v>
+        <v>4.1895249870953031E-3</v>
       </c>
       <c r="F25" s="20" t="s">
         <v>372</v>
@@ -6136,10 +6150,10 @@
         <v>0</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>2168</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>1047</v>
       </c>
       <c r="U25">
         <v>0</v>
@@ -6171,14 +6185,14 @@
         <v>28156</v>
       </c>
       <c r="C26" s="21">
-        <v>2368</v>
+        <v>2936</v>
       </c>
       <c r="D26" s="23">
-        <v>1207</v>
+        <v>1856</v>
       </c>
       <c r="E26" s="19">
         <f t="shared" si="0"/>
-        <v>7.5598146060378308E-3</v>
+        <v>7.426703320008483E-3</v>
       </c>
       <c r="F26" s="20" t="s">
         <v>372</v>
@@ -6221,10 +6235,10 @@
         <v>0</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>2936</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>1856</v>
       </c>
       <c r="U26">
         <v>0</v>
@@ -6256,14 +6270,14 @@
         <v>3819</v>
       </c>
       <c r="C27" s="21">
-        <v>2478</v>
+        <v>2523</v>
       </c>
       <c r="D27" s="23">
-        <v>338</v>
+        <v>767</v>
       </c>
       <c r="E27" s="19">
         <f t="shared" si="0"/>
-        <v>2.1169986220719028E-3</v>
+        <v>3.0691171586457473E-3</v>
       </c>
       <c r="F27" s="20" t="s">
         <v>370</v>
@@ -6306,10 +6320,10 @@
         <v>0</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>2523</v>
       </c>
       <c r="T27">
-        <v>0</v>
+        <v>767</v>
       </c>
       <c r="U27">
         <v>0</v>
@@ -6341,14 +6355,14 @@
         <v>744857</v>
       </c>
       <c r="C28" s="21">
-        <v>94244</v>
+        <v>116893</v>
       </c>
       <c r="D28" s="23">
-        <v>43325</v>
+        <v>67821</v>
       </c>
       <c r="E28" s="19">
         <f t="shared" si="0"/>
-        <v>0.27135788550670176</v>
+        <v>0.27138278333313326</v>
       </c>
       <c r="F28" s="20" t="s">
         <v>351</v>
@@ -6391,10 +6405,10 @@
         <v>0</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>116893</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>67821</v>
       </c>
       <c r="U28">
         <v>0</v>
@@ -6426,14 +6440,14 @@
         <v>11827</v>
       </c>
       <c r="C29" s="21">
-        <v>704</v>
+        <v>839</v>
       </c>
       <c r="D29" s="23">
-        <v>317</v>
+        <v>503</v>
       </c>
       <c r="E29" s="19">
         <f t="shared" si="0"/>
-        <v>1.9854691218840034E-3</v>
+        <v>2.012732634679023E-3</v>
       </c>
       <c r="F29" s="20" t="s">
         <v>372</v>
@@ -6476,10 +6490,10 @@
         <v>0</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>839</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="U29">
         <v>0</v>
@@ -6511,14 +6525,14 @@
         <v>12762</v>
       </c>
       <c r="C30" s="21">
-        <v>2743</v>
+        <v>3037</v>
       </c>
       <c r="D30" s="23">
-        <v>1191</v>
+        <v>1659</v>
       </c>
       <c r="E30" s="19">
         <f t="shared" si="0"/>
-        <v>7.4596016535137168E-3</v>
+        <v>6.6384163835636169E-3</v>
       </c>
       <c r="F30" s="20" t="s">
         <v>368</v>
@@ -6561,10 +6575,10 @@
         <v>0</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>3037</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>1659</v>
       </c>
       <c r="U30">
         <v>0</v>
@@ -6596,14 +6610,14 @@
         <v>23372</v>
       </c>
       <c r="C31" s="21">
-        <v>1643</v>
+        <v>1981</v>
       </c>
       <c r="D31" s="23">
-        <v>824</v>
+        <v>1222</v>
       </c>
       <c r="E31" s="19">
         <f t="shared" si="0"/>
-        <v>5.1609670549918581E-3</v>
+        <v>4.8897798798762746E-3</v>
       </c>
       <c r="F31" s="20" t="s">
         <v>367</v>
@@ -6646,10 +6660,10 @@
         <v>0</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>1981</v>
       </c>
       <c r="T31">
-        <v>0</v>
+        <v>1222</v>
       </c>
       <c r="U31">
         <v>0</v>
@@ -6681,14 +6695,14 @@
         <v>26727</v>
       </c>
       <c r="C32" s="21">
-        <v>9083</v>
+        <v>9594</v>
       </c>
       <c r="D32" s="23">
-        <v>3674</v>
+        <v>4928</v>
       </c>
       <c r="E32" s="19">
         <f t="shared" si="0"/>
-        <v>2.3011399223349618E-2</v>
+        <v>1.971917778071218E-2</v>
       </c>
       <c r="F32" s="20" t="s">
         <v>371</v>
@@ -6731,10 +6745,10 @@
         <v>0</v>
       </c>
       <c r="S32">
-        <v>0</v>
+        <v>9594</v>
       </c>
       <c r="T32">
-        <v>0</v>
+        <v>4928</v>
       </c>
       <c r="U32">
         <v>0</v>
@@ -6766,14 +6780,14 @@
         <v>5915</v>
       </c>
       <c r="C33" s="21">
-        <v>1547</v>
+        <v>1633</v>
       </c>
       <c r="D33" s="23">
-        <v>299</v>
+        <v>413</v>
       </c>
       <c r="E33" s="19">
         <f t="shared" si="0"/>
-        <v>1.8727295502943754E-3</v>
+        <v>1.6526015469630945E-3</v>
       </c>
       <c r="F33" s="20" t="s">
         <v>369</v>
@@ -6816,10 +6830,10 @@
         <v>0</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>1633</v>
       </c>
       <c r="T33">
-        <v>0</v>
+        <v>413</v>
       </c>
       <c r="U33">
         <v>0</v>
@@ -6851,14 +6865,14 @@
         <v>9419</v>
       </c>
       <c r="C34" s="21">
-        <v>573</v>
+        <v>675</v>
       </c>
       <c r="D34" s="23">
-        <v>319</v>
+        <v>429</v>
       </c>
       <c r="E34" s="19">
         <f t="shared" si="0"/>
-        <v>1.9979957409495177E-3</v>
+        <v>1.7166248514459263E-3</v>
       </c>
       <c r="F34" s="20" t="s">
         <v>367</v>
@@ -6901,10 +6915,10 @@
         <v>0</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="T34">
-        <v>0</v>
+        <v>429</v>
       </c>
       <c r="U34">
         <v>0</v>
@@ -6936,14 +6950,14 @@
         <v>23901</v>
       </c>
       <c r="C35" s="21">
-        <v>2230</v>
+        <v>2675</v>
       </c>
       <c r="D35" s="23">
-        <v>973</v>
+        <v>1482</v>
       </c>
       <c r="E35" s="19">
         <f t="shared" si="0"/>
-        <v>6.094200175372667E-3</v>
+        <v>5.9301585777222906E-3</v>
       </c>
       <c r="F35" s="20" t="s">
         <v>369</v>
@@ -6986,10 +7000,10 @@
         <v>0</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>2675</v>
       </c>
       <c r="T35">
-        <v>0</v>
+        <v>1482</v>
       </c>
       <c r="U35">
         <v>0</v>
@@ -7021,14 +7035,14 @@
         <v>2650</v>
       </c>
       <c r="C36" s="21">
-        <v>1829</v>
+        <v>1849</v>
       </c>
       <c r="D36" s="23">
-        <v>689</v>
+        <v>903</v>
       </c>
       <c r="E36" s="19">
         <f t="shared" si="0"/>
-        <v>4.3154202680696476E-3</v>
+        <v>3.6133152467498169E-3</v>
       </c>
       <c r="F36" s="20" t="s">
         <v>368</v>
@@ -7071,10 +7085,10 @@
         <v>0</v>
       </c>
       <c r="S36">
-        <v>0</v>
+        <v>1849</v>
       </c>
       <c r="T36">
-        <v>0</v>
+        <v>903</v>
       </c>
       <c r="U36">
         <v>0</v>
@@ -7106,14 +7120,14 @@
         <v>7088</v>
       </c>
       <c r="C37" s="21">
-        <v>2414</v>
+        <v>2573</v>
       </c>
       <c r="D37" s="23">
-        <v>626</v>
+        <v>1257</v>
       </c>
       <c r="E37" s="19">
         <f t="shared" si="0"/>
-        <v>3.9208317675059499E-3</v>
+        <v>5.0298308584324691E-3</v>
       </c>
       <c r="F37" s="20" t="s">
         <v>371</v>
@@ -7156,10 +7170,10 @@
         <v>0</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>2573</v>
       </c>
       <c r="T37">
-        <v>0</v>
+        <v>1257</v>
       </c>
       <c r="U37">
         <v>0</v>
@@ -7191,14 +7205,14 @@
         <v>4160</v>
       </c>
       <c r="C38" s="21">
-        <v>1279</v>
+        <v>1320</v>
       </c>
       <c r="D38" s="23">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E38" s="19">
         <f t="shared" si="0"/>
-        <v>2.2547914317925591E-4</v>
+        <v>2.3608593528044207E-4</v>
       </c>
       <c r="F38" s="20" t="s">
         <v>369</v>
@@ -7241,10 +7255,10 @@
         <v>0</v>
       </c>
       <c r="S38">
-        <v>0</v>
+        <v>1320</v>
       </c>
       <c r="T38">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="U38">
         <v>0</v>
@@ -7276,14 +7290,14 @@
         <v>7038</v>
       </c>
       <c r="C39" s="21">
-        <v>1016</v>
+        <v>1155</v>
       </c>
       <c r="D39" s="23">
-        <v>433</v>
+        <v>643</v>
       </c>
       <c r="E39" s="19">
         <f t="shared" si="0"/>
-        <v>2.712013027683828E-3</v>
+        <v>2.5729365489038009E-3</v>
       </c>
       <c r="F39" s="20" t="s">
         <v>371</v>
@@ -7326,10 +7340,10 @@
         <v>0</v>
       </c>
       <c r="S39">
-        <v>0</v>
+        <v>1155</v>
       </c>
       <c r="T39">
-        <v>0</v>
+        <v>643</v>
       </c>
       <c r="U39">
         <v>0</v>
@@ -7361,14 +7375,14 @@
         <v>2404</v>
       </c>
       <c r="C40" s="21">
-        <v>1902</v>
+        <v>1942</v>
       </c>
       <c r="D40" s="23">
-        <v>19</v>
+        <v>388</v>
       </c>
       <c r="E40" s="19">
         <f t="shared" si="0"/>
-        <v>1.1900288112238507E-4</v>
+        <v>1.5525651337086699E-3</v>
       </c>
       <c r="F40" s="20" t="s">
         <v>368</v>
@@ -7411,10 +7425,10 @@
         <v>0</v>
       </c>
       <c r="S40">
-        <v>0</v>
+        <v>1942</v>
       </c>
       <c r="T40">
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="U40">
         <v>0</v>
@@ -7446,14 +7460,14 @@
         <v>16733</v>
       </c>
       <c r="C41" s="21">
-        <v>3936</v>
+        <v>4170</v>
       </c>
       <c r="D41" s="23">
-        <v>1191</v>
+        <v>1673</v>
       </c>
       <c r="E41" s="19">
         <f t="shared" si="0"/>
-        <v>7.4596016535137168E-3</v>
+        <v>6.6944367749860951E-3</v>
       </c>
       <c r="F41" s="20" t="s">
         <v>372</v>
@@ -7496,10 +7510,10 @@
         <v>0</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>4170</v>
       </c>
       <c r="T41">
-        <v>0</v>
+        <v>1673</v>
       </c>
       <c r="U41">
         <v>0</v>
@@ -7531,14 +7545,14 @@
         <v>3410</v>
       </c>
       <c r="C42" s="21">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="D42" s="23">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="E42" s="19">
         <f t="shared" si="0"/>
-        <v>3.4448202430164101E-4</v>
+        <v>3.1611506588398176E-4</v>
       </c>
       <c r="F42" s="20" t="s">
         <v>369</v>
@@ -7581,10 +7595,10 @@
         <v>0</v>
       </c>
       <c r="S42">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="T42">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="U42">
         <v>0</v>
@@ -7616,14 +7630,14 @@
         <v>13570</v>
       </c>
       <c r="C43" s="21">
-        <v>3205</v>
+        <v>3392</v>
       </c>
       <c r="D43" s="23">
-        <v>691</v>
+        <v>1346</v>
       </c>
       <c r="E43" s="19">
         <f t="shared" si="0"/>
-        <v>4.3279468871351623E-3</v>
+        <v>5.3859604896182214E-3</v>
       </c>
       <c r="F43" s="20" t="s">
         <v>369</v>
@@ -7666,10 +7680,10 @@
         <v>0</v>
       </c>
       <c r="S43">
-        <v>0</v>
+        <v>3392</v>
       </c>
       <c r="T43">
-        <v>0</v>
+        <v>1346</v>
       </c>
       <c r="U43">
         <v>0</v>
@@ -7701,14 +7715,14 @@
         <v>20858</v>
       </c>
       <c r="C44" s="21">
-        <v>1443</v>
+        <v>1745</v>
       </c>
       <c r="D44" s="23">
-        <v>499</v>
+        <v>782</v>
       </c>
       <c r="E44" s="19">
         <f t="shared" si="0"/>
-        <v>3.1253914568457972E-3</v>
+        <v>3.1291390065984019E-3</v>
       </c>
       <c r="F44" s="20" t="s">
         <v>369</v>
@@ -7751,10 +7765,10 @@
         <v>0</v>
       </c>
       <c r="S44">
-        <v>0</v>
+        <v>1745</v>
       </c>
       <c r="T44">
-        <v>0</v>
+        <v>782</v>
       </c>
       <c r="U44">
         <v>0</v>
@@ -7786,14 +7800,14 @@
         <v>2468</v>
       </c>
       <c r="C45" s="21">
-        <v>1104</v>
+        <v>1159</v>
       </c>
       <c r="D45" s="23">
-        <v>308</v>
+        <v>472</v>
       </c>
       <c r="E45" s="19">
         <f t="shared" si="0"/>
-        <v>1.9290993360891896E-3</v>
+        <v>1.8886874822435366E-3</v>
       </c>
       <c r="F45" s="20" t="s">
         <v>368</v>
@@ -7836,10 +7850,10 @@
         <v>0</v>
       </c>
       <c r="S45">
-        <v>0</v>
+        <v>1159</v>
       </c>
       <c r="T45">
-        <v>0</v>
+        <v>472</v>
       </c>
       <c r="U45">
         <v>0</v>
@@ -7871,14 +7885,14 @@
         <v>5340</v>
       </c>
       <c r="C46" s="21">
-        <v>3579</v>
+        <v>3676</v>
       </c>
       <c r="D46" s="23">
-        <v>1098</v>
+        <v>1504</v>
       </c>
       <c r="E46" s="19">
         <f t="shared" si="0"/>
-        <v>6.8771138669673059E-3</v>
+        <v>6.0181906213861843E-3</v>
       </c>
       <c r="F46" s="20" t="s">
         <v>368</v>
@@ -7921,10 +7935,10 @@
         <v>0</v>
       </c>
       <c r="S46">
-        <v>0</v>
+        <v>3676</v>
       </c>
       <c r="T46">
-        <v>0</v>
+        <v>1504</v>
       </c>
       <c r="U46">
         <v>0</v>
@@ -7956,14 +7970,14 @@
         <v>11517</v>
       </c>
       <c r="C47" s="21">
-        <v>846</v>
+        <v>1044</v>
       </c>
       <c r="D47" s="23">
-        <v>298</v>
+        <v>503</v>
       </c>
       <c r="E47" s="19">
         <f t="shared" si="0"/>
-        <v>1.8664662407616185E-3</v>
+        <v>2.012732634679023E-3</v>
       </c>
       <c r="F47" s="20" t="s">
         <v>372</v>
@@ -8006,10 +8020,10 @@
         <v>0</v>
       </c>
       <c r="S47">
-        <v>0</v>
+        <v>1044</v>
       </c>
       <c r="T47">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="U47">
         <v>0</v>
@@ -8041,14 +8055,14 @@
         <v>13520</v>
       </c>
       <c r="C48" s="21">
-        <v>1697</v>
+        <v>1969</v>
       </c>
       <c r="D48" s="23">
-        <v>586</v>
+        <v>781</v>
       </c>
       <c r="E48" s="19">
         <f t="shared" si="0"/>
-        <v>3.6702993861956659E-3</v>
+        <v>3.125137550068225E-3</v>
       </c>
       <c r="F48" s="20" t="s">
         <v>369</v>
@@ -8091,10 +8105,10 @@
         <v>0</v>
       </c>
       <c r="S48">
-        <v>0</v>
+        <v>1969</v>
       </c>
       <c r="T48">
-        <v>0</v>
+        <v>781</v>
       </c>
       <c r="U48">
         <v>0</v>
@@ -8126,14 +8140,14 @@
         <v>14701</v>
       </c>
       <c r="C49" s="21">
-        <v>1491</v>
+        <v>1625</v>
       </c>
       <c r="D49" s="23">
-        <v>558</v>
+        <v>707</v>
       </c>
       <c r="E49" s="19">
         <f t="shared" si="0"/>
-        <v>3.4949267192784668E-3</v>
+        <v>2.8290297668351278E-3</v>
       </c>
       <c r="F49" s="20" t="s">
         <v>367</v>
@@ -8176,10 +8190,10 @@
         <v>0</v>
       </c>
       <c r="S49">
-        <v>0</v>
+        <v>1625</v>
       </c>
       <c r="T49">
-        <v>0</v>
+        <v>707</v>
       </c>
       <c r="U49">
         <v>0</v>
@@ -8211,14 +8225,14 @@
         <v>19803</v>
       </c>
       <c r="C50" s="21">
-        <v>4105</v>
+        <v>4340</v>
       </c>
       <c r="D50" s="23">
-        <v>209</v>
+        <v>1112</v>
       </c>
       <c r="E50" s="19">
         <f t="shared" si="0"/>
-        <v>1.3090316923462357E-3</v>
+        <v>4.4496196615568069E-3</v>
       </c>
       <c r="F50" s="20" t="s">
         <v>367</v>
@@ -8261,10 +8275,10 @@
         <v>0</v>
       </c>
       <c r="S50">
-        <v>0</v>
+        <v>4340</v>
       </c>
       <c r="T50">
-        <v>0</v>
+        <v>1112</v>
       </c>
       <c r="U50">
         <v>0</v>
@@ -8296,14 +8310,14 @@
         <v>19605</v>
       </c>
       <c r="C51" s="21">
-        <v>3673</v>
+        <v>4081</v>
       </c>
       <c r="D51" s="23">
-        <v>1015</v>
+        <v>1020</v>
       </c>
       <c r="E51" s="19">
         <f t="shared" si="0"/>
-        <v>6.3572591757484658E-3</v>
+        <v>4.0814856607805242E-3</v>
       </c>
       <c r="F51" s="20" t="s">
         <v>372</v>
@@ -8346,10 +8360,10 @@
         <v>0</v>
       </c>
       <c r="S51">
-        <v>0</v>
+        <v>4081</v>
       </c>
       <c r="T51">
-        <v>0</v>
+        <v>1020</v>
       </c>
       <c r="U51">
         <v>0</v>
@@ -8381,14 +8395,14 @@
         <v>5103</v>
       </c>
       <c r="C52" s="21">
-        <v>1868</v>
+        <v>1942</v>
       </c>
       <c r="D52" s="23">
-        <v>250</v>
+        <v>706</v>
       </c>
       <c r="E52" s="19">
         <f t="shared" si="0"/>
-        <v>1.5658273831892773E-3</v>
+        <v>2.8250283103049508E-3</v>
       </c>
       <c r="F52" s="20" t="s">
         <v>369</v>
@@ -8431,10 +8445,10 @@
         <v>0</v>
       </c>
       <c r="S52">
-        <v>0</v>
+        <v>1942</v>
       </c>
       <c r="T52">
-        <v>0</v>
+        <v>706</v>
       </c>
       <c r="U52">
         <v>0</v>
@@ -8466,14 +8480,14 @@
         <v>19500</v>
       </c>
       <c r="C53" s="21">
-        <v>3779</v>
+        <v>4127</v>
       </c>
       <c r="D53" s="23">
-        <v>1052</v>
+        <v>1758</v>
       </c>
       <c r="E53" s="19">
         <f t="shared" si="0"/>
-        <v>6.5890016284604787E-3</v>
+        <v>7.0345605800511387E-3</v>
       </c>
       <c r="F53" s="20" t="s">
         <v>372</v>
@@ -8516,10 +8530,10 @@
         <v>0</v>
       </c>
       <c r="S53">
-        <v>0</v>
+        <v>4127</v>
       </c>
       <c r="T53">
-        <v>0</v>
+        <v>1758</v>
       </c>
       <c r="U53">
         <v>0</v>
@@ -8551,14 +8565,14 @@
         <v>9633</v>
       </c>
       <c r="C54" s="21">
-        <v>1996</v>
+        <v>2162</v>
       </c>
       <c r="D54" s="23">
-        <v>575</v>
+        <v>950</v>
       </c>
       <c r="E54" s="19">
         <f t="shared" si="0"/>
-        <v>3.6014029813353377E-3</v>
+        <v>3.8013837036681352E-3</v>
       </c>
       <c r="F54" s="20" t="s">
         <v>369</v>
@@ -8601,10 +8615,10 @@
         <v>0</v>
       </c>
       <c r="S54">
-        <v>0</v>
+        <v>2162</v>
       </c>
       <c r="T54">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="U54">
         <v>0</v>
@@ -8636,14 +8650,14 @@
         <v>3573</v>
       </c>
       <c r="C55" s="21">
-        <v>1814</v>
+        <v>1846</v>
       </c>
       <c r="D55" s="23">
-        <v>507</v>
+        <v>646</v>
       </c>
       <c r="E55" s="19">
         <f t="shared" si="0"/>
-        <v>3.1754979331078542E-3</v>
+        <v>2.5849409184943318E-3</v>
       </c>
       <c r="F55" s="20" t="s">
         <v>368</v>
@@ -8686,10 +8700,10 @@
         <v>0</v>
       </c>
       <c r="S55">
-        <v>0</v>
+        <v>1846</v>
       </c>
       <c r="T55">
-        <v>0</v>
+        <v>646</v>
       </c>
       <c r="U55">
         <v>0</v>
@@ -8721,14 +8735,14 @@
         <v>88682</v>
       </c>
       <c r="C56" s="21">
-        <v>10111</v>
+        <v>13400</v>
       </c>
       <c r="D56" s="23">
-        <v>4523</v>
+        <v>7186</v>
       </c>
       <c r="E56" s="19">
         <f t="shared" si="0"/>
-        <v>2.8328949016660405E-2</v>
+        <v>2.8754466625851811E-2</v>
       </c>
       <c r="F56" s="20" t="s">
         <v>372</v>
@@ -8771,10 +8785,10 @@
         <v>0</v>
       </c>
       <c r="S56">
-        <v>0</v>
+        <v>13400</v>
       </c>
       <c r="T56">
-        <v>0</v>
+        <v>7186</v>
       </c>
       <c r="U56">
         <v>0</v>
@@ -8806,14 +8820,14 @@
         <v>35826</v>
       </c>
       <c r="C57" s="21">
-        <v>3086</v>
+        <v>3588</v>
       </c>
       <c r="D57" s="23">
-        <v>1369</v>
+        <v>2392</v>
       </c>
       <c r="E57" s="19">
         <f t="shared" si="0"/>
-        <v>8.5744707503444817E-3</v>
+        <v>9.5714840201833462E-3</v>
       </c>
       <c r="F57" s="20" t="s">
         <v>370</v>
@@ -8856,10 +8870,10 @@
         <v>0</v>
       </c>
       <c r="S57">
-        <v>0</v>
+        <v>3588</v>
       </c>
       <c r="T57">
-        <v>0</v>
+        <v>2392</v>
       </c>
       <c r="U57">
         <v>0</v>
@@ -8891,14 +8905,14 @@
         <v>7457</v>
       </c>
       <c r="C58" s="21">
-        <v>726</v>
+        <v>838</v>
       </c>
       <c r="D58" s="23">
-        <v>275</v>
+        <v>428</v>
       </c>
       <c r="E58" s="19">
         <f t="shared" si="0"/>
-        <v>1.7224101215082049E-3</v>
+        <v>1.7126233949157493E-3</v>
       </c>
       <c r="F58" s="20" t="s">
         <v>368</v>
@@ -8941,10 +8955,10 @@
         <v>0</v>
       </c>
       <c r="S58">
-        <v>0</v>
+        <v>838</v>
       </c>
       <c r="T58">
-        <v>0</v>
+        <v>428</v>
       </c>
       <c r="U58">
         <v>0</v>
@@ -8976,14 +8990,14 @@
         <v>15655</v>
       </c>
       <c r="C59" s="21">
-        <v>1741</v>
+        <v>1901</v>
       </c>
       <c r="D59" s="23">
-        <v>776</v>
+        <v>1106</v>
       </c>
       <c r="E59" s="19">
         <f t="shared" si="0"/>
-        <v>4.8603281974195162E-3</v>
+        <v>4.4256109223757452E-3</v>
       </c>
       <c r="F59" s="20" t="s">
         <v>367</v>
@@ -9026,10 +9040,10 @@
         <v>0</v>
       </c>
       <c r="S59">
-        <v>0</v>
+        <v>1901</v>
       </c>
       <c r="T59">
-        <v>0</v>
+        <v>1106</v>
       </c>
       <c r="U59">
         <v>0</v>
@@ -9061,14 +9075,14 @@
         <v>5257</v>
       </c>
       <c r="C60" s="21">
-        <v>2163</v>
+        <v>2218</v>
       </c>
       <c r="D60" s="23">
-        <v>61</v>
+        <v>269</v>
       </c>
       <c r="E60" s="19">
         <f t="shared" si="0"/>
-        <v>3.8206188149818364E-4</v>
+        <v>1.0763918066176088E-3</v>
       </c>
       <c r="F60" s="20" t="s">
         <v>369</v>
@@ -9111,10 +9125,10 @@
         <v>0</v>
       </c>
       <c r="S60">
-        <v>0</v>
+        <v>2218</v>
       </c>
       <c r="T60">
-        <v>0</v>
+        <v>269</v>
       </c>
       <c r="U60">
         <v>0</v>
@@ -9146,14 +9160,14 @@
         <v>16519</v>
       </c>
       <c r="C61" s="21">
-        <v>5767</v>
+        <v>6034</v>
       </c>
       <c r="D61" s="23">
-        <v>1275</v>
+        <v>2253</v>
       </c>
       <c r="E61" s="19">
         <f t="shared" si="0"/>
-        <v>7.9857196542653143E-3</v>
+        <v>9.0152815624887465E-3</v>
       </c>
       <c r="F61" s="20" t="s">
         <v>368</v>
@@ -9196,10 +9210,10 @@
         <v>0</v>
       </c>
       <c r="S61">
-        <v>0</v>
+        <v>6034</v>
       </c>
       <c r="T61">
-        <v>0</v>
+        <v>2253</v>
       </c>
       <c r="U61">
         <v>0</v>
@@ -9231,14 +9245,14 @@
         <v>6877</v>
       </c>
       <c r="C62" s="21">
-        <v>1107</v>
+        <v>1239</v>
       </c>
       <c r="D62" s="23">
-        <v>380</v>
+        <v>521</v>
       </c>
       <c r="E62" s="19">
         <f t="shared" si="0"/>
-        <v>2.3800576224477015E-3</v>
+        <v>2.084758852222209E-3</v>
       </c>
       <c r="F62" s="20" t="s">
         <v>370</v>
@@ -9281,10 +9295,10 @@
         <v>0</v>
       </c>
       <c r="S62">
-        <v>0</v>
+        <v>1239</v>
       </c>
       <c r="T62">
-        <v>0</v>
+        <v>521</v>
       </c>
       <c r="U62">
         <v>0</v>
@@ -9316,14 +9330,14 @@
         <v>301541</v>
       </c>
       <c r="C63" s="21">
-        <v>29400</v>
+        <v>35276</v>
       </c>
       <c r="D63" s="23">
-        <v>12679</v>
+        <v>19944</v>
       </c>
       <c r="E63" s="19">
         <f t="shared" si="0"/>
-        <v>7.9412501565827381E-2</v>
+        <v>7.9805049037849782E-2</v>
       </c>
       <c r="F63" s="20" t="s">
         <v>351</v>
@@ -9366,10 +9380,10 @@
         <v>0</v>
       </c>
       <c r="S63">
-        <v>0</v>
+        <v>35276</v>
       </c>
       <c r="T63">
-        <v>0</v>
+        <v>19944</v>
       </c>
       <c r="U63">
         <v>0</v>
@@ -9401,14 +9415,14 @@
         <v>2068</v>
       </c>
       <c r="C64" s="21">
-        <v>1224</v>
+        <v>1246</v>
       </c>
       <c r="D64" s="23">
-        <v>510</v>
+        <v>585</v>
       </c>
       <c r="E64" s="19">
         <f t="shared" si="0"/>
-        <v>3.1942878617061254E-3</v>
+        <v>2.3408520701535358E-3</v>
       </c>
       <c r="F64" s="20" t="s">
         <v>368</v>
@@ -9451,10 +9465,10 @@
         <v>0</v>
       </c>
       <c r="S64">
-        <v>0</v>
+        <v>1246</v>
       </c>
       <c r="T64">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="U64">
         <v>0</v>
@@ -9486,14 +9500,14 @@
         <v>9064</v>
       </c>
       <c r="C65" s="21">
-        <v>399</v>
+        <v>553</v>
       </c>
       <c r="D65" s="23">
-        <v>234</v>
+        <v>335</v>
       </c>
       <c r="E65" s="19">
         <f t="shared" si="0"/>
-        <v>1.4656144306651635E-3</v>
+        <v>1.3404879376092897E-3</v>
       </c>
       <c r="F65" s="20" t="s">
         <v>369</v>
@@ -9536,10 +9550,10 @@
         <v>0</v>
       </c>
       <c r="S65">
-        <v>0</v>
+        <v>553</v>
       </c>
       <c r="T65">
-        <v>0</v>
+        <v>335</v>
       </c>
       <c r="U65">
         <v>0</v>
@@ -9571,14 +9585,14 @@
         <v>8548</v>
       </c>
       <c r="C66" s="21">
-        <v>344</v>
+        <v>455</v>
       </c>
       <c r="D66" s="23">
-        <v>162</v>
+        <v>269</v>
       </c>
       <c r="E66" s="19">
         <f t="shared" si="0"/>
-        <v>1.0146561443066515E-3</v>
+        <v>1.0763918066176088E-3</v>
       </c>
       <c r="F66" s="20" t="s">
         <v>369</v>
@@ -9621,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="S66">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="T66">
-        <v>0</v>
+        <v>269</v>
       </c>
       <c r="U66">
         <v>0</v>
@@ -9656,14 +9670,14 @@
         <v>35838</v>
       </c>
       <c r="C67" s="21">
-        <v>3270</v>
+        <v>4155</v>
       </c>
       <c r="D67" s="23">
-        <v>1458</v>
+        <v>2120</v>
       </c>
       <c r="E67" s="19">
         <f t="shared" ref="E67:E88" si="2">D67/$D$89</f>
-        <v>9.131905298759865E-3</v>
+        <v>8.4830878439752077E-3</v>
       </c>
       <c r="F67" s="20" t="s">
         <v>372</v>
@@ -9706,10 +9720,10 @@
         <v>0</v>
       </c>
       <c r="S67">
-        <v>0</v>
+        <v>4155</v>
       </c>
       <c r="T67">
-        <v>0</v>
+        <v>2120</v>
       </c>
       <c r="U67">
         <v>0</v>
@@ -9741,14 +9755,14 @@
         <v>5164</v>
       </c>
       <c r="C68" s="21">
-        <v>2196</v>
+        <v>2282</v>
       </c>
       <c r="D68" s="23">
-        <v>97</v>
+        <v>436</v>
       </c>
       <c r="E68" s="19">
         <f t="shared" si="2"/>
-        <v>6.0754102467743952E-4</v>
+        <v>1.7446350471571651E-3</v>
       </c>
       <c r="F68" s="20" t="s">
         <v>369</v>
@@ -9791,10 +9805,10 @@
         <v>0</v>
       </c>
       <c r="S68">
-        <v>0</v>
+        <v>2282</v>
       </c>
       <c r="T68">
-        <v>0</v>
+        <v>436</v>
       </c>
       <c r="U68">
         <v>0</v>
@@ -9826,14 +9840,14 @@
         <v>8723</v>
       </c>
       <c r="C69" s="21">
-        <v>2808</v>
+        <v>2949</v>
       </c>
       <c r="D69" s="23">
-        <v>439</v>
+        <v>1068</v>
       </c>
       <c r="E69" s="19">
         <f t="shared" si="2"/>
-        <v>2.7495928848803707E-3</v>
+        <v>4.2735555742290194E-3</v>
       </c>
       <c r="F69" s="20" t="s">
         <v>368</v>
@@ -9876,10 +9890,10 @@
         <v>0</v>
       </c>
       <c r="S69">
-        <v>0</v>
+        <v>2949</v>
       </c>
       <c r="T69">
-        <v>0</v>
+        <v>1068</v>
       </c>
       <c r="U69">
         <v>0</v>
@@ -9911,14 +9925,14 @@
         <v>121806</v>
       </c>
       <c r="C70" s="21">
-        <v>11783</v>
+        <v>13840</v>
       </c>
       <c r="D70" s="23">
-        <v>4600</v>
+        <v>7412</v>
       </c>
       <c r="E70" s="19">
         <f t="shared" si="2"/>
-        <v>2.8811223850682702E-2</v>
+        <v>2.9658795801671807E-2</v>
       </c>
       <c r="F70" s="20" t="s">
         <v>371</v>
@@ -9961,10 +9975,10 @@
         <v>0</v>
       </c>
       <c r="S70">
-        <v>0</v>
+        <v>13840</v>
       </c>
       <c r="T70">
-        <v>0</v>
+        <v>7412</v>
       </c>
       <c r="U70">
         <v>0</v>
@@ -9996,14 +10010,14 @@
         <v>83212</v>
       </c>
       <c r="C71" s="21">
-        <v>7191</v>
+        <v>8586</v>
       </c>
       <c r="D71" s="23">
-        <v>3121</v>
+        <v>4943</v>
       </c>
       <c r="E71" s="19">
         <f t="shared" si="2"/>
-        <v>1.9547789051734935E-2</v>
+        <v>1.9779199628664833E-2</v>
       </c>
       <c r="F71" s="20" t="s">
         <v>350</v>
@@ -10046,10 +10060,10 @@
         <v>0</v>
       </c>
       <c r="S71">
-        <v>0</v>
+        <v>8586</v>
       </c>
       <c r="T71">
-        <v>0</v>
+        <v>4943</v>
       </c>
       <c r="U71">
         <v>0</v>
@@ -10081,14 +10095,14 @@
         <v>54646</v>
       </c>
       <c r="C72" s="21">
-        <v>3459</v>
+        <v>4331</v>
       </c>
       <c r="D72" s="23">
-        <v>1847</v>
+        <v>2727</v>
       </c>
       <c r="E72" s="19">
         <f t="shared" si="2"/>
-        <v>1.1568332707002381E-2</v>
+        <v>1.0911971957792636E-2</v>
       </c>
       <c r="F72" s="20" t="s">
         <v>367</v>
@@ -10131,10 +10145,10 @@
         <v>0</v>
       </c>
       <c r="S72">
-        <v>0</v>
+        <v>4331</v>
       </c>
       <c r="T72">
-        <v>0</v>
+        <v>2727</v>
       </c>
       <c r="U72">
         <v>0</v>
@@ -10166,14 +10180,14 @@
         <v>8651</v>
       </c>
       <c r="C73" s="21">
-        <v>498</v>
+        <v>586</v>
       </c>
       <c r="D73" s="23">
-        <v>194</v>
+        <v>368</v>
       </c>
       <c r="E73" s="19">
         <f t="shared" si="2"/>
-        <v>1.215082049354879E-3</v>
+        <v>1.4725360031051303E-3</v>
       </c>
       <c r="F73" s="20" t="s">
         <v>372</v>
@@ -10216,10 +10230,10 @@
         <v>0</v>
       </c>
       <c r="S73">
-        <v>0</v>
+        <v>586</v>
       </c>
       <c r="T73">
-        <v>0</v>
+        <v>368</v>
       </c>
       <c r="U73">
         <v>0</v>
@@ -10251,14 +10265,14 @@
         <v>86797</v>
       </c>
       <c r="C74" s="21">
-        <v>9984</v>
+        <v>11461</v>
       </c>
       <c r="D74" s="23">
-        <v>3729</v>
+        <v>5791</v>
       </c>
       <c r="E74" s="19">
         <f t="shared" si="2"/>
-        <v>2.3355881247651259E-2</v>
+        <v>2.3172434766254916E-2</v>
       </c>
       <c r="F74" s="20" t="s">
         <v>367</v>
@@ -10301,10 +10315,10 @@
         <v>0</v>
       </c>
       <c r="S74">
-        <v>0</v>
+        <v>11461</v>
       </c>
       <c r="T74">
-        <v>0</v>
+        <v>5791</v>
       </c>
       <c r="U74">
         <v>0</v>
@@ -10336,14 +10350,14 @@
         <v>20929</v>
       </c>
       <c r="C75" s="21">
-        <v>1302</v>
+        <v>1753</v>
       </c>
       <c r="D75" s="23">
-        <v>623</v>
+        <v>1244</v>
       </c>
       <c r="E75" s="19">
         <f t="shared" si="2"/>
-        <v>3.9020418389076788E-3</v>
+        <v>4.9778119235401683E-3</v>
       </c>
       <c r="F75" s="20" t="s">
         <v>372</v>
@@ -10386,10 +10400,10 @@
         <v>0</v>
       </c>
       <c r="S75">
-        <v>0</v>
+        <v>1753</v>
       </c>
       <c r="T75">
-        <v>0</v>
+        <v>1244</v>
       </c>
       <c r="U75">
         <v>0</v>
@@ -10421,14 +10435,14 @@
         <v>5600</v>
       </c>
       <c r="C76" s="21">
-        <v>2139</v>
+        <v>2219</v>
       </c>
       <c r="D76" s="23">
-        <v>122</v>
+        <v>493</v>
       </c>
       <c r="E76" s="19">
         <f t="shared" si="2"/>
-        <v>7.6412376299636727E-4</v>
+        <v>1.9727180693772531E-3</v>
       </c>
       <c r="F76" s="20" t="s">
         <v>370</v>
@@ -10471,10 +10485,10 @@
         <v>0</v>
       </c>
       <c r="S76">
-        <v>0</v>
+        <v>2219</v>
       </c>
       <c r="T76">
-        <v>0</v>
+        <v>493</v>
       </c>
       <c r="U76">
         <v>0</v>
@@ -10506,14 +10520,14 @@
         <v>5490</v>
       </c>
       <c r="C77" s="21">
-        <v>1904</v>
+        <v>1962</v>
       </c>
       <c r="D77" s="23">
-        <v>303</v>
+        <v>589</v>
       </c>
       <c r="E77" s="19">
         <f t="shared" si="2"/>
-        <v>1.8977827884254039E-3</v>
+        <v>2.356857896274244E-3</v>
       </c>
       <c r="F77" s="20" t="s">
         <v>369</v>
@@ -10556,10 +10570,10 @@
         <v>0</v>
       </c>
       <c r="S77">
-        <v>0</v>
+        <v>1962</v>
       </c>
       <c r="T77">
-        <v>0</v>
+        <v>589</v>
       </c>
       <c r="U77">
         <v>0</v>
@@ -10591,14 +10605,14 @@
         <v>13153</v>
       </c>
       <c r="C78" s="21">
-        <v>700</v>
+        <v>845</v>
       </c>
       <c r="D78" s="23">
-        <v>348</v>
+        <v>516</v>
       </c>
       <c r="E78" s="19">
         <f t="shared" si="2"/>
-        <v>2.179631717399474E-3</v>
+        <v>2.0647515695713238E-3</v>
       </c>
       <c r="F78" s="20" t="s">
         <v>367</v>
@@ -10641,10 +10655,10 @@
         <v>0</v>
       </c>
       <c r="S78">
-        <v>0</v>
+        <v>845</v>
       </c>
       <c r="T78">
-        <v>0</v>
+        <v>516</v>
       </c>
       <c r="U78">
         <v>0</v>
@@ -10676,14 +10690,14 @@
         <v>1991</v>
       </c>
       <c r="C79" s="21">
-        <v>932</v>
+        <v>981</v>
       </c>
       <c r="D79" s="23">
-        <v>189</v>
+        <v>330</v>
       </c>
       <c r="E79" s="19">
         <f t="shared" si="2"/>
-        <v>1.1837655016910937E-3</v>
+        <v>1.320480654958405E-3</v>
       </c>
       <c r="F79" s="20" t="s">
         <v>370</v>
@@ -10726,10 +10740,10 @@
         <v>0</v>
       </c>
       <c r="S79">
-        <v>0</v>
+        <v>981</v>
       </c>
       <c r="T79">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="U79">
         <v>0</v>
@@ -10761,14 +10775,14 @@
         <v>13261</v>
       </c>
       <c r="C80" s="21">
-        <v>1725</v>
+        <v>1881</v>
       </c>
       <c r="D80" s="23">
-        <v>559</v>
+        <v>911</v>
       </c>
       <c r="E80" s="19">
         <f t="shared" si="2"/>
-        <v>3.5011900288112238E-3</v>
+        <v>3.645326898991233E-3</v>
       </c>
       <c r="F80" s="20" t="s">
         <v>372</v>
@@ -10811,10 +10825,10 @@
         <v>0</v>
       </c>
       <c r="S80">
-        <v>0</v>
+        <v>1881</v>
       </c>
       <c r="T80">
-        <v>0</v>
+        <v>911</v>
       </c>
       <c r="U80">
         <v>0</v>
@@ -10846,14 +10860,14 @@
         <v>7720</v>
       </c>
       <c r="C81" s="21">
-        <v>657</v>
+        <v>739</v>
       </c>
       <c r="D81" s="23">
-        <v>248</v>
+        <v>335</v>
       </c>
       <c r="E81" s="19">
         <f t="shared" si="2"/>
-        <v>1.553300764123763E-3</v>
+        <v>1.3404879376092897E-3</v>
       </c>
       <c r="F81" s="20" t="s">
         <v>367</v>
@@ -10896,10 +10910,10 @@
         <v>0</v>
       </c>
       <c r="S81">
-        <v>0</v>
+        <v>739</v>
       </c>
       <c r="T81">
-        <v>0</v>
+        <v>335</v>
       </c>
       <c r="U81">
         <v>0</v>
@@ -10931,14 +10945,14 @@
         <v>10582</v>
       </c>
       <c r="C82" s="21">
-        <v>558</v>
+        <v>696</v>
       </c>
       <c r="D82" s="23">
-        <v>253</v>
+        <v>378</v>
       </c>
       <c r="E82" s="19">
         <f t="shared" si="2"/>
-        <v>1.5846173117875484E-3</v>
+        <v>1.5125505684069002E-3</v>
       </c>
       <c r="F82" s="20" t="s">
         <v>372</v>
@@ -10981,10 +10995,10 @@
         <v>0</v>
       </c>
       <c r="S82">
-        <v>0</v>
+        <v>696</v>
       </c>
       <c r="T82">
-        <v>0</v>
+        <v>378</v>
       </c>
       <c r="U82">
         <v>0</v>
@@ -11016,14 +11030,14 @@
         <v>158540</v>
       </c>
       <c r="C83" s="21">
-        <v>15801</v>
+        <v>20118</v>
       </c>
       <c r="D83" s="23">
-        <v>8884</v>
+        <v>12203</v>
       </c>
       <c r="E83" s="19">
         <f t="shared" si="2"/>
-        <v>5.5643241889014157E-2</v>
+        <v>4.882977403774974E-2</v>
       </c>
       <c r="F83" s="20" t="s">
         <v>350</v>
@@ -11066,10 +11080,10 @@
         <v>0</v>
       </c>
       <c r="S83">
-        <v>0</v>
+        <v>20118</v>
       </c>
       <c r="T83">
-        <v>0</v>
+        <v>12203</v>
       </c>
       <c r="U83">
         <v>0</v>
@@ -11101,14 +11115,14 @@
         <v>5698</v>
       </c>
       <c r="C84" s="21">
-        <v>2365</v>
+        <v>2432</v>
       </c>
       <c r="D84" s="23">
-        <v>481</v>
+        <v>876</v>
       </c>
       <c r="E84" s="19">
         <f t="shared" si="2"/>
-        <v>3.0126518852561695E-3</v>
+        <v>3.5052759204350385E-3</v>
       </c>
       <c r="F84" s="20" t="s">
         <v>372</v>
@@ -11151,10 +11165,10 @@
         <v>0</v>
       </c>
       <c r="S84">
-        <v>0</v>
+        <v>2432</v>
       </c>
       <c r="T84">
-        <v>0</v>
+        <v>876</v>
       </c>
       <c r="U84">
         <v>0</v>
@@ -11186,14 +11200,14 @@
         <v>3563</v>
       </c>
       <c r="C85" s="21">
-        <v>1661</v>
+        <v>1693</v>
       </c>
       <c r="D85" s="23">
-        <v>345</v>
+        <v>542</v>
       </c>
       <c r="E85" s="19">
         <f t="shared" si="2"/>
-        <v>2.1608417888012025E-3</v>
+        <v>2.1687894393559257E-3</v>
       </c>
       <c r="F85" s="20" t="s">
         <v>370</v>
@@ -11236,10 +11250,10 @@
         <v>0</v>
       </c>
       <c r="S85">
-        <v>0</v>
+        <v>1693</v>
       </c>
       <c r="T85">
-        <v>0</v>
+        <v>542</v>
       </c>
       <c r="U85">
         <v>0</v>
@@ -11271,14 +11285,14 @@
         <v>27538</v>
       </c>
       <c r="C86" s="21">
-        <v>1968</v>
+        <v>2356</v>
       </c>
       <c r="D86" s="23">
-        <v>795</v>
+        <v>1236</v>
       </c>
       <c r="E86" s="19">
         <f t="shared" si="2"/>
-        <v>4.9793310785419013E-3</v>
+        <v>4.9458002712987528E-3</v>
       </c>
       <c r="F86" s="20" t="s">
         <v>372</v>
@@ -11321,10 +11335,10 @@
         <v>0</v>
       </c>
       <c r="S86">
-        <v>0</v>
+        <v>2356</v>
       </c>
       <c r="T86">
-        <v>0</v>
+        <v>1236</v>
       </c>
       <c r="U86">
         <v>0</v>
@@ -11356,14 +11370,14 @@
         <v>77528</v>
       </c>
       <c r="C87" s="21">
-        <v>5046</v>
+        <v>6605</v>
       </c>
       <c r="D87" s="23">
-        <v>2157</v>
+        <v>3663</v>
       </c>
       <c r="E87" s="19">
         <f t="shared" si="2"/>
-        <v>1.3509958662157083E-2</v>
+        <v>1.4657335270038294E-2</v>
       </c>
       <c r="F87" s="20" t="s">
         <v>367</v>
@@ -11406,10 +11420,10 @@
         <v>0</v>
       </c>
       <c r="S87">
-        <v>0</v>
+        <v>6605</v>
       </c>
       <c r="T87">
-        <v>0</v>
+        <v>3663</v>
       </c>
       <c r="U87">
         <v>0</v>
@@ -11441,14 +11455,14 @@
         <v>5851</v>
       </c>
       <c r="C88" s="21">
-        <v>231</v>
+        <v>757</v>
       </c>
       <c r="D88" s="23">
-        <v>121</v>
+        <v>171</v>
       </c>
       <c r="E88" s="19">
         <f t="shared" si="2"/>
-        <v>7.5786045346361015E-4</v>
+        <v>6.8424906666026439E-4</v>
       </c>
       <c r="F88" s="20" t="s">
         <v>369</v>
@@ -11491,10 +11505,10 @@
         <v>0</v>
       </c>
       <c r="S88">
-        <v>0</v>
+        <v>757</v>
       </c>
       <c r="T88">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="U88">
         <v>0</v>
@@ -11526,14 +11540,14 @@
         <v>3246893</v>
       </c>
       <c r="C89" s="23">
-        <v>405122</v>
+        <v>478130</v>
       </c>
       <c r="D89" s="23">
-        <v>159660</v>
+        <v>249909</v>
       </c>
       <c r="E89" s="19">
         <f t="shared" ref="E89" si="4">D89/B89</f>
-        <v>4.9173163390355025E-2</v>
+        <v>7.6968658961043684E-2</v>
       </c>
       <c r="F89" s="20" t="s">
         <v>352</v>
@@ -11576,10 +11590,10 @@
         <v>0</v>
       </c>
       <c r="S89">
-        <v>0</v>
+        <v>478130</v>
       </c>
       <c r="T89">
-        <v>0</v>
+        <v>249909</v>
       </c>
       <c r="U89">
         <v>0</v>
@@ -11618,7 +11632,7 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="D9" sqref="D4:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11626,7 +11640,7 @@
     <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>214</v>
       </c>
@@ -11640,175 +11654,130 @@
         <v>249</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>351</v>
       </c>
-      <c r="B2" s="4">
-        <v>56004</v>
+      <c r="B2">
+        <v>87765</v>
       </c>
       <c r="C2">
-        <v>159660</v>
+        <v>249909</v>
       </c>
       <c r="D2">
         <f>B2/C2</f>
-        <v>0.35077038707252911</v>
-      </c>
-      <c r="H2" t="s">
-        <v>351</v>
-      </c>
-      <c r="I2">
-        <v>31965</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+        <v>0.35118783237098306</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>350</v>
       </c>
-      <c r="B3" s="4">
-        <v>35921</v>
+      <c r="B3">
+        <v>54515</v>
       </c>
       <c r="C3">
-        <v>159660</v>
+        <v>249909</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D9" si="0">B3/C3</f>
-        <v>0.2249843417261681</v>
-      </c>
-      <c r="H3" t="s">
-        <v>350</v>
-      </c>
-      <c r="I3">
-        <v>19467</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+        <f t="shared" ref="D3:D10" si="0">B3/C3</f>
+        <v>0.2181394027425983</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>367</v>
       </c>
-      <c r="B4" s="4">
-        <v>17999</v>
+      <c r="B4">
+        <v>27832</v>
       </c>
       <c r="C4">
-        <v>159660</v>
+        <v>249909</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>0.1127333082800952</v>
-      </c>
-      <c r="H4" t="s">
-        <v>367</v>
-      </c>
-      <c r="I4">
-        <v>9716</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+        <v>0.11136853814788583</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>370</v>
       </c>
-      <c r="B5" s="4">
-        <v>6844</v>
+      <c r="B5">
+        <v>10743</v>
       </c>
       <c r="C5">
-        <v>159660</v>
+        <v>249909</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>4.2866090442189655E-2</v>
-      </c>
-      <c r="H5" t="s">
-        <v>370</v>
-      </c>
-      <c r="I5">
-        <v>3528</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+        <v>4.2987647503691342E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>371</v>
       </c>
-      <c r="B6" s="4">
-        <v>10672</v>
+      <c r="B6">
+        <v>17537</v>
       </c>
       <c r="C6">
-        <v>159660</v>
+        <v>249909</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>6.6842039333583861E-2</v>
-      </c>
-      <c r="H6" t="s">
-        <v>371</v>
-      </c>
-      <c r="I6">
-        <v>5502</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+        <v>7.0173543169713776E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>368</v>
       </c>
-      <c r="B7" s="4">
-        <v>7649</v>
+      <c r="B7">
+        <v>12076</v>
       </c>
       <c r="C7">
-        <v>159660</v>
+        <v>249909</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>4.7908054616059126E-2</v>
-      </c>
-      <c r="H7" t="s">
-        <v>368</v>
-      </c>
-      <c r="I7">
-        <v>3572</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+        <v>4.8321589058417262E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>372</v>
       </c>
-      <c r="B8" s="4">
-        <v>18966</v>
+      <c r="B8">
+        <v>29493</v>
       </c>
       <c r="C8">
-        <v>159660</v>
+        <v>249909</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>0.11878992859827132</v>
+        <v>0.11801495744450981</v>
       </c>
       <c r="H8" t="s">
-        <v>372</v>
-      </c>
-      <c r="I8">
-        <v>9397</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>369</v>
       </c>
-      <c r="B9" s="4">
-        <v>5605</v>
+      <c r="B9">
+        <v>9948</v>
       </c>
       <c r="C9">
-        <v>159660</v>
+        <v>249909</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>3.5105849931103598E-2</v>
-      </c>
-      <c r="H9" t="s">
-        <v>369</v>
-      </c>
-      <c r="I9">
-        <v>2291</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3.9806489562200641E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>352</v>
       </c>
@@ -11816,30 +11785,29 @@
         <v>159660</v>
       </c>
       <c r="C10">
-        <v>159660</v>
+        <v>249909</v>
       </c>
       <c r="D10">
-        <f>B10/C10</f>
-        <v>1</v>
-      </c>
-      <c r="H10" t="s">
+        <f t="shared" si="0"/>
+        <v>0.63887254960805728</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H11" t="s">
         <v>494</v>
       </c>
-      <c r="I10">
-        <v>85438</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>331</v>
       </c>
@@ -18195,8 +18163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S35" sqref="S35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J8:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/build/data/maindata.xlsx
+++ b/build/data/maindata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/elections/20180927-absentee/build/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE68448-93F1-314E-B83A-B8A3D066F18D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E0B686-9298-BC49-B12D-5D330C627B71}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9100" yWindow="460" windowWidth="26960" windowHeight="18400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14720" yWindow="1100" windowWidth="26960" windowHeight="18400" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018age" sheetId="11" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="498">
   <si>
     <t>countyname</t>
   </si>
@@ -1518,9 +1518,6 @@
   </si>
   <si>
     <t>Absentee ballots accepted in 2018</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
   </si>
   <si>
     <t>Sep 23-29</t>
@@ -1735,7 +1732,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1781,6 +1778,14 @@
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="30">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3215,105 +3220,113 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3959946-208A-0648-99C3-FA34EBA2C5C8}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>300</v>
       </c>
       <c r="B1" t="s">
-        <v>301</v>
+        <v>489</v>
       </c>
       <c r="C1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D1" t="s">
-        <v>488</v>
-      </c>
-      <c r="E1" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>37710</v>
+        <v>3818</v>
       </c>
       <c r="C2">
-        <v>3818</v>
+        <v>19693</v>
       </c>
       <c r="D2">
-        <v>19693</v>
-      </c>
-      <c r="E2">
         <v>11353</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>13467</v>
+        <v>8892</v>
       </c>
       <c r="C3">
-        <v>8892</v>
+        <v>35324</v>
       </c>
       <c r="D3">
-        <v>35324</v>
-      </c>
-      <c r="E3">
         <v>31169</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>21184</v>
+        <v>13880</v>
       </c>
       <c r="C4">
-        <v>13880</v>
+        <v>45298</v>
       </c>
       <c r="D4">
-        <v>45298</v>
-      </c>
-      <c r="E4">
         <v>42916</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5">
+        <v>18641</v>
+      </c>
       <c r="C5">
-        <v>18641</v>
+        <v>98057</v>
       </c>
       <c r="D5">
-        <v>98057</v>
-      </c>
-      <c r="E5">
         <v>74222</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>37173</v>
+      </c>
       <c r="C6">
-        <v>37173</v>
+        <v>51751</v>
       </c>
       <c r="D6">
-        <v>51751</v>
-      </c>
-      <c r="E6">
         <v>90249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>65540</v>
+      </c>
+      <c r="C7">
+        <v>165863</v>
+      </c>
+      <c r="D7">
+        <v>160329</v>
       </c>
     </row>
   </sheetData>
@@ -4044,8 +4057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB4EA2C9-9ED6-A943-AB1C-F5E8A28BF868}">
   <dimension ref="A1:AA93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4145,14 +4158,14 @@
         <v>10041</v>
       </c>
       <c r="C2" s="21">
-        <v>2047</v>
+        <v>2248</v>
       </c>
       <c r="D2" s="23">
-        <v>1151</v>
+        <v>1574</v>
       </c>
       <c r="E2" s="19">
         <f>D2/$D$89</f>
-        <v>4.6056764662337091E-3</v>
+        <v>3.8367971762732853E-3</v>
       </c>
       <c r="F2" s="20" t="s">
         <v>371</v>
@@ -4204,10 +4217,10 @@
         <v>0</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>2248</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>1574</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -4230,14 +4243,14 @@
         <v>206870</v>
       </c>
       <c r="C3" s="21">
-        <v>19833</v>
+        <v>26315</v>
       </c>
       <c r="D3" s="23">
-        <v>12963</v>
+        <v>20767</v>
       </c>
       <c r="E3" s="19">
         <f t="shared" ref="E3:E66" si="0">D3/$D$89</f>
-        <v>5.1870881000684252E-2</v>
+        <v>5.0621834154807699E-2</v>
       </c>
       <c r="F3" s="20" t="s">
         <v>350</v>
@@ -4289,10 +4302,10 @@
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>26315</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>20767</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -4315,14 +4328,14 @@
         <v>19110</v>
       </c>
       <c r="C4" s="21">
-        <v>3116</v>
+        <v>3596</v>
       </c>
       <c r="D4" s="23">
-        <v>1511</v>
+        <v>2511</v>
       </c>
       <c r="E4" s="19">
         <f t="shared" si="0"/>
-        <v>6.0462008170974234E-3</v>
+        <v>6.1208371725681191E-3</v>
       </c>
       <c r="F4" s="20" t="s">
         <v>370</v>
@@ -4374,10 +4387,10 @@
         <v>0</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>3596</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>2511</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -4400,14 +4413,14 @@
         <v>23932</v>
       </c>
       <c r="C5" s="21">
-        <v>4467</v>
+        <v>5059</v>
       </c>
       <c r="D5" s="23">
-        <v>1813</v>
+        <v>3271</v>
       </c>
       <c r="E5" s="19">
         <f t="shared" si="0"/>
-        <v>7.254640689210873E-3</v>
+        <v>7.9734203072362869E-3</v>
       </c>
       <c r="F5" s="20" t="s">
         <v>368</v>
@@ -4459,10 +4472,10 @@
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>5059</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>3271</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -4485,14 +4498,14 @@
         <v>22566</v>
       </c>
       <c r="C6" s="21">
-        <v>2368</v>
+        <v>2755</v>
       </c>
       <c r="D6" s="23">
-        <v>895</v>
+        <v>1522</v>
       </c>
       <c r="E6" s="19">
         <f t="shared" si="0"/>
-        <v>3.5813035945084009E-3</v>
+        <v>3.7100414881117792E-3</v>
       </c>
       <c r="F6" s="20" t="s">
         <v>367</v>
@@ -4544,10 +4557,10 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>2755</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>1522</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -4570,14 +4583,14 @@
         <v>3043</v>
       </c>
       <c r="C7" s="21">
-        <v>1399</v>
+        <v>1439</v>
       </c>
       <c r="D7" s="23">
-        <v>615</v>
+        <v>798</v>
       </c>
       <c r="E7" s="19">
         <f t="shared" si="0"/>
-        <v>2.4608957660588455E-3</v>
+        <v>1.9452122914015767E-3</v>
       </c>
       <c r="F7" s="20" t="s">
         <v>369</v>
@@ -4629,10 +4642,10 @@
         <v>0</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>1439</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>798</v>
       </c>
       <c r="X7">
         <v>0</v>
@@ -4655,14 +4668,14 @@
         <v>36134</v>
       </c>
       <c r="C8" s="21">
-        <v>7659</v>
+        <v>8527</v>
       </c>
       <c r="D8" s="23">
-        <v>3975</v>
+        <v>5562</v>
       </c>
       <c r="E8" s="19">
         <f t="shared" si="0"/>
-        <v>1.5905789707453512E-2</v>
+        <v>1.3557983414505726E-2</v>
       </c>
       <c r="F8" s="20" t="s">
         <v>372</v>
@@ -4714,10 +4727,10 @@
         <v>0</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>8527</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>5562</v>
       </c>
       <c r="X8">
         <v>0</v>
@@ -4740,14 +4753,14 @@
         <v>14880</v>
       </c>
       <c r="C9" s="21">
-        <v>3697</v>
+        <v>3953</v>
       </c>
       <c r="D9" s="23">
-        <v>1225</v>
+        <v>2293</v>
       </c>
       <c r="E9" s="19">
         <f t="shared" si="0"/>
-        <v>4.9017842494668059E-3</v>
+        <v>5.5894383260448816E-3</v>
       </c>
       <c r="F9" s="20" t="s">
         <v>372</v>
@@ -4799,10 +4812,10 @@
         <v>0</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>3953</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>2293</v>
       </c>
       <c r="X9">
         <v>0</v>
@@ -4825,14 +4838,14 @@
         <v>20458</v>
       </c>
       <c r="C10" s="21">
-        <v>4142</v>
+        <v>4488</v>
       </c>
       <c r="D10" s="23">
-        <v>1491</v>
+        <v>2609</v>
       </c>
       <c r="E10" s="19">
         <f t="shared" si="0"/>
-        <v>5.9661716864938836E-3</v>
+        <v>6.3597228925648041E-3</v>
       </c>
       <c r="F10" s="20" t="s">
         <v>371</v>
@@ -4884,10 +4897,10 @@
         <v>0</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>4488</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>2609</v>
       </c>
       <c r="X10">
         <v>0</v>
@@ -4910,14 +4923,14 @@
         <v>61854</v>
       </c>
       <c r="C11" s="21">
-        <v>7585</v>
+        <v>9613</v>
       </c>
       <c r="D11" s="23">
-        <v>4550</v>
+        <v>7284</v>
       </c>
       <c r="E11" s="19">
         <f t="shared" si="0"/>
-        <v>1.8206627212305281E-2</v>
+        <v>1.7755546780161759E-2</v>
       </c>
       <c r="F11" s="20" t="s">
         <v>350</v>
@@ -4969,10 +4982,10 @@
         <v>0</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>9613</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>7284</v>
       </c>
       <c r="X11">
         <v>0</v>
@@ -4995,14 +5008,14 @@
         <v>18117</v>
       </c>
       <c r="C12" s="21">
-        <v>6923</v>
+        <v>7235</v>
       </c>
       <c r="D12" s="23">
-        <v>3543</v>
+        <v>4565</v>
       </c>
       <c r="E12" s="19">
         <f t="shared" si="0"/>
-        <v>1.4177160486417055E-2</v>
+        <v>1.1127686854947616E-2</v>
       </c>
       <c r="F12" s="20" t="s">
         <v>367</v>
@@ -5054,10 +5067,10 @@
         <v>0</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>7235</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>4565</v>
       </c>
       <c r="X12">
         <v>0</v>
@@ -5080,14 +5093,14 @@
         <v>6931</v>
       </c>
       <c r="C13" s="21">
-        <v>1759</v>
+        <v>1889</v>
       </c>
       <c r="D13" s="23">
-        <v>385</v>
+        <v>947</v>
       </c>
       <c r="E13" s="19">
         <f t="shared" si="0"/>
-        <v>1.5405607641181391E-3</v>
+        <v>2.3084160901720467E-3</v>
       </c>
       <c r="F13" s="20" t="s">
         <v>369</v>
@@ -5139,10 +5152,10 @@
         <v>0</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>1889</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>947</v>
       </c>
       <c r="X13">
         <v>0</v>
@@ -5165,14 +5178,14 @@
         <v>33544</v>
       </c>
       <c r="C14" s="21">
-        <v>3214</v>
+        <v>3900</v>
       </c>
       <c r="D14" s="23">
-        <v>1803</v>
+        <v>2883</v>
       </c>
       <c r="E14" s="19">
         <f t="shared" si="0"/>
-        <v>7.2146261239091026E-3</v>
+        <v>7.0276278648004325E-3</v>
       </c>
       <c r="F14" s="20" t="s">
         <v>367</v>
@@ -5224,10 +5237,10 @@
         <v>0</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>3900</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>2883</v>
       </c>
       <c r="X14">
         <v>0</v>
@@ -5250,14 +5263,14 @@
         <v>32032</v>
       </c>
       <c r="C15" s="21">
-        <v>5095</v>
+        <v>5875</v>
       </c>
       <c r="D15" s="23">
-        <v>2445</v>
+        <v>3878</v>
       </c>
       <c r="E15" s="19">
         <f t="shared" si="0"/>
-        <v>9.7835612162827275E-3</v>
+        <v>9.4530492055831007E-3</v>
       </c>
       <c r="F15" s="20" t="s">
         <v>370</v>
@@ -5309,10 +5322,10 @@
         <v>0</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>5875</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>3878</v>
       </c>
       <c r="X15">
         <v>0</v>
@@ -5335,14 +5348,14 @@
         <v>4660</v>
       </c>
       <c r="C16" s="21">
-        <v>677</v>
+        <v>771</v>
       </c>
       <c r="D16" s="23">
-        <v>357</v>
+        <v>460</v>
       </c>
       <c r="E16" s="19">
         <f t="shared" si="0"/>
-        <v>1.4285199812731834E-3</v>
+        <v>1.1213003183517861E-3</v>
       </c>
       <c r="F16" s="20" t="s">
         <v>368</v>
@@ -5394,10 +5407,10 @@
         <v>0</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>771</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="X16">
         <v>0</v>
@@ -5420,14 +5433,14 @@
         <v>3698</v>
       </c>
       <c r="C17" s="21">
-        <v>2993</v>
+        <v>3067</v>
       </c>
       <c r="D17" s="23">
-        <v>655</v>
+        <v>1219</v>
       </c>
       <c r="E17" s="19">
         <f t="shared" si="0"/>
-        <v>2.6209540272659248E-3</v>
+        <v>2.9714458436322332E-3</v>
       </c>
       <c r="F17" s="20" t="s">
         <v>371</v>
@@ -5479,10 +5492,10 @@
         <v>0</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>3067</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>1219</v>
       </c>
       <c r="X17">
         <v>0</v>
@@ -5505,14 +5518,14 @@
         <v>6196</v>
       </c>
       <c r="C18" s="21">
-        <v>475</v>
+        <v>571</v>
       </c>
       <c r="D18" s="23">
-        <v>281</v>
+        <v>415</v>
       </c>
       <c r="E18" s="19">
         <f t="shared" si="0"/>
-        <v>1.1244092849797326E-3</v>
+        <v>1.0116078959043287E-3</v>
       </c>
       <c r="F18" s="20" t="s">
         <v>369</v>
@@ -5564,10 +5577,10 @@
         <v>0</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>571</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>415</v>
       </c>
       <c r="X18">
         <v>0</v>
@@ -5590,14 +5603,14 @@
         <v>40109</v>
       </c>
       <c r="C19" s="21">
-        <v>7266</v>
+        <v>8322</v>
       </c>
       <c r="D19" s="23">
-        <v>3983</v>
+        <v>5811</v>
       </c>
       <c r="E19" s="19">
         <f t="shared" si="0"/>
-        <v>1.5937801359694928E-2</v>
+        <v>1.4164948152048324E-2</v>
       </c>
       <c r="F19" s="20" t="s">
         <v>367</v>
@@ -5649,10 +5662,10 @@
         <v>0</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>8322</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>5811</v>
       </c>
       <c r="X19">
         <v>0</v>
@@ -5675,14 +5688,14 @@
         <v>255313</v>
       </c>
       <c r="C20" s="21">
-        <v>36068</v>
+        <v>45817</v>
       </c>
       <c r="D20" s="23">
-        <v>19856</v>
+        <v>34145</v>
       </c>
       <c r="E20" s="19">
         <f t="shared" si="0"/>
-        <v>7.9452920863194207E-2</v>
+        <v>8.3232172543742905E-2</v>
       </c>
       <c r="F20" s="20" t="s">
         <v>350</v>
@@ -5734,10 +5747,10 @@
         <v>0</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>45817</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>34145</v>
       </c>
       <c r="X20">
         <v>0</v>
@@ -5760,14 +5773,14 @@
         <v>11834</v>
       </c>
       <c r="C21" s="21">
-        <v>823</v>
+        <v>1060</v>
       </c>
       <c r="D21" s="23">
-        <v>388</v>
+        <v>750</v>
       </c>
       <c r="E21" s="19">
         <f t="shared" si="0"/>
-        <v>1.5525651337086699E-3</v>
+        <v>1.8282070407909556E-3</v>
       </c>
       <c r="F21" s="20" t="s">
         <v>372</v>
@@ -5819,10 +5832,10 @@
         <v>0</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>1060</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="X21">
         <v>0</v>
@@ -5845,14 +5858,14 @@
         <v>24578</v>
       </c>
       <c r="C22" s="21">
-        <v>2440</v>
+        <v>3143</v>
       </c>
       <c r="D22" s="23">
-        <v>1742</v>
+        <v>2568</v>
       </c>
       <c r="E22" s="19">
         <f t="shared" si="0"/>
-        <v>6.9705372755683066E-3</v>
+        <v>6.2597809076682318E-3</v>
       </c>
       <c r="F22" s="20" t="s">
         <v>370</v>
@@ -5904,10 +5917,10 @@
         <v>0</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>3143</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>2568</v>
       </c>
       <c r="X22">
         <v>0</v>
@@ -5930,14 +5943,14 @@
         <v>8089</v>
       </c>
       <c r="C23" s="21">
-        <v>686</v>
+        <v>782</v>
       </c>
       <c r="D23" s="23">
-        <v>390</v>
+        <v>569</v>
       </c>
       <c r="E23" s="19">
         <f t="shared" si="0"/>
-        <v>1.560568046769024E-3</v>
+        <v>1.3869997416134049E-3</v>
       </c>
       <c r="F23" s="20" t="s">
         <v>372</v>
@@ -5989,10 +6002,10 @@
         <v>0</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>782</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>569</v>
       </c>
       <c r="X23">
         <v>0</v>
@@ -6015,14 +6028,14 @@
         <v>12168</v>
       </c>
       <c r="C24" s="21">
-        <v>2149</v>
+        <v>2297</v>
       </c>
       <c r="D24" s="23">
-        <v>836</v>
+        <v>1221</v>
       </c>
       <c r="E24" s="19">
         <f t="shared" si="0"/>
-        <v>3.3452176592279588E-3</v>
+        <v>2.9763210624076755E-3</v>
       </c>
       <c r="F24" s="20" t="s">
         <v>372</v>
@@ -6074,10 +6087,10 @@
         <v>0</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>2297</v>
       </c>
       <c r="W24">
-        <v>0</v>
+        <v>1221</v>
       </c>
       <c r="X24">
         <v>0</v>
@@ -6100,14 +6113,14 @@
         <v>17532</v>
       </c>
       <c r="C25" s="21">
-        <v>2168</v>
+        <v>2566</v>
       </c>
       <c r="D25" s="23">
-        <v>1047</v>
+        <v>1834</v>
       </c>
       <c r="E25" s="19">
         <f t="shared" si="0"/>
-        <v>4.1895249870953031E-3</v>
+        <v>4.4705756170808162E-3</v>
       </c>
       <c r="F25" s="20" t="s">
         <v>372</v>
@@ -6159,10 +6172,10 @@
         <v>0</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>2566</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>1834</v>
       </c>
       <c r="X25">
         <v>0</v>
@@ -6185,14 +6198,14 @@
         <v>28156</v>
       </c>
       <c r="C26" s="21">
-        <v>2936</v>
+        <v>3608</v>
       </c>
       <c r="D26" s="23">
-        <v>1856</v>
+        <v>2724</v>
       </c>
       <c r="E26" s="19">
         <f t="shared" si="0"/>
-        <v>7.426703320008483E-3</v>
+        <v>6.6400479721527503E-3</v>
       </c>
       <c r="F26" s="20" t="s">
         <v>372</v>
@@ -6244,10 +6257,10 @@
         <v>0</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>3608</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>2724</v>
       </c>
       <c r="X26">
         <v>0</v>
@@ -6270,14 +6283,14 @@
         <v>3819</v>
       </c>
       <c r="C27" s="21">
-        <v>2523</v>
+        <v>2560</v>
       </c>
       <c r="D27" s="23">
-        <v>767</v>
+        <v>1313</v>
       </c>
       <c r="E27" s="19">
         <f t="shared" si="0"/>
-        <v>3.0691171586457473E-3</v>
+        <v>3.2005811260780326E-3</v>
       </c>
       <c r="F27" s="20" t="s">
         <v>370</v>
@@ -6329,10 +6342,10 @@
         <v>0</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>2560</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>1313</v>
       </c>
       <c r="X27">
         <v>0</v>
@@ -6355,14 +6368,14 @@
         <v>744857</v>
       </c>
       <c r="C28" s="21">
-        <v>116893</v>
+        <v>150844</v>
       </c>
       <c r="D28" s="23">
-        <v>67821</v>
+        <v>114072</v>
       </c>
       <c r="E28" s="19">
         <f t="shared" si="0"/>
-        <v>0.27138278333313326</v>
+        <v>0.27806297807614117</v>
       </c>
       <c r="F28" s="20" t="s">
         <v>351</v>
@@ -6414,10 +6427,10 @@
         <v>0</v>
       </c>
       <c r="V28">
-        <v>0</v>
+        <v>150844</v>
       </c>
       <c r="W28">
-        <v>0</v>
+        <v>114072</v>
       </c>
       <c r="X28">
         <v>0</v>
@@ -6440,14 +6453,14 @@
         <v>11827</v>
       </c>
       <c r="C29" s="21">
-        <v>839</v>
+        <v>986</v>
       </c>
       <c r="D29" s="23">
-        <v>503</v>
+        <v>745</v>
       </c>
       <c r="E29" s="19">
         <f t="shared" si="0"/>
-        <v>2.012732634679023E-3</v>
+        <v>1.8160189938523491E-3</v>
       </c>
       <c r="F29" s="20" t="s">
         <v>372</v>
@@ -6499,10 +6512,10 @@
         <v>0</v>
       </c>
       <c r="V29">
-        <v>0</v>
+        <v>986</v>
       </c>
       <c r="W29">
-        <v>0</v>
+        <v>745</v>
       </c>
       <c r="X29">
         <v>0</v>
@@ -6525,14 +6538,14 @@
         <v>12762</v>
       </c>
       <c r="C30" s="21">
-        <v>3037</v>
+        <v>3358</v>
       </c>
       <c r="D30" s="23">
-        <v>1659</v>
+        <v>2273</v>
       </c>
       <c r="E30" s="19">
         <f t="shared" si="0"/>
-        <v>6.6384163835636169E-3</v>
+        <v>5.5406861382904559E-3</v>
       </c>
       <c r="F30" s="20" t="s">
         <v>368</v>
@@ -6584,10 +6597,10 @@
         <v>0</v>
       </c>
       <c r="V30">
-        <v>0</v>
+        <v>3358</v>
       </c>
       <c r="W30">
-        <v>0</v>
+        <v>2273</v>
       </c>
       <c r="X30">
         <v>0</v>
@@ -6610,14 +6623,14 @@
         <v>23372</v>
       </c>
       <c r="C31" s="21">
-        <v>1981</v>
+        <v>2493</v>
       </c>
       <c r="D31" s="23">
-        <v>1222</v>
+        <v>1954</v>
       </c>
       <c r="E31" s="19">
         <f t="shared" si="0"/>
-        <v>4.8897798798762746E-3</v>
+        <v>4.7630887436073696E-3</v>
       </c>
       <c r="F31" s="20" t="s">
         <v>367</v>
@@ -6669,10 +6682,10 @@
         <v>0</v>
       </c>
       <c r="V31">
-        <v>0</v>
+        <v>2493</v>
       </c>
       <c r="W31">
-        <v>0</v>
+        <v>1954</v>
       </c>
       <c r="X31">
         <v>0</v>
@@ -6695,14 +6708,14 @@
         <v>26727</v>
       </c>
       <c r="C32" s="21">
-        <v>9594</v>
+        <v>10199</v>
       </c>
       <c r="D32" s="23">
-        <v>4928</v>
+        <v>6602</v>
       </c>
       <c r="E32" s="19">
         <f t="shared" si="0"/>
-        <v>1.971917778071218E-2</v>
+        <v>1.6093097177735851E-2</v>
       </c>
       <c r="F32" s="20" t="s">
         <v>371</v>
@@ -6754,10 +6767,10 @@
         <v>0</v>
       </c>
       <c r="V32">
-        <v>0</v>
+        <v>10199</v>
       </c>
       <c r="W32">
-        <v>0</v>
+        <v>6602</v>
       </c>
       <c r="X32">
         <v>0</v>
@@ -6780,14 +6793,14 @@
         <v>5915</v>
       </c>
       <c r="C33" s="21">
-        <v>1633</v>
+        <v>1771</v>
       </c>
       <c r="D33" s="23">
-        <v>413</v>
+        <v>909</v>
       </c>
       <c r="E33" s="19">
         <f t="shared" si="0"/>
-        <v>1.6526015469630945E-3</v>
+        <v>2.215786933438638E-3</v>
       </c>
       <c r="F33" s="20" t="s">
         <v>369</v>
@@ -6839,10 +6852,10 @@
         <v>0</v>
       </c>
       <c r="V33">
-        <v>0</v>
+        <v>1771</v>
       </c>
       <c r="W33">
-        <v>0</v>
+        <v>909</v>
       </c>
       <c r="X33">
         <v>0</v>
@@ -6865,14 +6878,14 @@
         <v>9419</v>
       </c>
       <c r="C34" s="21">
-        <v>675</v>
+        <v>839</v>
       </c>
       <c r="D34" s="23">
-        <v>429</v>
+        <v>696</v>
       </c>
       <c r="E34" s="19">
         <f t="shared" si="0"/>
-        <v>1.7166248514459263E-3</v>
+        <v>1.6965761338540066E-3</v>
       </c>
       <c r="F34" s="20" t="s">
         <v>367</v>
@@ -6924,10 +6937,10 @@
         <v>0</v>
       </c>
       <c r="V34">
-        <v>0</v>
+        <v>839</v>
       </c>
       <c r="W34">
-        <v>0</v>
+        <v>696</v>
       </c>
       <c r="X34">
         <v>0</v>
@@ -6950,14 +6963,14 @@
         <v>23901</v>
       </c>
       <c r="C35" s="21">
-        <v>2675</v>
+        <v>3210</v>
       </c>
       <c r="D35" s="23">
-        <v>1482</v>
+        <v>2363</v>
       </c>
       <c r="E35" s="19">
         <f t="shared" si="0"/>
-        <v>5.9301585777222906E-3</v>
+        <v>5.7600709831853707E-3</v>
       </c>
       <c r="F35" s="20" t="s">
         <v>369</v>
@@ -7009,10 +7022,10 @@
         <v>0</v>
       </c>
       <c r="V35">
-        <v>0</v>
+        <v>3210</v>
       </c>
       <c r="W35">
-        <v>0</v>
+        <v>2363</v>
       </c>
       <c r="X35">
         <v>0</v>
@@ -7035,14 +7048,14 @@
         <v>2650</v>
       </c>
       <c r="C36" s="21">
-        <v>1849</v>
+        <v>1868</v>
       </c>
       <c r="D36" s="23">
-        <v>903</v>
+        <v>1247</v>
       </c>
       <c r="E36" s="19">
         <f t="shared" si="0"/>
-        <v>3.6133152467498169E-3</v>
+        <v>3.0396989064884286E-3</v>
       </c>
       <c r="F36" s="20" t="s">
         <v>368</v>
@@ -7094,10 +7107,10 @@
         <v>0</v>
       </c>
       <c r="V36">
-        <v>0</v>
+        <v>1868</v>
       </c>
       <c r="W36">
-        <v>0</v>
+        <v>1247</v>
       </c>
       <c r="X36">
         <v>0</v>
@@ -7120,14 +7133,14 @@
         <v>7088</v>
       </c>
       <c r="C37" s="21">
-        <v>2573</v>
+        <v>2797</v>
       </c>
       <c r="D37" s="23">
-        <v>1257</v>
+        <v>1850</v>
       </c>
       <c r="E37" s="19">
         <f t="shared" si="0"/>
-        <v>5.0298308584324691E-3</v>
+        <v>4.5095773672843573E-3</v>
       </c>
       <c r="F37" s="20" t="s">
         <v>371</v>
@@ -7179,10 +7192,10 @@
         <v>0</v>
       </c>
       <c r="V37">
-        <v>0</v>
+        <v>2797</v>
       </c>
       <c r="W37">
-        <v>0</v>
+        <v>1850</v>
       </c>
       <c r="X37">
         <v>0</v>
@@ -7205,14 +7218,14 @@
         <v>4160</v>
       </c>
       <c r="C38" s="21">
-        <v>1320</v>
+        <v>1431</v>
       </c>
       <c r="D38" s="23">
-        <v>59</v>
+        <v>434</v>
       </c>
       <c r="E38" s="19">
         <f t="shared" si="0"/>
-        <v>2.3608593528044207E-4</v>
+        <v>1.0579224742710328E-3</v>
       </c>
       <c r="F38" s="20" t="s">
         <v>369</v>
@@ -7264,10 +7277,10 @@
         <v>0</v>
       </c>
       <c r="V38">
-        <v>0</v>
+        <v>1431</v>
       </c>
       <c r="W38">
-        <v>0</v>
+        <v>434</v>
       </c>
       <c r="X38">
         <v>0</v>
@@ -7290,14 +7303,14 @@
         <v>7038</v>
       </c>
       <c r="C39" s="21">
-        <v>1155</v>
+        <v>1329</v>
       </c>
       <c r="D39" s="23">
-        <v>643</v>
+        <v>913</v>
       </c>
       <c r="E39" s="19">
         <f t="shared" si="0"/>
-        <v>2.5729365489038009E-3</v>
+        <v>2.225537370989523E-3</v>
       </c>
       <c r="F39" s="20" t="s">
         <v>371</v>
@@ -7349,10 +7362,10 @@
         <v>0</v>
       </c>
       <c r="V39">
-        <v>0</v>
+        <v>1329</v>
       </c>
       <c r="W39">
-        <v>0</v>
+        <v>913</v>
       </c>
       <c r="X39">
         <v>0</v>
@@ -7375,14 +7388,14 @@
         <v>2404</v>
       </c>
       <c r="C40" s="21">
-        <v>1942</v>
+        <v>1979</v>
       </c>
       <c r="D40" s="23">
-        <v>388</v>
+        <v>851</v>
       </c>
       <c r="E40" s="19">
         <f t="shared" si="0"/>
-        <v>1.5525651337086699E-3</v>
+        <v>2.074405588950804E-3</v>
       </c>
       <c r="F40" s="20" t="s">
         <v>368</v>
@@ -7434,10 +7447,10 @@
         <v>0</v>
       </c>
       <c r="V40">
-        <v>0</v>
+        <v>1979</v>
       </c>
       <c r="W40">
-        <v>0</v>
+        <v>851</v>
       </c>
       <c r="X40">
         <v>0</v>
@@ -7460,14 +7473,14 @@
         <v>16733</v>
       </c>
       <c r="C41" s="21">
-        <v>4170</v>
+        <v>4410</v>
       </c>
       <c r="D41" s="23">
-        <v>1673</v>
+        <v>2337</v>
       </c>
       <c r="E41" s="19">
         <f t="shared" si="0"/>
-        <v>6.6944367749860951E-3</v>
+        <v>5.6966931391046177E-3</v>
       </c>
       <c r="F41" s="20" t="s">
         <v>372</v>
@@ -7519,10 +7532,10 @@
         <v>0</v>
       </c>
       <c r="V41">
-        <v>0</v>
+        <v>4410</v>
       </c>
       <c r="W41">
-        <v>0</v>
+        <v>2337</v>
       </c>
       <c r="X41">
         <v>0</v>
@@ -7545,14 +7558,14 @@
         <v>3410</v>
       </c>
       <c r="C42" s="21">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="D42" s="23">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="E42" s="19">
         <f t="shared" si="0"/>
-        <v>3.1611506588398176E-4</v>
+        <v>4.5827056489159952E-4</v>
       </c>
       <c r="F42" s="20" t="s">
         <v>369</v>
@@ -7604,10 +7617,10 @@
         <v>0</v>
       </c>
       <c r="V42">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="W42">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="X42">
         <v>0</v>
@@ -7630,14 +7643,14 @@
         <v>13570</v>
       </c>
       <c r="C43" s="21">
-        <v>3392</v>
+        <v>3618</v>
       </c>
       <c r="D43" s="23">
-        <v>1346</v>
+        <v>1936</v>
       </c>
       <c r="E43" s="19">
         <f t="shared" si="0"/>
-        <v>5.3859604896182214E-3</v>
+        <v>4.7192117746283867E-3</v>
       </c>
       <c r="F43" s="20" t="s">
         <v>369</v>
@@ -7689,10 +7702,10 @@
         <v>0</v>
       </c>
       <c r="V43">
-        <v>0</v>
+        <v>3618</v>
       </c>
       <c r="W43">
-        <v>0</v>
+        <v>1936</v>
       </c>
       <c r="X43">
         <v>0</v>
@@ -7715,14 +7728,14 @@
         <v>20858</v>
       </c>
       <c r="C44" s="21">
-        <v>1745</v>
+        <v>2163</v>
       </c>
       <c r="D44" s="23">
-        <v>782</v>
+        <v>1354</v>
       </c>
       <c r="E44" s="19">
         <f t="shared" si="0"/>
-        <v>3.1291390065984019E-3</v>
+        <v>3.300523110974605E-3</v>
       </c>
       <c r="F44" s="20" t="s">
         <v>369</v>
@@ -7774,10 +7787,10 @@
         <v>0</v>
       </c>
       <c r="V44">
-        <v>0</v>
+        <v>2163</v>
       </c>
       <c r="W44">
-        <v>0</v>
+        <v>1354</v>
       </c>
       <c r="X44">
         <v>0</v>
@@ -7800,14 +7813,14 @@
         <v>2468</v>
       </c>
       <c r="C45" s="21">
-        <v>1159</v>
+        <v>1191</v>
       </c>
       <c r="D45" s="23">
-        <v>472</v>
+        <v>657</v>
       </c>
       <c r="E45" s="19">
         <f t="shared" si="0"/>
-        <v>1.8886874822435366E-3</v>
+        <v>1.601509367732877E-3</v>
       </c>
       <c r="F45" s="20" t="s">
         <v>368</v>
@@ -7859,10 +7872,10 @@
         <v>0</v>
       </c>
       <c r="V45">
-        <v>0</v>
+        <v>1191</v>
       </c>
       <c r="W45">
-        <v>0</v>
+        <v>657</v>
       </c>
       <c r="X45">
         <v>0</v>
@@ -7885,14 +7898,14 @@
         <v>5340</v>
       </c>
       <c r="C46" s="21">
-        <v>3676</v>
+        <v>3736</v>
       </c>
       <c r="D46" s="23">
-        <v>1504</v>
+        <v>2193</v>
       </c>
       <c r="E46" s="19">
         <f t="shared" si="0"/>
-        <v>6.0181906213861843E-3</v>
+        <v>5.3456773872727539E-3</v>
       </c>
       <c r="F46" s="20" t="s">
         <v>368</v>
@@ -7944,10 +7957,10 @@
         <v>0</v>
       </c>
       <c r="V46">
-        <v>0</v>
+        <v>3736</v>
       </c>
       <c r="W46">
-        <v>0</v>
+        <v>2193</v>
       </c>
       <c r="X46">
         <v>0</v>
@@ -7970,14 +7983,14 @@
         <v>11517</v>
       </c>
       <c r="C47" s="21">
-        <v>1044</v>
+        <v>1265</v>
       </c>
       <c r="D47" s="23">
-        <v>503</v>
+        <v>863</v>
       </c>
       <c r="E47" s="19">
         <f t="shared" si="0"/>
-        <v>2.012732634679023E-3</v>
+        <v>2.1036569016034596E-3</v>
       </c>
       <c r="F47" s="20" t="s">
         <v>372</v>
@@ -8029,10 +8042,10 @@
         <v>0</v>
       </c>
       <c r="V47">
-        <v>0</v>
+        <v>1265</v>
       </c>
       <c r="W47">
-        <v>0</v>
+        <v>863</v>
       </c>
       <c r="X47">
         <v>0</v>
@@ -8055,14 +8068,14 @@
         <v>13520</v>
       </c>
       <c r="C48" s="21">
-        <v>1969</v>
+        <v>2211</v>
       </c>
       <c r="D48" s="23">
-        <v>781</v>
+        <v>1282</v>
       </c>
       <c r="E48" s="19">
         <f t="shared" si="0"/>
-        <v>3.125137550068225E-3</v>
+        <v>3.1250152350586731E-3</v>
       </c>
       <c r="F48" s="20" t="s">
         <v>369</v>
@@ -8114,10 +8127,10 @@
         <v>0</v>
       </c>
       <c r="V48">
-        <v>0</v>
+        <v>2211</v>
       </c>
       <c r="W48">
-        <v>0</v>
+        <v>1282</v>
       </c>
       <c r="X48">
         <v>0</v>
@@ -8140,14 +8153,14 @@
         <v>14701</v>
       </c>
       <c r="C49" s="21">
-        <v>1625</v>
+        <v>1912</v>
       </c>
       <c r="D49" s="23">
-        <v>707</v>
+        <v>1298</v>
       </c>
       <c r="E49" s="19">
         <f t="shared" si="0"/>
-        <v>2.8290297668351278E-3</v>
+        <v>3.1640169852622138E-3</v>
       </c>
       <c r="F49" s="20" t="s">
         <v>367</v>
@@ -8199,10 +8212,10 @@
         <v>0</v>
       </c>
       <c r="V49">
-        <v>0</v>
+        <v>1912</v>
       </c>
       <c r="W49">
-        <v>0</v>
+        <v>1298</v>
       </c>
       <c r="X49">
         <v>0</v>
@@ -8225,14 +8238,14 @@
         <v>19803</v>
       </c>
       <c r="C50" s="21">
-        <v>4340</v>
+        <v>4672</v>
       </c>
       <c r="D50" s="23">
-        <v>1112</v>
+        <v>2757</v>
       </c>
       <c r="E50" s="19">
         <f t="shared" si="0"/>
-        <v>4.4496196615568069E-3</v>
+        <v>6.7204890819475525E-3</v>
       </c>
       <c r="F50" s="20" t="s">
         <v>367</v>
@@ -8284,10 +8297,10 @@
         <v>0</v>
       </c>
       <c r="V50">
-        <v>0</v>
+        <v>4672</v>
       </c>
       <c r="W50">
-        <v>0</v>
+        <v>2757</v>
       </c>
       <c r="X50">
         <v>0</v>
@@ -8310,14 +8323,14 @@
         <v>19605</v>
       </c>
       <c r="C51" s="21">
-        <v>4081</v>
+        <v>4468</v>
       </c>
       <c r="D51" s="23">
-        <v>1020</v>
+        <v>1425</v>
       </c>
       <c r="E51" s="19">
         <f t="shared" si="0"/>
-        <v>4.0814856607805242E-3</v>
+        <v>3.4735933775028155E-3</v>
       </c>
       <c r="F51" s="20" t="s">
         <v>372</v>
@@ -8369,10 +8382,10 @@
         <v>0</v>
       </c>
       <c r="V51">
-        <v>0</v>
+        <v>4468</v>
       </c>
       <c r="W51">
-        <v>0</v>
+        <v>1425</v>
       </c>
       <c r="X51">
         <v>0</v>
@@ -8395,14 +8408,14 @@
         <v>5103</v>
       </c>
       <c r="C52" s="21">
-        <v>1942</v>
+        <v>1999</v>
       </c>
       <c r="D52" s="23">
-        <v>706</v>
+        <v>1132</v>
       </c>
       <c r="E52" s="19">
         <f t="shared" si="0"/>
-        <v>2.8250283103049508E-3</v>
+        <v>2.759373826900482E-3</v>
       </c>
       <c r="F52" s="20" t="s">
         <v>369</v>
@@ -8454,10 +8467,10 @@
         <v>0</v>
       </c>
       <c r="V52">
-        <v>0</v>
+        <v>1999</v>
       </c>
       <c r="W52">
-        <v>0</v>
+        <v>1132</v>
       </c>
       <c r="X52">
         <v>0</v>
@@ -8480,14 +8493,14 @@
         <v>19500</v>
       </c>
       <c r="C53" s="21">
-        <v>4127</v>
+        <v>4471</v>
       </c>
       <c r="D53" s="23">
-        <v>1758</v>
+        <v>2516</v>
       </c>
       <c r="E53" s="19">
         <f t="shared" si="0"/>
-        <v>7.0345605800511387E-3</v>
+        <v>6.1330252195067256E-3</v>
       </c>
       <c r="F53" s="20" t="s">
         <v>372</v>
@@ -8539,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="V53">
-        <v>0</v>
+        <v>4471</v>
       </c>
       <c r="W53">
-        <v>0</v>
+        <v>2516</v>
       </c>
       <c r="X53">
         <v>0</v>
@@ -8565,14 +8578,14 @@
         <v>9633</v>
       </c>
       <c r="C54" s="21">
-        <v>2162</v>
+        <v>2358</v>
       </c>
       <c r="D54" s="23">
-        <v>950</v>
+        <v>1389</v>
       </c>
       <c r="E54" s="19">
         <f t="shared" si="0"/>
-        <v>3.8013837036681352E-3</v>
+        <v>3.3858394395448496E-3</v>
       </c>
       <c r="F54" s="20" t="s">
         <v>369</v>
@@ -8624,10 +8637,10 @@
         <v>0</v>
       </c>
       <c r="V54">
-        <v>0</v>
+        <v>2358</v>
       </c>
       <c r="W54">
-        <v>0</v>
+        <v>1389</v>
       </c>
       <c r="X54">
         <v>0</v>
@@ -8650,14 +8663,14 @@
         <v>3573</v>
       </c>
       <c r="C55" s="21">
-        <v>1846</v>
+        <v>1901</v>
       </c>
       <c r="D55" s="23">
-        <v>646</v>
+        <v>973</v>
       </c>
       <c r="E55" s="19">
         <f t="shared" si="0"/>
-        <v>2.5849409184943318E-3</v>
+        <v>2.3717939342527998E-3</v>
       </c>
       <c r="F55" s="20" t="s">
         <v>368</v>
@@ -8709,10 +8722,10 @@
         <v>0</v>
       </c>
       <c r="V55">
-        <v>0</v>
+        <v>1901</v>
       </c>
       <c r="W55">
-        <v>0</v>
+        <v>973</v>
       </c>
       <c r="X55">
         <v>0</v>
@@ -8735,14 +8748,14 @@
         <v>88682</v>
       </c>
       <c r="C56" s="21">
-        <v>13400</v>
+        <v>16600</v>
       </c>
       <c r="D56" s="23">
-        <v>7186</v>
+        <v>12431</v>
       </c>
       <c r="E56" s="19">
         <f t="shared" si="0"/>
-        <v>2.8754466625851811E-2</v>
+        <v>3.0301922298763159E-2</v>
       </c>
       <c r="F56" s="20" t="s">
         <v>372</v>
@@ -8794,10 +8807,10 @@
         <v>0</v>
       </c>
       <c r="V56">
-        <v>0</v>
+        <v>16600</v>
       </c>
       <c r="W56">
-        <v>0</v>
+        <v>12431</v>
       </c>
       <c r="X56">
         <v>0</v>
@@ -8820,14 +8833,14 @@
         <v>35826</v>
       </c>
       <c r="C57" s="21">
-        <v>3588</v>
+        <v>4236</v>
       </c>
       <c r="D57" s="23">
-        <v>2392</v>
+        <v>3451</v>
       </c>
       <c r="E57" s="19">
         <f t="shared" si="0"/>
-        <v>9.5714840201833462E-3</v>
+        <v>8.4121899970261167E-3</v>
       </c>
       <c r="F57" s="20" t="s">
         <v>370</v>
@@ -8879,10 +8892,10 @@
         <v>0</v>
       </c>
       <c r="V57">
-        <v>0</v>
+        <v>4236</v>
       </c>
       <c r="W57">
-        <v>0</v>
+        <v>3451</v>
       </c>
       <c r="X57">
         <v>0</v>
@@ -8905,14 +8918,14 @@
         <v>7457</v>
       </c>
       <c r="C58" s="21">
-        <v>838</v>
+        <v>1012</v>
       </c>
       <c r="D58" s="23">
-        <v>428</v>
+        <v>663</v>
       </c>
       <c r="E58" s="19">
         <f t="shared" si="0"/>
-        <v>1.7126233949157493E-3</v>
+        <v>1.6161350240592046E-3</v>
       </c>
       <c r="F58" s="20" t="s">
         <v>368</v>
@@ -8964,10 +8977,10 @@
         <v>0</v>
       </c>
       <c r="V58">
-        <v>0</v>
+        <v>1012</v>
       </c>
       <c r="W58">
-        <v>0</v>
+        <v>663</v>
       </c>
       <c r="X58">
         <v>0</v>
@@ -8990,14 +9003,14 @@
         <v>15655</v>
       </c>
       <c r="C59" s="21">
-        <v>1901</v>
+        <v>2144</v>
       </c>
       <c r="D59" s="23">
-        <v>1106</v>
+        <v>1481</v>
       </c>
       <c r="E59" s="19">
         <f t="shared" si="0"/>
-        <v>4.4256109223757452E-3</v>
+        <v>3.6100995032152068E-3</v>
       </c>
       <c r="F59" s="20" t="s">
         <v>367</v>
@@ -9049,10 +9062,10 @@
         <v>0</v>
       </c>
       <c r="V59">
-        <v>0</v>
+        <v>2144</v>
       </c>
       <c r="W59">
-        <v>0</v>
+        <v>1481</v>
       </c>
       <c r="X59">
         <v>0</v>
@@ -9075,14 +9088,14 @@
         <v>5257</v>
       </c>
       <c r="C60" s="21">
-        <v>2218</v>
+        <v>2287</v>
       </c>
       <c r="D60" s="23">
-        <v>269</v>
+        <v>815</v>
       </c>
       <c r="E60" s="19">
         <f t="shared" si="0"/>
-        <v>1.0763918066176088E-3</v>
+        <v>1.9866516509928385E-3</v>
       </c>
       <c r="F60" s="20" t="s">
         <v>369</v>
@@ -9134,10 +9147,10 @@
         <v>0</v>
       </c>
       <c r="V60">
-        <v>0</v>
+        <v>2287</v>
       </c>
       <c r="W60">
-        <v>0</v>
+        <v>815</v>
       </c>
       <c r="X60">
         <v>0</v>
@@ -9160,14 +9173,14 @@
         <v>16519</v>
       </c>
       <c r="C61" s="21">
-        <v>6034</v>
+        <v>6337</v>
       </c>
       <c r="D61" s="23">
-        <v>2253</v>
+        <v>3455</v>
       </c>
       <c r="E61" s="19">
         <f t="shared" si="0"/>
-        <v>9.0152815624887465E-3</v>
+        <v>8.4219404345770021E-3</v>
       </c>
       <c r="F61" s="20" t="s">
         <v>368</v>
@@ -9219,10 +9232,10 @@
         <v>0</v>
       </c>
       <c r="V61">
-        <v>0</v>
+        <v>6337</v>
       </c>
       <c r="W61">
-        <v>0</v>
+        <v>3455</v>
       </c>
       <c r="X61">
         <v>0</v>
@@ -9245,14 +9258,14 @@
         <v>6877</v>
       </c>
       <c r="C62" s="21">
-        <v>1239</v>
+        <v>1383</v>
       </c>
       <c r="D62" s="23">
-        <v>521</v>
+        <v>863</v>
       </c>
       <c r="E62" s="19">
         <f t="shared" si="0"/>
-        <v>2.084758852222209E-3</v>
+        <v>2.1036569016034596E-3</v>
       </c>
       <c r="F62" s="20" t="s">
         <v>370</v>
@@ -9304,10 +9317,10 @@
         <v>0</v>
       </c>
       <c r="V62">
-        <v>0</v>
+        <v>1383</v>
       </c>
       <c r="W62">
-        <v>0</v>
+        <v>863</v>
       </c>
       <c r="X62">
         <v>0</v>
@@ -9330,14 +9343,14 @@
         <v>301541</v>
       </c>
       <c r="C63" s="21">
-        <v>35276</v>
+        <v>47973</v>
       </c>
       <c r="D63" s="23">
-        <v>19944</v>
+        <v>35422</v>
       </c>
       <c r="E63" s="19">
         <f t="shared" si="0"/>
-        <v>7.9805049037849782E-2</v>
+        <v>8.6344999731862965E-2</v>
       </c>
       <c r="F63" s="20" t="s">
         <v>351</v>
@@ -9389,10 +9402,10 @@
         <v>0</v>
       </c>
       <c r="V63">
-        <v>0</v>
+        <v>47973</v>
       </c>
       <c r="W63">
-        <v>0</v>
+        <v>35422</v>
       </c>
       <c r="X63">
         <v>0</v>
@@ -9415,14 +9428,14 @@
         <v>2068</v>
       </c>
       <c r="C64" s="21">
-        <v>1246</v>
+        <v>1267</v>
       </c>
       <c r="D64" s="23">
-        <v>585</v>
+        <v>783</v>
       </c>
       <c r="E64" s="19">
         <f t="shared" si="0"/>
-        <v>2.3408520701535358E-3</v>
+        <v>1.9086481505857576E-3</v>
       </c>
       <c r="F64" s="20" t="s">
         <v>368</v>
@@ -9474,10 +9487,10 @@
         <v>0</v>
       </c>
       <c r="V64">
-        <v>0</v>
+        <v>1267</v>
       </c>
       <c r="W64">
-        <v>0</v>
+        <v>783</v>
       </c>
       <c r="X64">
         <v>0</v>
@@ -9500,14 +9513,14 @@
         <v>9064</v>
       </c>
       <c r="C65" s="21">
-        <v>553</v>
+        <v>679</v>
       </c>
       <c r="D65" s="23">
-        <v>335</v>
+        <v>530</v>
       </c>
       <c r="E65" s="19">
         <f t="shared" si="0"/>
-        <v>1.3404879376092897E-3</v>
+        <v>1.2919329754922753E-3</v>
       </c>
       <c r="F65" s="20" t="s">
         <v>369</v>
@@ -9559,10 +9572,10 @@
         <v>0</v>
       </c>
       <c r="V65">
-        <v>0</v>
+        <v>679</v>
       </c>
       <c r="W65">
-        <v>0</v>
+        <v>530</v>
       </c>
       <c r="X65">
         <v>0</v>
@@ -9585,14 +9598,14 @@
         <v>8548</v>
       </c>
       <c r="C66" s="21">
-        <v>455</v>
+        <v>560</v>
       </c>
       <c r="D66" s="23">
-        <v>269</v>
+        <v>408</v>
       </c>
       <c r="E66" s="19">
         <f t="shared" si="0"/>
-        <v>1.0763918066176088E-3</v>
+        <v>9.9454463019027972E-4</v>
       </c>
       <c r="F66" s="20" t="s">
         <v>369</v>
@@ -9644,10 +9657,10 @@
         <v>0</v>
       </c>
       <c r="V66">
-        <v>0</v>
+        <v>560</v>
       </c>
       <c r="W66">
-        <v>0</v>
+        <v>408</v>
       </c>
       <c r="X66">
         <v>0</v>
@@ -9670,14 +9683,14 @@
         <v>35838</v>
       </c>
       <c r="C67" s="21">
-        <v>4155</v>
+        <v>5295</v>
       </c>
       <c r="D67" s="23">
-        <v>2120</v>
+        <v>3930</v>
       </c>
       <c r="E67" s="19">
         <f t="shared" ref="E67:E88" si="2">D67/$D$89</f>
-        <v>8.4830878439752077E-3</v>
+        <v>9.5798048937446069E-3</v>
       </c>
       <c r="F67" s="20" t="s">
         <v>372</v>
@@ -9729,10 +9742,10 @@
         <v>0</v>
       </c>
       <c r="V67">
-        <v>0</v>
+        <v>5295</v>
       </c>
       <c r="W67">
-        <v>0</v>
+        <v>3930</v>
       </c>
       <c r="X67">
         <v>0</v>
@@ -9755,14 +9768,14 @@
         <v>5164</v>
       </c>
       <c r="C68" s="21">
-        <v>2282</v>
+        <v>2376</v>
       </c>
       <c r="D68" s="23">
-        <v>436</v>
+        <v>1066</v>
       </c>
       <c r="E68" s="19">
         <f t="shared" si="2"/>
-        <v>1.7446350471571651E-3</v>
+        <v>2.5984916073108779E-3</v>
       </c>
       <c r="F68" s="20" t="s">
         <v>369</v>
@@ -9814,10 +9827,10 @@
         <v>0</v>
       </c>
       <c r="V68">
-        <v>0</v>
+        <v>2376</v>
       </c>
       <c r="W68">
-        <v>0</v>
+        <v>1066</v>
       </c>
       <c r="X68">
         <v>0</v>
@@ -9840,14 +9853,14 @@
         <v>8723</v>
       </c>
       <c r="C69" s="21">
-        <v>2949</v>
+        <v>3114</v>
       </c>
       <c r="D69" s="23">
-        <v>1068</v>
+        <v>1624</v>
       </c>
       <c r="E69" s="19">
         <f t="shared" si="2"/>
-        <v>4.2735555742290194E-3</v>
+        <v>3.9586776456593488E-3</v>
       </c>
       <c r="F69" s="20" t="s">
         <v>368</v>
@@ -9899,10 +9912,10 @@
         <v>0</v>
       </c>
       <c r="V69">
-        <v>0</v>
+        <v>3114</v>
       </c>
       <c r="W69">
-        <v>0</v>
+        <v>1624</v>
       </c>
       <c r="X69">
         <v>0</v>
@@ -9925,14 +9938,14 @@
         <v>121806</v>
       </c>
       <c r="C70" s="21">
-        <v>13840</v>
+        <v>15873</v>
       </c>
       <c r="D70" s="23">
-        <v>7412</v>
+        <v>11160</v>
       </c>
       <c r="E70" s="19">
         <f t="shared" si="2"/>
-        <v>2.9658795801671807E-2</v>
+        <v>2.7203720766969419E-2</v>
       </c>
       <c r="F70" s="20" t="s">
         <v>371</v>
@@ -9984,10 +9997,10 @@
         <v>0</v>
       </c>
       <c r="V70">
-        <v>0</v>
+        <v>15873</v>
       </c>
       <c r="W70">
-        <v>0</v>
+        <v>11160</v>
       </c>
       <c r="X70">
         <v>0</v>
@@ -10010,14 +10023,14 @@
         <v>83212</v>
       </c>
       <c r="C71" s="21">
-        <v>8586</v>
+        <v>10503</v>
       </c>
       <c r="D71" s="23">
-        <v>4943</v>
+        <v>7699</v>
       </c>
       <c r="E71" s="19">
         <f t="shared" si="2"/>
-        <v>1.9779199628664833E-2</v>
+        <v>1.876715467606609E-2</v>
       </c>
       <c r="F71" s="20" t="s">
         <v>350</v>
@@ -10069,10 +10082,10 @@
         <v>0</v>
       </c>
       <c r="V71">
-        <v>0</v>
+        <v>10503</v>
       </c>
       <c r="W71">
-        <v>0</v>
+        <v>7699</v>
       </c>
       <c r="X71">
         <v>0</v>
@@ -10095,14 +10108,14 @@
         <v>54646</v>
       </c>
       <c r="C72" s="21">
-        <v>4331</v>
+        <v>5538</v>
       </c>
       <c r="D72" s="23">
-        <v>2727</v>
+        <v>4342</v>
       </c>
       <c r="E72" s="19">
         <f t="shared" si="2"/>
-        <v>1.0911971957792636E-2</v>
+        <v>1.0584099961485773E-2</v>
       </c>
       <c r="F72" s="20" t="s">
         <v>367</v>
@@ -10154,10 +10167,10 @@
         <v>0</v>
       </c>
       <c r="V72">
-        <v>0</v>
+        <v>5538</v>
       </c>
       <c r="W72">
-        <v>0</v>
+        <v>4342</v>
       </c>
       <c r="X72">
         <v>0</v>
@@ -10180,14 +10193,14 @@
         <v>8651</v>
       </c>
       <c r="C73" s="21">
-        <v>586</v>
+        <v>707</v>
       </c>
       <c r="D73" s="23">
-        <v>368</v>
+        <v>522</v>
       </c>
       <c r="E73" s="19">
         <f t="shared" si="2"/>
-        <v>1.4725360031051303E-3</v>
+        <v>1.2724321003905049E-3</v>
       </c>
       <c r="F73" s="20" t="s">
         <v>372</v>
@@ -10239,10 +10252,10 @@
         <v>0</v>
       </c>
       <c r="V73">
-        <v>0</v>
+        <v>707</v>
       </c>
       <c r="W73">
-        <v>0</v>
+        <v>522</v>
       </c>
       <c r="X73">
         <v>0</v>
@@ -10265,14 +10278,14 @@
         <v>86797</v>
       </c>
       <c r="C74" s="21">
-        <v>11461</v>
+        <v>13438</v>
       </c>
       <c r="D74" s="23">
-        <v>5791</v>
+        <v>9055</v>
       </c>
       <c r="E74" s="19">
         <f t="shared" si="2"/>
-        <v>2.3172434766254916E-2</v>
+        <v>2.2072553005816137E-2</v>
       </c>
       <c r="F74" s="20" t="s">
         <v>367</v>
@@ -10324,10 +10337,10 @@
         <v>0</v>
       </c>
       <c r="V74">
-        <v>0</v>
+        <v>13438</v>
       </c>
       <c r="W74">
-        <v>0</v>
+        <v>9055</v>
       </c>
       <c r="X74">
         <v>0</v>
@@ -10350,14 +10363,14 @@
         <v>20929</v>
       </c>
       <c r="C75" s="21">
-        <v>1753</v>
+        <v>2321</v>
       </c>
       <c r="D75" s="23">
-        <v>1244</v>
+        <v>1927</v>
       </c>
       <c r="E75" s="19">
         <f t="shared" si="2"/>
-        <v>4.9778119235401683E-3</v>
+        <v>4.6972732901388948E-3</v>
       </c>
       <c r="F75" s="20" t="s">
         <v>372</v>
@@ -10409,10 +10422,10 @@
         <v>0</v>
       </c>
       <c r="V75">
-        <v>0</v>
+        <v>2321</v>
       </c>
       <c r="W75">
-        <v>0</v>
+        <v>1927</v>
       </c>
       <c r="X75">
         <v>0</v>
@@ -10435,14 +10448,14 @@
         <v>5600</v>
       </c>
       <c r="C76" s="21">
-        <v>2219</v>
+        <v>2273</v>
       </c>
       <c r="D76" s="23">
-        <v>493</v>
+        <v>985</v>
       </c>
       <c r="E76" s="19">
         <f t="shared" si="2"/>
-        <v>1.9727180693772531E-3</v>
+        <v>2.4010452469054549E-3</v>
       </c>
       <c r="F76" s="20" t="s">
         <v>370</v>
@@ -10494,10 +10507,10 @@
         <v>0</v>
       </c>
       <c r="V76">
-        <v>0</v>
+        <v>2273</v>
       </c>
       <c r="W76">
-        <v>0</v>
+        <v>985</v>
       </c>
       <c r="X76">
         <v>0</v>
@@ -10520,14 +10533,14 @@
         <v>5490</v>
       </c>
       <c r="C77" s="21">
-        <v>1962</v>
+        <v>2023</v>
       </c>
       <c r="D77" s="23">
-        <v>589</v>
+        <v>996</v>
       </c>
       <c r="E77" s="19">
         <f t="shared" si="2"/>
-        <v>2.356857896274244E-3</v>
+        <v>2.4278589501703887E-3</v>
       </c>
       <c r="F77" s="20" t="s">
         <v>369</v>
@@ -10579,10 +10592,10 @@
         <v>0</v>
       </c>
       <c r="V77">
-        <v>0</v>
+        <v>2023</v>
       </c>
       <c r="W77">
-        <v>0</v>
+        <v>996</v>
       </c>
       <c r="X77">
         <v>0</v>
@@ -10605,14 +10618,14 @@
         <v>13153</v>
       </c>
       <c r="C78" s="21">
-        <v>845</v>
+        <v>999</v>
       </c>
       <c r="D78" s="23">
-        <v>516</v>
+        <v>782</v>
       </c>
       <c r="E78" s="19">
         <f t="shared" si="2"/>
-        <v>2.0647515695713238E-3</v>
+        <v>1.9062105411980362E-3</v>
       </c>
       <c r="F78" s="20" t="s">
         <v>367</v>
@@ -10664,10 +10677,10 @@
         <v>0</v>
       </c>
       <c r="V78">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="W78">
-        <v>0</v>
+        <v>782</v>
       </c>
       <c r="X78">
         <v>0</v>
@@ -10690,14 +10703,14 @@
         <v>1991</v>
       </c>
       <c r="C79" s="21">
-        <v>981</v>
+        <v>1027</v>
       </c>
       <c r="D79" s="23">
-        <v>330</v>
+        <v>520</v>
       </c>
       <c r="E79" s="19">
         <f t="shared" si="2"/>
-        <v>1.320480654958405E-3</v>
+        <v>1.2675568816150624E-3</v>
       </c>
       <c r="F79" s="20" t="s">
         <v>370</v>
@@ -10749,10 +10762,10 @@
         <v>0</v>
       </c>
       <c r="V79">
-        <v>0</v>
+        <v>1027</v>
       </c>
       <c r="W79">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="X79">
         <v>0</v>
@@ -10775,14 +10788,14 @@
         <v>13261</v>
       </c>
       <c r="C80" s="21">
-        <v>1881</v>
+        <v>2077</v>
       </c>
       <c r="D80" s="23">
-        <v>911</v>
+        <v>1398</v>
       </c>
       <c r="E80" s="19">
         <f t="shared" si="2"/>
-        <v>3.645326898991233E-3</v>
+        <v>3.4077779240343411E-3</v>
       </c>
       <c r="F80" s="20" t="s">
         <v>372</v>
@@ -10834,10 +10847,10 @@
         <v>0</v>
       </c>
       <c r="V80">
-        <v>0</v>
+        <v>2077</v>
       </c>
       <c r="W80">
-        <v>0</v>
+        <v>1398</v>
       </c>
       <c r="X80">
         <v>0</v>
@@ -10860,14 +10873,14 @@
         <v>7720</v>
       </c>
       <c r="C81" s="21">
-        <v>739</v>
+        <v>895</v>
       </c>
       <c r="D81" s="23">
-        <v>335</v>
+        <v>573</v>
       </c>
       <c r="E81" s="19">
         <f t="shared" si="2"/>
-        <v>1.3404879376092897E-3</v>
+        <v>1.3967501791642899E-3</v>
       </c>
       <c r="F81" s="20" t="s">
         <v>367</v>
@@ -10919,10 +10932,10 @@
         <v>0</v>
       </c>
       <c r="V81">
-        <v>0</v>
+        <v>895</v>
       </c>
       <c r="W81">
-        <v>0</v>
+        <v>573</v>
       </c>
       <c r="X81">
         <v>0</v>
@@ -10945,14 +10958,14 @@
         <v>10582</v>
       </c>
       <c r="C82" s="21">
-        <v>696</v>
+        <v>903</v>
       </c>
       <c r="D82" s="23">
-        <v>378</v>
+        <v>670</v>
       </c>
       <c r="E82" s="19">
         <f t="shared" si="2"/>
-        <v>1.5125505684069002E-3</v>
+        <v>1.6331982897732536E-3</v>
       </c>
       <c r="F82" s="20" t="s">
         <v>372</v>
@@ -11004,10 +11017,10 @@
         <v>0</v>
       </c>
       <c r="V82">
-        <v>0</v>
+        <v>903</v>
       </c>
       <c r="W82">
-        <v>0</v>
+        <v>670</v>
       </c>
       <c r="X82">
         <v>0</v>
@@ -11030,14 +11043,14 @@
         <v>158540</v>
       </c>
       <c r="C83" s="21">
-        <v>20118</v>
+        <v>26406</v>
       </c>
       <c r="D83" s="23">
-        <v>12203</v>
+        <v>21391</v>
       </c>
       <c r="E83" s="19">
         <f t="shared" si="2"/>
-        <v>4.882977403774974E-2</v>
+        <v>5.2142902412745773E-2</v>
       </c>
       <c r="F83" s="20" t="s">
         <v>350</v>
@@ -11089,10 +11102,10 @@
         <v>0</v>
       </c>
       <c r="V83">
-        <v>0</v>
+        <v>26406</v>
       </c>
       <c r="W83">
-        <v>0</v>
+        <v>21391</v>
       </c>
       <c r="X83">
         <v>0</v>
@@ -11115,14 +11128,14 @@
         <v>5698</v>
       </c>
       <c r="C84" s="21">
-        <v>2432</v>
+        <v>2528</v>
       </c>
       <c r="D84" s="23">
-        <v>876</v>
+        <v>1352</v>
       </c>
       <c r="E84" s="19">
         <f t="shared" si="2"/>
-        <v>3.5052759204350385E-3</v>
+        <v>3.2956478921991623E-3</v>
       </c>
       <c r="F84" s="20" t="s">
         <v>372</v>
@@ -11174,10 +11187,10 @@
         <v>0</v>
       </c>
       <c r="V84">
-        <v>0</v>
+        <v>2528</v>
       </c>
       <c r="W84">
-        <v>0</v>
+        <v>1352</v>
       </c>
       <c r="X84">
         <v>0</v>
@@ -11200,14 +11213,14 @@
         <v>3563</v>
       </c>
       <c r="C85" s="21">
-        <v>1693</v>
+        <v>1717</v>
       </c>
       <c r="D85" s="23">
-        <v>542</v>
+        <v>799</v>
       </c>
       <c r="E85" s="19">
         <f t="shared" si="2"/>
-        <v>2.1687894393559257E-3</v>
+        <v>1.9476499007892978E-3</v>
       </c>
       <c r="F85" s="20" t="s">
         <v>370</v>
@@ -11259,10 +11272,10 @@
         <v>0</v>
       </c>
       <c r="V85">
-        <v>0</v>
+        <v>1717</v>
       </c>
       <c r="W85">
-        <v>0</v>
+        <v>799</v>
       </c>
       <c r="X85">
         <v>0</v>
@@ -11285,14 +11298,14 @@
         <v>27538</v>
       </c>
       <c r="C86" s="21">
-        <v>2356</v>
+        <v>2834</v>
       </c>
       <c r="D86" s="23">
-        <v>1236</v>
+        <v>1836</v>
       </c>
       <c r="E86" s="19">
         <f t="shared" si="2"/>
-        <v>4.9458002712987528E-3</v>
+        <v>4.4754508358562589E-3</v>
       </c>
       <c r="F86" s="20" t="s">
         <v>372</v>
@@ -11344,10 +11357,10 @@
         <v>0</v>
       </c>
       <c r="V86">
-        <v>0</v>
+        <v>2834</v>
       </c>
       <c r="W86">
-        <v>0</v>
+        <v>1836</v>
       </c>
       <c r="X86">
         <v>0</v>
@@ -11370,14 +11383,14 @@
         <v>77528</v>
       </c>
       <c r="C87" s="21">
-        <v>6605</v>
+        <v>8653</v>
       </c>
       <c r="D87" s="23">
-        <v>3663</v>
+        <v>6186</v>
       </c>
       <c r="E87" s="19">
         <f t="shared" si="2"/>
-        <v>1.4657335270038294E-2</v>
+        <v>1.5079051672443802E-2</v>
       </c>
       <c r="F87" s="20" t="s">
         <v>367</v>
@@ -11429,10 +11442,10 @@
         <v>0</v>
       </c>
       <c r="V87">
-        <v>0</v>
+        <v>8653</v>
       </c>
       <c r="W87">
-        <v>0</v>
+        <v>6186</v>
       </c>
       <c r="X87">
         <v>0</v>
@@ -11455,14 +11468,14 @@
         <v>5851</v>
       </c>
       <c r="C88" s="21">
-        <v>757</v>
+        <v>829</v>
       </c>
       <c r="D88" s="23">
-        <v>171</v>
+        <v>421</v>
       </c>
       <c r="E88" s="19">
         <f t="shared" si="2"/>
-        <v>6.8424906666026439E-4</v>
+        <v>1.0262335522306563E-3</v>
       </c>
       <c r="F88" s="20" t="s">
         <v>369</v>
@@ -11514,10 +11527,10 @@
         <v>0</v>
       </c>
       <c r="V88">
-        <v>0</v>
+        <v>829</v>
       </c>
       <c r="W88">
-        <v>0</v>
+        <v>421</v>
       </c>
       <c r="X88">
         <v>0</v>
@@ -11540,14 +11553,14 @@
         <v>3246893</v>
       </c>
       <c r="C89" s="23">
-        <v>478130</v>
+        <v>581971</v>
       </c>
       <c r="D89" s="23">
-        <v>249909</v>
+        <v>410238</v>
       </c>
       <c r="E89" s="19">
         <f t="shared" ref="E89" si="4">D89/B89</f>
-        <v>7.6968658961043684E-2</v>
+        <v>0.12634786548247817</v>
       </c>
       <c r="F89" s="20" t="s">
         <v>352</v>
@@ -11599,10 +11612,10 @@
         <v>0</v>
       </c>
       <c r="V89">
-        <v>0</v>
+        <v>581971</v>
       </c>
       <c r="W89">
-        <v>0</v>
+        <v>410238</v>
       </c>
       <c r="X89">
         <v>0</v>
@@ -11640,7 +11653,7 @@
     <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>214</v>
       </c>
@@ -11653,161 +11666,177 @@
       <c r="D1" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>351</v>
       </c>
-      <c r="B2">
-        <v>87765</v>
+      <c r="B2" s="4">
+        <v>149494</v>
       </c>
       <c r="C2">
-        <v>249909</v>
+        <v>410238</v>
       </c>
       <c r="D2">
         <f>B2/C2</f>
-        <v>0.35118783237098306</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.36440797780800416</v>
+      </c>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>350</v>
       </c>
-      <c r="B3">
-        <v>54515</v>
+      <c r="B3" s="4">
+        <v>91286</v>
       </c>
       <c r="C3">
-        <v>249909</v>
+        <v>410238</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D10" si="0">B3/C3</f>
-        <v>0.2181394027425983</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.22251961056752423</v>
+      </c>
+      <c r="H3" s="36"/>
+      <c r="I3" s="35"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>367</v>
       </c>
-      <c r="B4">
-        <v>27832</v>
+      <c r="B4" s="4">
+        <v>43905</v>
       </c>
       <c r="C4">
-        <v>249909</v>
+        <v>410238</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>0.11136853814788583</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.10702324016790253</v>
+      </c>
+      <c r="H4" s="36"/>
+      <c r="I4" s="35"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>370</v>
       </c>
-      <c r="B5">
-        <v>10743</v>
+      <c r="B5" s="4">
+        <v>16888</v>
       </c>
       <c r="C5">
-        <v>249909</v>
+        <v>410238</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>4.2987647503691342E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4.1166347339836873E-2</v>
+      </c>
+      <c r="H5" s="36"/>
+      <c r="I5" s="35"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>371</v>
       </c>
-      <c r="B6">
-        <v>17537</v>
+      <c r="B6" s="4">
+        <v>25927</v>
       </c>
       <c r="C6">
-        <v>249909</v>
+        <v>410238</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>7.0173543169713776E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>6.3199898595449472E-2</v>
+      </c>
+      <c r="H6" s="36"/>
+      <c r="I6" s="35"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>368</v>
       </c>
-      <c r="B7">
-        <v>12076</v>
+      <c r="B7" s="4">
+        <v>18450</v>
       </c>
       <c r="C7">
-        <v>249909</v>
+        <v>410238</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>4.8321589058417262E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4.4973893203457502E-2</v>
+      </c>
+      <c r="H7" s="36"/>
+      <c r="I7" s="35"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>372</v>
       </c>
-      <c r="B8">
-        <v>29493</v>
+      <c r="B8" s="4">
+        <v>46905</v>
       </c>
       <c r="C8">
-        <v>249909</v>
+        <v>410238</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>0.11801495744450981</v>
-      </c>
-      <c r="H8" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.11433606833106635</v>
+      </c>
+      <c r="H8" s="36"/>
+      <c r="I8" s="35"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>369</v>
       </c>
-      <c r="B9">
-        <v>9948</v>
+      <c r="B9" s="4">
+        <v>17383</v>
       </c>
       <c r="C9">
-        <v>249909</v>
+        <v>410238</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>3.9806489562200641E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4.2372963986758903E-2</v>
+      </c>
+      <c r="H9" s="36"/>
+      <c r="I9" s="35"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>352</v>
       </c>
       <c r="B10">
-        <v>159660</v>
+        <v>410238</v>
       </c>
       <c r="C10">
-        <v>249909</v>
+        <v>410238</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>0.63887254960805728</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H11" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="36"/>
+      <c r="I10" s="35"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H11" s="37"/>
+      <c r="I11" s="38"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>331</v>
       </c>
@@ -18890,7 +18919,7 @@
         <v>1425</v>
       </c>
       <c r="R32" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="S32">
         <v>15213</v>
@@ -18924,7 +18953,7 @@
         <v>19693</v>
       </c>
       <c r="R33" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="S33">
         <v>33298</v>
@@ -18964,7 +18993,7 @@
         <v>35324</v>
       </c>
       <c r="R34" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="S34">
         <v>42146</v>
@@ -19004,7 +19033,7 @@
         <v>45298</v>
       </c>
       <c r="R35" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="S35">
         <v>66474</v>
